--- a/Workflows/01_Define_Metric/suspOpt_sweep_param_limits_results.xlsx
+++ b/Workflows/01_Define_Metric/suspOpt_sweep_param_limits_results.xlsx
@@ -503,7 +503,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1700" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2116" uniqueCount="195">
   <si>
     <t>Label</t>
   </si>
@@ -1793,13 +1793,13 @@
     <col min="4" max="4" width="9.42578125" customWidth="true"/>
     <col min="6" max="6" width="7.5703125" customWidth="true"/>
     <col min="7" max="7" width="7.42578125" customWidth="true"/>
-    <col min="8" max="8" width="8.7109375" customWidth="true"/>
+    <col min="8" max="8" width="8.42578125" customWidth="true"/>
     <col min="9" max="9" width="8" customWidth="true"/>
     <col min="10" max="10" width="7.85546875" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="11" max="11" width="8.42578125" customWidth="true"/>
     <col min="12" max="12" width="8.140625" customWidth="true"/>
     <col min="13" max="13" width="8" customWidth="true"/>
-    <col min="14" max="14" width="8.7109375" customWidth="true"/>
+    <col min="14" max="14" width="8.42578125" customWidth="true"/>
     <col min="15" max="15" width="9" customWidth="true"/>
     <col min="16" max="16" width="8.85546875" customWidth="true"/>
     <col min="17" max="17" width="8.42578125" customWidth="true"/>
@@ -1908,31 +1908,31 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="F2" s="3">
-        <v>0.14124584985342808</v>
+        <v>0.14121657834474366</v>
       </c>
       <c r="G2" s="3">
-        <v>0.14041058505704618</v>
+        <v>0.14040937706220624</v>
       </c>
       <c r="H2" s="2">
-        <v>0.00083526479638190709</v>
+        <v>0.00080720128253741752</v>
       </c>
       <c r="I2" s="4">
-        <v>27.516688694433071</v>
+        <v>27.517606957769829</v>
       </c>
       <c r="J2" s="4">
-        <v>27.507460894475741</v>
+        <v>27.507408071782663</v>
       </c>
       <c r="K2" s="2">
-        <v>0.0092277999573298075</v>
+        <v>0.01019888598716534</v>
       </c>
       <c r="L2" s="4">
-        <v>1.0278480642061598</v>
+        <v>1.0273071017316526</v>
       </c>
       <c r="M2" s="4">
-        <v>1.0267840719903079</v>
+        <v>1.0270093229452073</v>
       </c>
       <c r="N2" s="2">
-        <v>0.001063992215851961</v>
+        <v>0.00029777878644532407</v>
       </c>
       <c r="O2" s="8" t="b">
         <v>1</v>
@@ -1993,31 +1993,31 @@
         <v>0.501</v>
       </c>
       <c r="F3" s="3">
-        <v>0.14116776514730089</v>
+        <v>0.14115502492602949</v>
       </c>
       <c r="G3" s="3">
         <v>0.14006081804571691</v>
       </c>
       <c r="H3" s="2">
-        <v>0.0011069471015839882</v>
+        <v>0.0010942068803125871</v>
       </c>
       <c r="I3" s="4">
-        <v>27.522425855052234</v>
+        <v>27.5224980415191</v>
       </c>
       <c r="J3" s="4">
         <v>27.492076503307828</v>
       </c>
       <c r="K3" s="2">
-        <v>0.03034935174440534</v>
+        <v>0.030421538211271582</v>
       </c>
       <c r="L3" s="4">
-        <v>1.0299951632914304</v>
+        <v>1.0298224341253985</v>
       </c>
       <c r="M3" s="4">
         <v>1.0242397917888411</v>
       </c>
       <c r="N3" s="2">
-        <v>0.0057553715025893126</v>
+        <v>0.0055826423365574751</v>
       </c>
       <c r="O3" s="8" t="b">
         <v>1</v>
@@ -2078,31 +2078,31 @@
         <v>0.47999999999999998</v>
       </c>
       <c r="F4" s="3">
-        <v>0.13558880349688543</v>
+        <v>0.13556261811418471</v>
       </c>
       <c r="G4" s="3">
         <v>0.14373173142396412</v>
       </c>
       <c r="H4" s="2">
-        <v>0.0081429279270786858</v>
+        <v>0.0081691133097794022</v>
       </c>
       <c r="I4" s="4">
-        <v>27.449008503318112</v>
+        <v>27.449016059270377</v>
       </c>
       <c r="J4" s="4">
         <v>27.546723111391316</v>
       </c>
       <c r="K4" s="2">
-        <v>0.09771460807320409</v>
+        <v>0.097707052120938442</v>
       </c>
       <c r="L4" s="4">
-        <v>1.0234918451452664</v>
+        <v>1.0235138533655987</v>
       </c>
       <c r="M4" s="4">
         <v>1.0326723992936844</v>
       </c>
       <c r="N4" s="2">
-        <v>0.0091805541484180075</v>
+        <v>0.0091585459280856263</v>
       </c>
       <c r="O4" s="8" t="b">
         <v>1</v>
@@ -2156,31 +2156,31 @@
         <v>-0.055</v>
       </c>
       <c r="F5" s="3">
-        <v>0.14125181885276644</v>
+        <v>0.1412349427233906</v>
       </c>
       <c r="G5" s="3">
         <v>0.1398698320380235</v>
       </c>
       <c r="H5" s="2">
-        <v>0.0013819868147429415</v>
+        <v>0.0013651106853670991</v>
       </c>
       <c r="I5" s="4">
-        <v>27.511323560587982</v>
+        <v>27.511312316111059</v>
       </c>
       <c r="J5" s="4">
         <v>27.511964250977996</v>
       </c>
       <c r="K5" s="2">
-        <v>0.00064069039001424244</v>
+        <v>0.00065193486693715386</v>
       </c>
       <c r="L5" s="4">
-        <v>1.0273440839114742</v>
+        <v>1.0270515358446308</v>
       </c>
       <c r="M5" s="4">
         <v>1.0270700253603813</v>
       </c>
       <c r="N5" s="2">
-        <v>0.0002740585510929705</v>
+        <v>1.8489515750452767e-05</v>
       </c>
       <c r="O5" s="8" t="b">
         <v>1</v>
@@ -2312,31 +2312,31 @@
         <v>0.46000000000000002</v>
       </c>
       <c r="F7" s="3">
-        <v>0.13377090051971663</v>
+        <v>0.1337855296304222</v>
       </c>
       <c r="G7" s="3">
-        <v>0.14651864057730524</v>
+        <v>0.14655288124076532</v>
       </c>
       <c r="H7" s="2">
-        <v>0.012747740057588608</v>
+        <v>0.012767351610343119</v>
       </c>
       <c r="I7" s="4">
-        <v>27.51636378617286</v>
+        <v>27.516123583925946</v>
       </c>
       <c r="J7" s="4">
-        <v>27.498022892357596</v>
+        <v>27.498923743303919</v>
       </c>
       <c r="K7" s="2">
-        <v>0.018340893815263826</v>
+        <v>0.017199840622026841</v>
       </c>
       <c r="L7" s="4">
-        <v>1.0265230266631409</v>
+        <v>1.0272099460180606</v>
       </c>
       <c r="M7" s="4">
-        <v>1.0318419651542423</v>
+        <v>1.0322312765860604</v>
       </c>
       <c r="N7" s="2">
-        <v>0.0053189384911014326</v>
+        <v>0.0050213305679998044</v>
       </c>
       <c r="O7" s="8" t="b">
         <v>1</v>
@@ -2468,31 +2468,31 @@
         <v>0.73719999999999997</v>
       </c>
       <c r="F9" s="3">
-        <v>0.1388747758202481</v>
+        <v>0.13887719135998683</v>
       </c>
       <c r="G9" s="3">
-        <v>0.14189574721150247</v>
+        <v>0.14185436392373785</v>
       </c>
       <c r="H9" s="2">
-        <v>0.0030209713912543734</v>
+        <v>0.0029771725637510182</v>
       </c>
       <c r="I9" s="4">
-        <v>27.502187106300198</v>
+        <v>27.501792715209149</v>
       </c>
       <c r="J9" s="4">
-        <v>27.516442436224565</v>
+        <v>27.516859309755546</v>
       </c>
       <c r="K9" s="2">
-        <v>0.014255329924367288</v>
+        <v>0.015066594546397027</v>
       </c>
       <c r="L9" s="4">
-        <v>1.0242708096887587</v>
+        <v>1.0246364137769048</v>
       </c>
       <c r="M9" s="4">
-        <v>1.0287273829545212</v>
+        <v>1.0285876743801485</v>
       </c>
       <c r="N9" s="2">
-        <v>0.0044565732657624313</v>
+        <v>0.0039512606032436892</v>
       </c>
       <c r="O9" s="8" t="b">
         <v>1</v>
@@ -2624,31 +2624,31 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="F11" s="3">
-        <v>0.14073710203449322</v>
+        <v>0.14072620439745503</v>
       </c>
       <c r="G11" s="3">
-        <v>0.14072215440386679</v>
+        <v>0.14072660698311162</v>
       </c>
       <c r="H11" s="2">
-        <v>1.4947630626427344e-05</v>
+        <v>4.0258565658923828e-07</v>
       </c>
       <c r="I11" s="4">
-        <v>27.511442499735836</v>
+        <v>27.511444193139994</v>
       </c>
       <c r="J11" s="4">
-        <v>27.51015544816471</v>
+        <v>27.510969573088914</v>
       </c>
       <c r="K11" s="2">
-        <v>0.0012870515711256303</v>
+        <v>0.00047462005107945515</v>
       </c>
       <c r="L11" s="4">
-        <v>1.0273149474568901</v>
+        <v>1.0274830485938551</v>
       </c>
       <c r="M11" s="4">
-        <v>1.027571286650121</v>
+        <v>1.0272519016462718</v>
       </c>
       <c r="N11" s="2">
-        <v>0.00025633919323087007</v>
+        <v>0.00023114694758330501</v>
       </c>
       <c r="O11" s="8" t="b">
         <v>1</v>
@@ -2780,31 +2780,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F13" s="3">
-        <v>0.14290435307545221</v>
+        <v>0.14290939485706688</v>
       </c>
       <c r="G13" s="3">
-        <v>0.13838145432811977</v>
+        <v>0.13835950671784358</v>
       </c>
       <c r="H13" s="2">
-        <v>0.0045228987473324433</v>
+        <v>0.0045498881392233015</v>
       </c>
       <c r="I13" s="4">
-        <v>27.557323106205217</v>
+        <v>27.556734688301731</v>
       </c>
       <c r="J13" s="4">
-        <v>27.56738191671343</v>
+        <v>27.565939972908495</v>
       </c>
       <c r="K13" s="2">
-        <v>0.010058810508212446</v>
+        <v>0.0092052846067645078</v>
       </c>
       <c r="L13" s="4">
-        <v>1.0551336742239783</v>
+        <v>1.0553166364607047</v>
       </c>
       <c r="M13" s="4">
-        <v>1.0034764588153515</v>
+        <v>1.0034399406411938</v>
       </c>
       <c r="N13" s="2">
-        <v>0.051657215408626778</v>
+        <v>0.051876695819510932</v>
       </c>
       <c r="O13" s="8" t="b">
         <v>1</v>
@@ -2858,31 +2858,31 @@
         <v>-0.074999999999999997</v>
       </c>
       <c r="F14" s="3">
-        <v>0.14072218678870102</v>
+        <v>0.14072152826424486</v>
       </c>
       <c r="G14" s="3">
         <v>0.14072686774364113</v>
       </c>
       <c r="H14" s="2">
-        <v>4.680954940106119e-06</v>
+        <v>5.3394793962657783e-06</v>
       </c>
       <c r="I14" s="4">
-        <v>27.510584479272723</v>
+        <v>27.510667914325325</v>
       </c>
       <c r="J14" s="4">
         <v>27.511345938585237</v>
       </c>
       <c r="K14" s="2">
-        <v>0.00076145931251403454</v>
+        <v>0.00067802425991203563</v>
       </c>
       <c r="L14" s="4">
-        <v>1.0272016126329948</v>
+        <v>1.0270669165281685</v>
       </c>
       <c r="M14" s="4">
         <v>1.0274154693486688</v>
       </c>
       <c r="N14" s="2">
-        <v>0.00021385671567397679</v>
+        <v>0.0003485528205002808</v>
       </c>
       <c r="O14" s="8" t="b">
         <v>1</v>
@@ -2936,31 +2936,31 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F15" s="3">
-        <v>0.13815077121858141</v>
+        <v>0.13812787867777296</v>
       </c>
       <c r="G15" s="3">
-        <v>0.14337457248573079</v>
+        <v>0.14335378735643831</v>
       </c>
       <c r="H15" s="2">
-        <v>0.0052238012671493861</v>
+        <v>0.0052259086786653475</v>
       </c>
       <c r="I15" s="4">
-        <v>27.520349517971681</v>
+        <v>27.521088192242473</v>
       </c>
       <c r="J15" s="4">
-        <v>27.498875483940822</v>
+        <v>27.499406224507197</v>
       </c>
       <c r="K15" s="2">
-        <v>0.021474034030859457</v>
+        <v>0.021681967735275975</v>
       </c>
       <c r="L15" s="4">
-        <v>1.0288952914650302</v>
+        <v>1.0287773544899979</v>
       </c>
       <c r="M15" s="4">
-        <v>1.0260439940551458</v>
+        <v>1.025864210565449</v>
       </c>
       <c r="N15" s="2">
-        <v>0.0028512974098844346</v>
+        <v>0.0029131439245488888</v>
       </c>
       <c r="O15" s="8" t="b">
         <v>1</v>
@@ -3017,28 +3017,28 @@
         <v>0.14185812521112645</v>
       </c>
       <c r="G16" s="3">
-        <v>0.13867350214295751</v>
+        <v>0.13869492824792987</v>
       </c>
       <c r="H16" s="2">
-        <v>0.0031846230681689403</v>
+        <v>0.0031631969631965851</v>
       </c>
       <c r="I16" s="4">
         <v>27.358956449659388</v>
       </c>
       <c r="J16" s="4">
-        <v>27.571600374963452</v>
+        <v>27.570958554065157</v>
       </c>
       <c r="K16" s="2">
-        <v>0.2126439253040644</v>
+        <v>0.21200210440576939</v>
       </c>
       <c r="L16" s="4">
         <v>1.0467526167185699</v>
       </c>
       <c r="M16" s="4">
-        <v>1.00330950769616</v>
+        <v>1.0035210286101881</v>
       </c>
       <c r="N16" s="2">
-        <v>0.043443109022409887</v>
+        <v>0.043231588108381791</v>
       </c>
       <c r="O16" s="8" t="b">
         <v>1</v>
@@ -3092,31 +3092,31 @@
         <v>0.065000000000000002</v>
       </c>
       <c r="F17" s="3">
-        <v>0.13621198404789034</v>
+        <v>0.13618219959629785</v>
       </c>
       <c r="G17" s="3">
-        <v>0.14715684365460222</v>
+        <v>0.14714957540543244</v>
       </c>
       <c r="H17" s="2">
-        <v>0.010944859606711876</v>
+        <v>0.010967375809134594</v>
       </c>
       <c r="I17" s="4">
-        <v>27.539390308259783</v>
+        <v>27.539764265034876</v>
       </c>
       <c r="J17" s="4">
-        <v>27.447253611080839</v>
+        <v>27.44825613792375</v>
       </c>
       <c r="K17" s="2">
-        <v>0.092136697178943905</v>
+        <v>0.091508127111126214</v>
       </c>
       <c r="L17" s="4">
-        <v>1.017830202515468</v>
+        <v>1.016994456123989</v>
       </c>
       <c r="M17" s="4">
-        <v>1.0487217376186835</v>
+        <v>1.0472217061764055</v>
       </c>
       <c r="N17" s="2">
-        <v>0.030891535103215517</v>
+        <v>0.030227250052416554</v>
       </c>
       <c r="O17" s="8" t="b">
         <v>1</v>
@@ -3170,31 +3170,31 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="F18" s="3">
-        <v>0.13520163496415347</v>
+        <v>0.13520965734853091</v>
       </c>
       <c r="G18" s="3">
         <v>0.14410639300459901</v>
       </c>
       <c r="H18" s="2">
-        <v>0.0089047580404455484</v>
+        <v>0.0088967356560681055</v>
       </c>
       <c r="I18" s="4">
-        <v>27.520459194073453</v>
+        <v>27.520445928863182</v>
       </c>
       <c r="J18" s="4">
         <v>27.513641901314202</v>
       </c>
       <c r="K18" s="2">
-        <v>0.0068172927592513588</v>
+        <v>0.0068040275489806845</v>
       </c>
       <c r="L18" s="4">
-        <v>1.0495284942208052</v>
+        <v>1.0494949058371743</v>
       </c>
       <c r="M18" s="4">
         <v>1.0133560317323933</v>
       </c>
       <c r="N18" s="2">
-        <v>0.036172462488411883</v>
+        <v>0.036138874104781005</v>
       </c>
       <c r="O18" s="8" t="b">
         <v>1</v>
@@ -3251,28 +3251,28 @@
         <v>0.1357219770245762</v>
       </c>
       <c r="G19" s="3">
-        <v>0.1497447838499873</v>
+        <v>0.14973297657790938</v>
       </c>
       <c r="H19" s="2">
-        <v>0.014022806825411099</v>
+        <v>0.014010999553333181</v>
       </c>
       <c r="I19" s="4">
         <v>27.561183433327926</v>
       </c>
       <c r="J19" s="4">
-        <v>27.378570282319913</v>
+        <v>27.378578652801025</v>
       </c>
       <c r="K19" s="2">
-        <v>0.18261315100801312</v>
+        <v>0.18260478052690132</v>
       </c>
       <c r="L19" s="4">
         <v>1.0053834706852616</v>
       </c>
       <c r="M19" s="4">
-        <v>1.0907678071213331</v>
+        <v>1.0908425675648494</v>
       </c>
       <c r="N19" s="2">
-        <v>0.085384336436071573</v>
+        <v>0.085459096879587859</v>
       </c>
       <c r="O19" s="8" t="b">
         <v>1</v>
@@ -3326,31 +3326,31 @@
         <v>0.18708</v>
       </c>
       <c r="F20" s="3">
-        <v>0.14075658750706799</v>
+        <v>0.14074559244364857</v>
       </c>
       <c r="G20" s="3">
-        <v>0.14070735000533527</v>
+        <v>0.14070699825290253</v>
       </c>
       <c r="H20" s="2">
-        <v>4.9237501732718458e-05</v>
+        <v>3.8594190746032986e-05</v>
       </c>
       <c r="I20" s="4">
-        <v>27.502123126890183</v>
+        <v>27.502490782367659</v>
       </c>
       <c r="J20" s="4">
-        <v>27.519579042501107</v>
+        <v>27.519167247266296</v>
       </c>
       <c r="K20" s="2">
-        <v>0.017455915610923967</v>
+        <v>0.016676464898637278</v>
       </c>
       <c r="L20" s="4">
-        <v>1.0289923977091835</v>
+        <v>1.0283306677712039</v>
       </c>
       <c r="M20" s="4">
-        <v>1.0256259259475304</v>
+        <v>1.0256194879714395</v>
       </c>
       <c r="N20" s="2">
-        <v>0.0033664717616530559</v>
+        <v>0.0027111797997643183</v>
       </c>
       <c r="O20" s="8" t="b">
         <v>1</v>
@@ -3407,28 +3407,28 @@
         <v>0.14038814640174074</v>
       </c>
       <c r="G21" s="3">
-        <v>0.14118834155580748</v>
+        <v>0.14117806025620397</v>
       </c>
       <c r="H21" s="2">
-        <v>0.00080019515406673514</v>
+        <v>0.0007899138544632256</v>
       </c>
       <c r="I21" s="4">
         <v>27.506137209264637</v>
       </c>
       <c r="J21" s="4">
-        <v>27.518943154621979</v>
+        <v>27.518918177648743</v>
       </c>
       <c r="K21" s="2">
-        <v>0.012805945357342807</v>
+        <v>0.012780968384106473</v>
       </c>
       <c r="L21" s="4">
         <v>1.0287390444491413</v>
       </c>
       <c r="M21" s="4">
-        <v>1.0242174021523271</v>
+        <v>1.0250370341064952</v>
       </c>
       <c r="N21" s="2">
-        <v>0.0045216422968141767</v>
+        <v>0.003702010342646167</v>
       </c>
       <c r="O21" s="8" t="b">
         <v>1</v>
@@ -3482,31 +3482,31 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="F22" s="3">
-        <v>0.15190631705701491</v>
+        <v>0.15192929268654221</v>
       </c>
       <c r="G22" s="3">
-        <v>0.13243358769713845</v>
+        <v>0.13243589057927818</v>
       </c>
       <c r="H22" s="2">
-        <v>0.019472729359876456</v>
+        <v>0.019493402107264024</v>
       </c>
       <c r="I22" s="4">
-        <v>27.526624014330764</v>
+        <v>27.526629021471308</v>
       </c>
       <c r="J22" s="4">
-        <v>27.283683240216135</v>
+        <v>27.284649989372724</v>
       </c>
       <c r="K22" s="2">
-        <v>0.24294077411462922</v>
+        <v>0.24197903209858396</v>
       </c>
       <c r="L22" s="4">
-        <v>1.0043992913530932</v>
+        <v>1.004121634860051</v>
       </c>
       <c r="M22" s="4">
-        <v>1.0645022754173521</v>
+        <v>1.0649175873647465</v>
       </c>
       <c r="N22" s="2">
-        <v>0.060102984064258846</v>
+        <v>0.060795952504695494</v>
       </c>
       <c r="O22" s="8" t="b">
         <v>1</v>
@@ -3563,28 +3563,28 @@
         <v>0.1412795634209211</v>
       </c>
       <c r="G23" s="3">
-        <v>0.13858828074048221</v>
+        <v>0.13858929072394605</v>
       </c>
       <c r="H23" s="2">
-        <v>0.002691282680438889</v>
+        <v>0.0026902726969750546</v>
       </c>
       <c r="I23" s="4">
         <v>27.435373100997424</v>
       </c>
       <c r="J23" s="4">
-        <v>27.538333285069712</v>
+        <v>27.538324248963363</v>
       </c>
       <c r="K23" s="2">
-        <v>0.10296018407228757</v>
+        <v>0.10295114796593907</v>
       </c>
       <c r="L23" s="4">
         <v>1.0383032574051203</v>
       </c>
       <c r="M23" s="4">
-        <v>1.022586036540581</v>
+        <v>1.0223250304036451</v>
       </c>
       <c r="N23" s="2">
-        <v>0.015717220864539305</v>
+        <v>0.01597822700147522</v>
       </c>
       <c r="O23" s="8" t="b">
         <v>1</v>
@@ -3638,31 +3638,31 @@
         <v>0.83899999999999997</v>
       </c>
       <c r="F24" s="3">
-        <v>0.14079146389726227</v>
+        <v>0.14081751975352222</v>
       </c>
       <c r="G24" s="3">
         <v>0.14065491839067576</v>
       </c>
       <c r="H24" s="2">
-        <v>0.00013654550658651066</v>
+        <v>0.00016260136284645954</v>
       </c>
       <c r="I24" s="4">
-        <v>27.514515664611338</v>
+        <v>27.514838925943707</v>
       </c>
       <c r="J24" s="4">
         <v>27.508765187925633</v>
       </c>
       <c r="K24" s="2">
-        <v>0.0057504766857050527</v>
+        <v>0.0060737380180739819</v>
       </c>
       <c r="L24" s="4">
-        <v>1.0265659885975409</v>
+        <v>1.026509240350981</v>
       </c>
       <c r="M24" s="4">
         <v>1.0280042364712358</v>
       </c>
       <c r="N24" s="2">
-        <v>0.0014382478736949533</v>
+        <v>0.0014949961202548323</v>
       </c>
       <c r="O24" s="8" t="b">
         <v>1</v>
@@ -3716,31 +3716,31 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="F25" s="3">
-        <v>0.13428348703064133</v>
+        <v>0.13432373862376751</v>
       </c>
       <c r="G25" s="3">
-        <v>0.15558061666710152</v>
+        <v>0.15556748957123989</v>
       </c>
       <c r="H25" s="2">
-        <v>0.021297129636460188</v>
+        <v>0.021243750947472384</v>
       </c>
       <c r="I25" s="4">
-        <v>27.296128324156541</v>
+        <v>27.296098921378643</v>
       </c>
       <c r="J25" s="4">
-        <v>27.468466392251969</v>
+        <v>27.468498670252757</v>
       </c>
       <c r="K25" s="2">
-        <v>0.17233806809542784</v>
+        <v>0.17239974887411336</v>
       </c>
       <c r="L25" s="4">
-        <v>1.0588861926466233</v>
+        <v>1.0594050773319859</v>
       </c>
       <c r="M25" s="4">
-        <v>1.0017850887772337</v>
+        <v>1.0019797227681266</v>
       </c>
       <c r="N25" s="2">
-        <v>0.057101103869389602</v>
+        <v>0.057425354563859221</v>
       </c>
       <c r="O25" s="8" t="b">
         <v>1</v>
@@ -3794,31 +3794,31 @@
         <v>0.099782999999999997</v>
       </c>
       <c r="F26" s="3">
-        <v>0.14105675333128914</v>
+        <v>0.14105314571032912</v>
       </c>
       <c r="G26" s="3">
         <v>0.14105774503235918</v>
       </c>
       <c r="H26" s="2">
-        <v>9.9170107004109553e-07</v>
+        <v>4.599322030063302e-06</v>
       </c>
       <c r="I26" s="4">
-        <v>27.509956804222554</v>
+        <v>27.509409991070072</v>
       </c>
       <c r="J26" s="4">
         <v>27.50879465527521</v>
       </c>
       <c r="K26" s="2">
-        <v>0.0011621489473441216</v>
+        <v>0.00061533579486194867</v>
       </c>
       <c r="L26" s="4">
-        <v>1.0259212760934098</v>
+        <v>1.0260324907781173</v>
       </c>
       <c r="M26" s="4">
         <v>1.0257789211524411</v>
       </c>
       <c r="N26" s="2">
-        <v>0.00014235494096870305</v>
+        <v>0.00025356962567624208</v>
       </c>
       <c r="O26" s="8" t="b">
         <v>1</v>
@@ -3872,31 +3872,31 @@
         <v>0.54198999999999997</v>
       </c>
       <c r="F27" s="3">
-        <v>0.1418713336906271</v>
+        <v>0.14186910848124168</v>
       </c>
       <c r="G27" s="3">
-        <v>0.13922847168211169</v>
+        <v>0.13924167467563334</v>
       </c>
       <c r="H27" s="2">
-        <v>0.0026428620085154064</v>
+        <v>0.0026274338056083424</v>
       </c>
       <c r="I27" s="4">
-        <v>27.499996293543404</v>
+        <v>27.499895894980227</v>
       </c>
       <c r="J27" s="4">
-        <v>27.522843453243524</v>
+        <v>27.522958264113015</v>
       </c>
       <c r="K27" s="2">
-        <v>0.022847159700120301</v>
+        <v>0.023062369132787808</v>
       </c>
       <c r="L27" s="4">
-        <v>1.0208056369595953</v>
+        <v>1.0208435933089075</v>
       </c>
       <c r="M27" s="4">
-        <v>1.0341918035533519</v>
+        <v>1.0341894290332714</v>
       </c>
       <c r="N27" s="2">
-        <v>0.013386166593756688</v>
+        <v>0.013345835724363875</v>
       </c>
       <c r="O27" s="8" t="b">
         <v>1</v>
@@ -3950,31 +3950,31 @@
         <v>0.57586000000000004</v>
       </c>
       <c r="F28" s="3">
-        <v>0.14206142823877177</v>
+        <v>0.14205281040183712</v>
       </c>
       <c r="G28" s="3">
         <v>0.13982560182662479</v>
       </c>
       <c r="H28" s="2">
-        <v>0.0022358264121469795</v>
+        <v>0.0022272085752123305</v>
       </c>
       <c r="I28" s="4">
-        <v>27.503070604631148</v>
+        <v>27.502082152639389</v>
       </c>
       <c r="J28" s="4">
         <v>27.518260167712072</v>
       </c>
       <c r="K28" s="2">
-        <v>0.015189563080923563</v>
+        <v>0.016178015072682683</v>
       </c>
       <c r="L28" s="4">
-        <v>1.0201991735292484</v>
+        <v>1.0204941134781909</v>
       </c>
       <c r="M28" s="4">
         <v>1.0321066560313283</v>
       </c>
       <c r="N28" s="2">
-        <v>0.011907482502079958</v>
+        <v>0.011612542553137484</v>
       </c>
       <c r="O28" s="8" t="b">
         <v>1</v>
@@ -4028,31 +4028,31 @@
         <v>0.079783000000000007</v>
       </c>
       <c r="F29" s="3">
-        <v>0.1408515305775245</v>
+        <v>0.14085390742844808</v>
       </c>
       <c r="G29" s="3">
-        <v>0.14085281198370073</v>
+        <v>0.14085471265066593</v>
       </c>
       <c r="H29" s="2">
-        <v>1.2814061762234097e-06</v>
+        <v>8.052222178478452e-07</v>
       </c>
       <c r="I29" s="4">
-        <v>27.510762755747692</v>
+        <v>27.510846002777498</v>
       </c>
       <c r="J29" s="4">
-        <v>27.510752409741826</v>
+        <v>27.50998131561164</v>
       </c>
       <c r="K29" s="2">
-        <v>1.0346005865358165e-05</v>
+        <v>0.00086468716585841321</v>
       </c>
       <c r="L29" s="4">
-        <v>1.0266283150139706</v>
+        <v>1.0267676838287307</v>
       </c>
       <c r="M29" s="4">
-        <v>1.0262652024495222</v>
+        <v>1.02636588735099</v>
       </c>
       <c r="N29" s="2">
-        <v>0.00036311256444832019</v>
+        <v>0.00040179647774074567</v>
       </c>
       <c r="O29" s="8" t="b">
         <v>1</v>
@@ -4106,31 +4106,31 @@
         <v>0.746</v>
       </c>
       <c r="F30" s="3">
-        <v>0.14193582098138738</v>
+        <v>0.14194599326516602</v>
       </c>
       <c r="G30" s="3">
-        <v>0.13959939025465493</v>
+        <v>0.13959793051855099</v>
       </c>
       <c r="H30" s="2">
-        <v>0.0023364307267324524</v>
+        <v>0.0023480627466150317</v>
       </c>
       <c r="I30" s="4">
-        <v>27.503040618371358</v>
+        <v>27.50247771081473</v>
       </c>
       <c r="J30" s="4">
-        <v>27.51934425730127</v>
+        <v>27.519456586058595</v>
       </c>
       <c r="K30" s="2">
-        <v>0.016303638929912267</v>
+        <v>0.016978875243864877</v>
       </c>
       <c r="L30" s="4">
-        <v>1.0214247977803546</v>
+        <v>1.0207484334531103</v>
       </c>
       <c r="M30" s="4">
-        <v>1.0326429112957844</v>
+        <v>1.0326536878596062</v>
       </c>
       <c r="N30" s="2">
-        <v>0.011218113515429895</v>
+        <v>0.011905254406495924</v>
       </c>
       <c r="O30" s="8" t="b">
         <v>1</v>
@@ -4184,31 +4184,31 @@
         <v>0.17999999999999999</v>
       </c>
       <c r="F31" s="3">
-        <v>0.14114733351627673</v>
+        <v>0.14110534252641224</v>
       </c>
       <c r="G31" s="3">
-        <v>0.14019285140201571</v>
+        <v>0.14020495662169447</v>
       </c>
       <c r="H31" s="2">
-        <v>0.00095448211426102381</v>
+        <v>0.00090038590471777646</v>
       </c>
       <c r="I31" s="4">
-        <v>27.50799843995884</v>
+        <v>27.508003285458642</v>
       </c>
       <c r="J31" s="4">
-        <v>27.5161901041281</v>
+        <v>27.516194359571102</v>
       </c>
       <c r="K31" s="2">
-        <v>0.0081916641692600933</v>
+        <v>0.0081910741124602282</v>
       </c>
       <c r="L31" s="4">
-        <v>1.0252502806840222</v>
+        <v>1.0252940973479576</v>
       </c>
       <c r="M31" s="4">
-        <v>1.0301874339308446</v>
+        <v>1.0302304482816884</v>
       </c>
       <c r="N31" s="2">
-        <v>0.0049371532468223123</v>
+        <v>0.0049363509337307931</v>
       </c>
       <c r="O31" s="8" t="b">
         <v>1</v>
@@ -4262,31 +4262,31 @@
         <v>0.02</v>
       </c>
       <c r="F32" s="3">
-        <v>0.14071404544130212</v>
+        <v>0.1407199599079324</v>
       </c>
       <c r="G32" s="3">
-        <v>0.14073180964164256</v>
+        <v>0.14073853848963647</v>
       </c>
       <c r="H32" s="2">
-        <v>1.7764200340442127e-05</v>
+        <v>1.8578581704065122e-05</v>
       </c>
       <c r="I32" s="4">
-        <v>27.511447660352985</v>
+        <v>27.510599008918973</v>
       </c>
       <c r="J32" s="4">
-        <v>27.51167129166322</v>
+        <v>27.510638233598172</v>
       </c>
       <c r="K32" s="2">
-        <v>0.00022363131023439564</v>
+        <v>3.9224679198923695e-05</v>
       </c>
       <c r="L32" s="4">
-        <v>1.0270804680023713</v>
+        <v>1.0272296274102082</v>
       </c>
       <c r="M32" s="4">
-        <v>1.027143024402805</v>
+        <v>1.0274291602146819</v>
       </c>
       <c r="N32" s="2">
-        <v>6.2556400433733117e-05</v>
+        <v>0.00019953280447371213</v>
       </c>
       <c r="O32" s="8" t="b">
         <v>1</v>
@@ -4340,31 +4340,31 @@
         <v>0.75</v>
       </c>
       <c r="F33" s="3">
-        <v>0.14072877564469963</v>
+        <v>0.14071688765795629</v>
       </c>
       <c r="G33" s="3">
-        <v>0.14071307817342224</v>
+        <v>0.14073329516445904</v>
       </c>
       <c r="H33" s="2">
-        <v>1.5697471277387187e-05</v>
+        <v>1.6407506502752467e-05</v>
       </c>
       <c r="I33" s="4">
-        <v>27.511368115612811</v>
+        <v>27.510913509733996</v>
       </c>
       <c r="J33" s="4">
-        <v>27.511500163224468</v>
+        <v>27.511422011396576</v>
       </c>
       <c r="K33" s="2">
-        <v>0.00013204761165752643</v>
+        <v>0.00050850166257987439</v>
       </c>
       <c r="L33" s="4">
-        <v>1.0273853307041001</v>
+        <v>1.0267114818869487</v>
       </c>
       <c r="M33" s="4">
-        <v>1.0271777061864082</v>
+        <v>1.0267999429387753</v>
       </c>
       <c r="N33" s="2">
-        <v>0.0002076245176918512</v>
+        <v>8.8461051826582704e-05</v>
       </c>
       <c r="O33" s="8" t="b">
         <v>1</v>
@@ -4418,31 +4418,31 @@
         <v>0.34999999999999998</v>
       </c>
       <c r="F34" s="3">
-        <v>0.14069466167065525</v>
+        <v>0.14069625943445735</v>
       </c>
       <c r="G34" s="3">
-        <v>0.14074826674569055</v>
+        <v>0.14075444784806213</v>
       </c>
       <c r="H34" s="2">
-        <v>5.3605075035295657e-05</v>
+        <v>5.8188413604776112e-05</v>
       </c>
       <c r="I34" s="4">
-        <v>27.511440508272926</v>
+        <v>27.510775099681211</v>
       </c>
       <c r="J34" s="4">
-        <v>27.511343308519315</v>
+        <v>27.511343105780156</v>
       </c>
       <c r="K34" s="2">
-        <v>9.719975361122124e-05</v>
+        <v>0.00056800609894480658</v>
       </c>
       <c r="L34" s="4">
-        <v>1.027042653538041</v>
+        <v>1.0274273574635429</v>
       </c>
       <c r="M34" s="4">
-        <v>1.0274900560354052</v>
+        <v>1.0273706520798547</v>
       </c>
       <c r="N34" s="2">
-        <v>0.00044740249736419102</v>
+        <v>5.6705383688182565e-05</v>
       </c>
       <c r="O34" s="8" t="b">
         <v>1</v>
@@ -4496,31 +4496,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F35" s="3">
-        <v>0.14227991109471333</v>
+        <v>0.1423176778388269</v>
       </c>
       <c r="G35" s="3">
-        <v>0.13932901481127741</v>
+        <v>0.1393286483714587</v>
       </c>
       <c r="H35" s="2">
-        <v>0.002950896283435922</v>
+        <v>0.0029890294673682039</v>
       </c>
       <c r="I35" s="4">
-        <v>27.493798644947958</v>
+        <v>27.494341131443718</v>
       </c>
       <c r="J35" s="4">
-        <v>27.527714323276598</v>
+        <v>27.527734882025584</v>
       </c>
       <c r="K35" s="2">
-        <v>0.033915678328639842</v>
+        <v>0.033393750581865334</v>
       </c>
       <c r="L35" s="4">
-        <v>1.016591144300667</v>
+        <v>1.0169744420704692</v>
       </c>
       <c r="M35" s="4">
-        <v>1.0370608452031205</v>
+        <v>1.0369702860358241</v>
       </c>
       <c r="N35" s="2">
-        <v>0.02046970090245348</v>
+        <v>0.01999584396535492</v>
       </c>
       <c r="O35" s="8" t="b">
         <v>1</v>
@@ -4577,28 +4577,28 @@
         <v>0.14501089070759646</v>
       </c>
       <c r="G36" s="3">
-        <v>0.13713112028637928</v>
+        <v>0.13715827433211297</v>
       </c>
       <c r="H36" s="2">
-        <v>0.0078797704212171804</v>
+        <v>0.0078526163754834843</v>
       </c>
       <c r="I36" s="4">
         <v>27.520774964009149</v>
       </c>
       <c r="J36" s="4">
-        <v>27.503966604122979</v>
+        <v>27.503731972033847</v>
       </c>
       <c r="K36" s="2">
-        <v>0.01680835988616991</v>
+        <v>0.017042991975301902</v>
       </c>
       <c r="L36" s="4">
         <v>1.0233461296624327</v>
       </c>
       <c r="M36" s="4">
-        <v>1.031003443404342</v>
+        <v>1.0312458611874087</v>
       </c>
       <c r="N36" s="2">
-        <v>0.0076573137419093662</v>
+        <v>0.007899731524976028</v>
       </c>
       <c r="O36" s="8" t="b">
         <v>1</v>
@@ -4652,31 +4652,31 @@
         <v>0.38</v>
       </c>
       <c r="F37" s="3">
-        <v>0.14696548296460207</v>
+        <v>0.14696651956206053</v>
       </c>
       <c r="G37" s="3">
-        <v>0.13459469250173633</v>
+        <v>0.13458915765935614</v>
       </c>
       <c r="H37" s="2">
-        <v>0.012370790462865738</v>
+        <v>0.012377361902704387</v>
       </c>
       <c r="I37" s="4">
-        <v>27.495172080133159</v>
+        <v>27.494630416039399</v>
       </c>
       <c r="J37" s="4">
-        <v>27.542198239757568</v>
+        <v>27.541670479493519</v>
       </c>
       <c r="K37" s="2">
-        <v>0.047026159624408592</v>
+        <v>0.047040063454119263</v>
       </c>
       <c r="L37" s="4">
-        <v>1.0208174299343902</v>
+        <v>1.021112880015238</v>
       </c>
       <c r="M37" s="4">
-        <v>1.031137510789834</v>
+        <v>1.0309443963891087</v>
       </c>
       <c r="N37" s="2">
-        <v>0.010320080855443781</v>
+        <v>0.0098315163738706968</v>
       </c>
       <c r="O37" s="8" t="b">
         <v>1</v>
@@ -4733,28 +4733,28 @@
         <v>0.14784056389370032</v>
       </c>
       <c r="G38" s="3">
-        <v>0.12961098270143723</v>
+        <v>0.12962748679089986</v>
       </c>
       <c r="H38" s="2">
-        <v>0.018229581192263089</v>
+        <v>0.018213077102800457</v>
       </c>
       <c r="I38" s="4">
         <v>27.510607427389516</v>
       </c>
       <c r="J38" s="4">
-        <v>27.511377622735665</v>
+        <v>27.511012655408649</v>
       </c>
       <c r="K38" s="2">
-        <v>0.00077019534614919394</v>
+        <v>0.00040522801913311923</v>
       </c>
       <c r="L38" s="4">
         <v>1.016006239054239</v>
       </c>
       <c r="M38" s="4">
-        <v>1.0472136060244381</v>
+        <v>1.0471431369050475</v>
       </c>
       <c r="N38" s="2">
-        <v>0.031207366970199102</v>
+        <v>0.03113689785080842</v>
       </c>
       <c r="O38" s="8" t="b">
         <v>1</v>
@@ -4808,31 +4808,31 @@
         <v>0.63</v>
       </c>
       <c r="F39" s="3">
-        <v>0.14071929055029997</v>
+        <v>0.14073425489699654</v>
       </c>
       <c r="G39" s="3">
-        <v>0.14072174722023048</v>
+        <v>0.1407314267704918</v>
       </c>
       <c r="H39" s="2">
-        <v>2.4566699305117456e-06</v>
+        <v>2.8281265047336301e-06</v>
       </c>
       <c r="I39" s="4">
-        <v>27.511393674623775</v>
+        <v>27.510505605213666</v>
       </c>
       <c r="J39" s="4">
-        <v>27.510207374569347</v>
+        <v>27.510969263500783</v>
       </c>
       <c r="K39" s="2">
-        <v>0.0011863000544281022</v>
+        <v>0.0004636582871171413</v>
       </c>
       <c r="L39" s="4">
-        <v>1.027478867486695</v>
+        <v>1.0274924780367181</v>
       </c>
       <c r="M39" s="4">
-        <v>1.027382630269867</v>
+        <v>1.0271789252709764</v>
       </c>
       <c r="N39" s="2">
-        <v>9.6237216828054528e-05</v>
+        <v>0.00031355276574163149</v>
       </c>
       <c r="O39" s="8" t="b">
         <v>1</v>
@@ -4889,28 +4889,28 @@
         <v>0.14014972113368865</v>
       </c>
       <c r="G40" s="3">
-        <v>0.14129663146592825</v>
+        <v>0.14129333178723485</v>
       </c>
       <c r="H40" s="2">
-        <v>0.0011469103322395979</v>
+        <v>0.0011436106535462065</v>
       </c>
       <c r="I40" s="4">
         <v>27.510679482701903</v>
       </c>
       <c r="J40" s="4">
-        <v>27.510560027910458</v>
+        <v>27.510173379268394</v>
       </c>
       <c r="K40" s="2">
-        <v>0.00011945479144515048</v>
+        <v>0.00050610343350854237</v>
       </c>
       <c r="L40" s="4">
         <v>1.0271534518254453</v>
       </c>
       <c r="M40" s="4">
-        <v>1.0261033085601134</v>
+        <v>1.0262524219871263</v>
       </c>
       <c r="N40" s="2">
-        <v>0.0010501432653318155</v>
+        <v>0.00090102983831896744</v>
       </c>
       <c r="O40" s="8" t="b">
         <v>1</v>
@@ -4964,31 +4964,31 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0.12961007638390135</v>
+        <v>0.12961195246605725</v>
       </c>
       <c r="G41" s="3">
-        <v>0.14783461852420579</v>
+        <v>0.14783408546186899</v>
       </c>
       <c r="H41" s="2">
-        <v>0.018224542140304445</v>
+        <v>0.018222132995811741</v>
       </c>
       <c r="I41" s="4">
-        <v>27.510985655411105</v>
+        <v>27.510611006305055</v>
       </c>
       <c r="J41" s="4">
-        <v>27.511383457802083</v>
+        <v>27.511384790136503</v>
       </c>
       <c r="K41" s="2">
-        <v>0.0003978023909780859</v>
+        <v>0.00077378383144832696</v>
       </c>
       <c r="L41" s="4">
-        <v>1.0470501450893657</v>
+        <v>1.0472412694816198</v>
       </c>
       <c r="M41" s="4">
-        <v>1.0162626642247177</v>
+        <v>1.0161654021270725</v>
       </c>
       <c r="N41" s="2">
-        <v>0.030787480864647998</v>
+        <v>0.03107586735454726</v>
       </c>
       <c r="O41" s="8" t="b">
         <v>1</v>
@@ -5042,31 +5042,31 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="F42" s="3">
-        <v>0.1477308792561724</v>
+        <v>0.14772546725158672</v>
       </c>
       <c r="G42" s="3">
-        <v>0.13356470884338489</v>
+        <v>0.13354685633352253</v>
       </c>
       <c r="H42" s="2">
-        <v>0.014166170412787504</v>
+        <v>0.014178610918064188</v>
       </c>
       <c r="I42" s="4">
-        <v>27.511394167414323</v>
+        <v>27.511469800410737</v>
       </c>
       <c r="J42" s="4">
-        <v>27.511280733295678</v>
+        <v>27.510861360876049</v>
       </c>
       <c r="K42" s="2">
-        <v>0.00011343411864572772</v>
+        <v>0.00060843953468747713</v>
       </c>
       <c r="L42" s="4">
-        <v>1.0159129943014236</v>
+        <v>1.0158262382255883</v>
       </c>
       <c r="M42" s="4">
-        <v>1.0400937271573885</v>
+        <v>1.0391632772691348</v>
       </c>
       <c r="N42" s="2">
-        <v>0.024180732855964893</v>
+        <v>0.023337039043546559</v>
       </c>
       <c r="O42" s="8" t="b">
         <v>1</v>
@@ -5120,31 +5120,31 @@
         <v>0.29999999999999999</v>
       </c>
       <c r="F43" s="3">
-        <v>0.14166062562262316</v>
+        <v>0.14163214455339021</v>
       </c>
       <c r="G43" s="3">
-        <v>0.13977107478398526</v>
+        <v>0.13975984033754996</v>
       </c>
       <c r="H43" s="2">
-        <v>0.001889550838637899</v>
+        <v>0.0018723042158402536</v>
       </c>
       <c r="I43" s="4">
-        <v>27.511376490276632</v>
+        <v>27.511375779158584</v>
       </c>
       <c r="J43" s="4">
-        <v>27.511443063684965</v>
+        <v>27.5109639790399</v>
       </c>
       <c r="K43" s="2">
-        <v>6.6573408332715189e-05</v>
+        <v>0.00041180011868391375</v>
       </c>
       <c r="L43" s="4">
-        <v>1.0254262524790032</v>
+        <v>1.02577783819281</v>
       </c>
       <c r="M43" s="4">
-        <v>1.0290712620717024</v>
+        <v>1.0290678826872124</v>
       </c>
       <c r="N43" s="2">
-        <v>0.0036450095926991999</v>
+        <v>0.0032900444944023999</v>
       </c>
       <c r="O43" s="8" t="b">
         <v>1</v>
@@ -5201,28 +5201,28 @@
         <v>0.1412597697096851</v>
       </c>
       <c r="G44" s="3">
-        <v>0.1399315364935533</v>
+        <v>0.13991598122578283</v>
       </c>
       <c r="H44" s="2">
-        <v>0.0013282332161317911</v>
+        <v>0.001343788483902264</v>
       </c>
       <c r="I44" s="4">
         <v>27.511046623413961</v>
       </c>
       <c r="J44" s="4">
-        <v>27.5111095248879</v>
+        <v>27.510989894203703</v>
       </c>
       <c r="K44" s="2">
-        <v>6.2901473938836716e-05</v>
+        <v>5.6729210257344675e-05</v>
       </c>
       <c r="L44" s="4">
         <v>1.0344928932193969</v>
       </c>
       <c r="M44" s="4">
-        <v>1.0559210221614004</v>
+        <v>1.056217464509684</v>
       </c>
       <c r="N44" s="2">
-        <v>0.021428128942003521</v>
+        <v>0.021724571290287154</v>
       </c>
       <c r="O44" s="8" t="b">
         <v>1</v>
@@ -5276,31 +5276,31 @@
         <v>-0.085000000000000006</v>
       </c>
       <c r="F45" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14073672830247197</v>
       </c>
       <c r="G45" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14073893612287819</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>2.2078204062192519e-06</v>
       </c>
       <c r="I45" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511393660029</v>
       </c>
       <c r="J45" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511392338070664</v>
       </c>
       <c r="K45" s="2">
-        <v>0</v>
+        <v>1.3219583365753351e-06</v>
       </c>
       <c r="L45" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0272332274968039</v>
       </c>
       <c r="M45" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0271357895497772</v>
       </c>
       <c r="N45" s="2">
-        <v>0</v>
+        <v>9.7437947026657312e-05</v>
       </c>
       <c r="O45" s="8" t="b">
         <v>1</v>
@@ -5357,28 +5357,28 @@
         <v>0.14073893612287819</v>
       </c>
       <c r="G46" s="3">
-        <v>0.14073672830247197</v>
+        <v>0.14069289948299088</v>
       </c>
       <c r="H46" s="2">
-        <v>2.2078204062192519e-06</v>
+        <v>4.6036639887309105e-05</v>
       </c>
       <c r="I46" s="4">
         <v>27.511392338070664</v>
       </c>
       <c r="J46" s="4">
-        <v>27.511393660029</v>
+        <v>27.51072133602645</v>
       </c>
       <c r="K46" s="2">
-        <v>1.3219583365753351e-06</v>
+        <v>0.0006710020442142195</v>
       </c>
       <c r="L46" s="4">
         <v>1.0271357895497772</v>
       </c>
       <c r="M46" s="4">
-        <v>1.0272332274968039</v>
+        <v>1.0274743363085255</v>
       </c>
       <c r="N46" s="2">
-        <v>9.7437947026657312e-05</v>
+        <v>0.00033854675874822604</v>
       </c>
       <c r="O46" s="8" t="b">
         <v>1</v>
@@ -5432,31 +5432,31 @@
         <v>58000</v>
       </c>
       <c r="F47" s="3">
-        <v>0.14089466850402721</v>
+        <v>0.14088217213938831</v>
       </c>
       <c r="G47" s="3">
-        <v>0.13972103309230272</v>
+        <v>0.13974969623026831</v>
       </c>
       <c r="H47" s="2">
-        <v>0.001173635411724494</v>
+        <v>0.0011324759091199954</v>
       </c>
       <c r="I47" s="4">
-        <v>27.496042736800575</v>
+        <v>27.495853744277611</v>
       </c>
       <c r="J47" s="4">
-        <v>27.532722513536214</v>
+        <v>27.531422036571769</v>
       </c>
       <c r="K47" s="2">
-        <v>0.036679776735638825</v>
+        <v>0.035568292294158255</v>
       </c>
       <c r="L47" s="4">
-        <v>1.0249157947624212</v>
+        <v>1.0249777357657563</v>
       </c>
       <c r="M47" s="4">
-        <v>1.0288142393800892</v>
+        <v>1.0290500272320418</v>
       </c>
       <c r="N47" s="2">
-        <v>0.0038984446176679732</v>
+        <v>0.0040722914662854048</v>
       </c>
       <c r="O47" s="8" t="b">
         <v>1</v>
@@ -5513,28 +5513,28 @@
         <v>0.146622962784247</v>
       </c>
       <c r="G48" s="3">
-        <v>0.13554010501921746</v>
+        <v>0.13553923306598295</v>
       </c>
       <c r="H48" s="2">
-        <v>0.011082857765029541</v>
+        <v>0.011083729718264046</v>
       </c>
       <c r="I48" s="4">
         <v>27.51095474054938</v>
       </c>
       <c r="J48" s="4">
-        <v>27.511372803314543</v>
+        <v>27.510623328155532</v>
       </c>
       <c r="K48" s="2">
-        <v>0.00041806276516354046</v>
+        <v>0.00033141239384804067</v>
       </c>
       <c r="L48" s="4">
         <v>1.0180039929098958</v>
       </c>
       <c r="M48" s="4">
-        <v>1.0360702213224851</v>
+        <v>1.0361489134910358</v>
       </c>
       <c r="N48" s="2">
-        <v>0.018066228412589203</v>
+        <v>0.018144920581139923</v>
       </c>
       <c r="O48" s="8" t="b">
         <v>1</v>
@@ -5588,31 +5588,31 @@
         <v>0.14999999999999999</v>
       </c>
       <c r="F49" s="3">
-        <v>0.14073008916479537</v>
+        <v>0.14073693601437753</v>
       </c>
       <c r="G49" s="3">
-        <v>0.14073022486968856</v>
+        <v>0.14072702653870492</v>
       </c>
       <c r="H49" s="2">
-        <v>1.3570489318381895e-07</v>
+        <v>9.9094756726147981e-06</v>
       </c>
       <c r="I49" s="4">
-        <v>27.511423249182599</v>
+        <v>27.511434350558886</v>
       </c>
       <c r="J49" s="4">
-        <v>27.511346556171816</v>
+        <v>27.510160400491372</v>
       </c>
       <c r="K49" s="2">
-        <v>7.6693010782946658e-05</v>
+        <v>0.0012739500675138515</v>
       </c>
       <c r="L49" s="4">
-        <v>1.0270403586109804</v>
+        <v>1.0271158514997483</v>
       </c>
       <c r="M49" s="4">
-        <v>1.0272259498172727</v>
+        <v>1.0272321083217235</v>
       </c>
       <c r="N49" s="2">
-        <v>0.00018559120629224601</v>
+        <v>0.00011625682197524689</v>
       </c>
       <c r="O49" s="8" t="b">
         <v>1</v>
@@ -5669,28 +5669,28 @@
         <v>0.140733184299798</v>
       </c>
       <c r="G50" s="3">
-        <v>0.14064660215748576</v>
+        <v>0.14064629492263303</v>
       </c>
       <c r="H50" s="2">
-        <v>8.6582142312247035e-05</v>
+        <v>8.6889377164972581e-05</v>
       </c>
       <c r="I50" s="4">
         <v>27.512123945041253</v>
       </c>
       <c r="J50" s="4">
-        <v>27.509571383870195</v>
+        <v>27.510710025273056</v>
       </c>
       <c r="K50" s="2">
-        <v>0.0025525611710577323</v>
+        <v>0.0014139197681970472</v>
       </c>
       <c r="L50" s="4">
         <v>1.0330153986753352</v>
       </c>
       <c r="M50" s="4">
-        <v>1.0197112822268275</v>
+        <v>1.0201849289668889</v>
       </c>
       <c r="N50" s="2">
-        <v>0.013304116448507708</v>
+        <v>0.012830469708446257</v>
       </c>
       <c r="O50" s="8" t="b">
         <v>1</v>
@@ -5744,31 +5744,31 @@
         <v>0.46999999999999997</v>
       </c>
       <c r="F51" s="3">
-        <v>0.13875609579553908</v>
+        <v>0.13876808537927893</v>
       </c>
       <c r="G51" s="3">
-        <v>0.14164574129129284</v>
+        <v>0.14162536204375251</v>
       </c>
       <c r="H51" s="2">
-        <v>0.0028896454957537676</v>
+        <v>0.0028572766644735792</v>
       </c>
       <c r="I51" s="4">
-        <v>27.513936833846344</v>
+        <v>27.514356545131136</v>
       </c>
       <c r="J51" s="4">
-        <v>27.506329986057665</v>
+        <v>27.506337865557555</v>
       </c>
       <c r="K51" s="2">
-        <v>0.0076068477886792607</v>
+        <v>0.0080186795735812666</v>
       </c>
       <c r="L51" s="4">
-        <v>1.0034565571509397</v>
+        <v>1.0032929426408363</v>
       </c>
       <c r="M51" s="4">
-        <v>1.0536162520925527</v>
+        <v>1.0534988359185682</v>
       </c>
       <c r="N51" s="2">
-        <v>0.050159694941612987</v>
+        <v>0.050205893277731839</v>
       </c>
       <c r="O51" s="8" t="b">
         <v>1</v>
@@ -5825,28 +5825,28 @@
         <v>0.14072337449813338</v>
       </c>
       <c r="G52" s="3">
-        <v>0.14072332763986767</v>
+        <v>0.14072357060710788</v>
       </c>
       <c r="H52" s="2">
-        <v>4.6858265712046432e-08</v>
+        <v>1.9610897450395015e-07</v>
       </c>
       <c r="I52" s="4">
         <v>27.51023660390706</v>
       </c>
       <c r="J52" s="4">
-        <v>27.511346633316066</v>
+        <v>27.512250820609552</v>
       </c>
       <c r="K52" s="2">
-        <v>0.0011100294090056195</v>
+        <v>0.002014216702491467</v>
       </c>
       <c r="L52" s="4">
         <v>1.0265061292185576</v>
       </c>
       <c r="M52" s="4">
-        <v>1.0272334282155338</v>
+        <v>1.0274737778843461</v>
       </c>
       <c r="N52" s="2">
-        <v>0.00072729899697621114</v>
+        <v>0.00096764866578857855</v>
       </c>
       <c r="O52" s="8" t="b">
         <v>1</v>
@@ -5900,31 +5900,31 @@
         <v>0.501</v>
       </c>
       <c r="F53" s="3">
-        <v>0.14074942521963127</v>
+        <v>0.14074805235755902</v>
       </c>
       <c r="G53" s="3">
-        <v>0.14065986311434625</v>
+        <v>0.14067360980089982</v>
       </c>
       <c r="H53" s="2">
-        <v>8.9562105285018179e-05</v>
+        <v>7.4442556659198855e-05</v>
       </c>
       <c r="I53" s="4">
-        <v>27.511742227252626</v>
+        <v>27.51174250657624</v>
       </c>
       <c r="J53" s="4">
-        <v>27.511081518767412</v>
+        <v>27.510364544448066</v>
       </c>
       <c r="K53" s="2">
-        <v>0.00066070848521349035</v>
+        <v>0.0013779621281742038</v>
       </c>
       <c r="L53" s="4">
-        <v>1.0338432968266085</v>
+        <v>1.0341276114507523</v>
       </c>
       <c r="M53" s="4">
-        <v>1.0190620770599501</v>
+        <v>1.0192372713426265</v>
       </c>
       <c r="N53" s="2">
-        <v>0.01478121976665836</v>
+        <v>0.014890340108125732</v>
       </c>
       <c r="O53" s="8" t="b">
         <v>1</v>
@@ -5981,28 +5981,28 @@
         <v>0.13832626896618516</v>
       </c>
       <c r="G54" s="3">
-        <v>0.14229963910737634</v>
+        <v>0.1423221499322733</v>
       </c>
       <c r="H54" s="2">
-        <v>0.0039733701411911737</v>
+        <v>0.0039958809660881334</v>
       </c>
       <c r="I54" s="4">
         <v>27.506034937229856</v>
       </c>
       <c r="J54" s="4">
-        <v>27.515989423385463</v>
+        <v>27.516647597176757</v>
       </c>
       <c r="K54" s="2">
-        <v>0.0099544861556069009</v>
+        <v>0.010612659946900749</v>
       </c>
       <c r="L54" s="4">
         <v>1.003541142485155</v>
       </c>
       <c r="M54" s="4">
-        <v>1.054498874319491</v>
+        <v>1.0551870005106128</v>
       </c>
       <c r="N54" s="2">
-        <v>0.05095773183433594</v>
+        <v>0.051645858025457736</v>
       </c>
       <c r="O54" s="8" t="b">
         <v>1</v>
@@ -6056,31 +6056,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F55" s="3">
-        <v>0.14096272154150125</v>
+        <v>0.14093755779056227</v>
       </c>
       <c r="G55" s="3">
-        <v>0.14049146301788484</v>
+        <v>0.14051402204672739</v>
       </c>
       <c r="H55" s="2">
-        <v>0.00047125852361640241</v>
+        <v>0.00042353574383488524</v>
       </c>
       <c r="I55" s="4">
-        <v>27.511634972533557</v>
+        <v>27.511628369703885</v>
       </c>
       <c r="J55" s="4">
-        <v>27.511299278066758</v>
+        <v>27.510627316373302</v>
       </c>
       <c r="K55" s="2">
-        <v>0.00033569446679848625</v>
+        <v>0.0010010533305830904</v>
       </c>
       <c r="L55" s="4">
-        <v>1.0298436743458148</v>
+        <v>1.0294577310239053</v>
       </c>
       <c r="M55" s="4">
-        <v>1.0251822840439737</v>
+        <v>1.0241620679263275</v>
       </c>
       <c r="N55" s="2">
-        <v>0.0046613903018410952</v>
+        <v>0.0052956630975777852</v>
       </c>
       <c r="O55" s="8" t="b">
         <v>1</v>
@@ -6137,28 +6137,28 @@
         <v>0.14050645259969041</v>
       </c>
       <c r="G56" s="3">
-        <v>0.14084886914059172</v>
+        <v>0.14084241628413566</v>
       </c>
       <c r="H56" s="2">
-        <v>0.00034241654090130802</v>
+        <v>0.00033596368444524516</v>
       </c>
       <c r="I56" s="4">
         <v>27.510511441772564</v>
       </c>
       <c r="J56" s="4">
-        <v>27.512036733042464</v>
+        <v>27.511976696423289</v>
       </c>
       <c r="K56" s="2">
-        <v>0.0015252912698997534</v>
+        <v>0.0014652546507250008</v>
       </c>
       <c r="L56" s="4">
         <v>1.0147673294560691</v>
       </c>
       <c r="M56" s="4">
-        <v>1.0360441398515634</v>
+        <v>1.0366557486035501</v>
       </c>
       <c r="N56" s="2">
-        <v>0.021276810395494339</v>
+        <v>0.021888419147481075</v>
       </c>
       <c r="O56" s="8" t="b">
         <v>1</v>
@@ -6212,31 +6212,31 @@
         <v>0.5</v>
       </c>
       <c r="F57" s="3">
-        <v>0.14398526697094097</v>
+        <v>0.14404068264672229</v>
       </c>
       <c r="G57" s="3">
-        <v>0.13811191145037352</v>
+        <v>0.13811297849812582</v>
       </c>
       <c r="H57" s="2">
-        <v>0.005873355520567447</v>
+        <v>0.0059277041485964743</v>
       </c>
       <c r="I57" s="4">
-        <v>27.511897810585538</v>
+        <v>27.51180623091102</v>
       </c>
       <c r="J57" s="4">
-        <v>27.510938602671729</v>
+        <v>27.51093702459616</v>
       </c>
       <c r="K57" s="2">
-        <v>0.00095920791380876835</v>
+        <v>0.0008692063148600937</v>
       </c>
       <c r="L57" s="4">
-        <v>1.0819417651755654</v>
+        <v>1.0814867363087808</v>
       </c>
       <c r="M57" s="4">
-        <v>0.99184761138118105</v>
+        <v>0.99187051204553289</v>
       </c>
       <c r="N57" s="2">
-        <v>0.090094153794384346</v>
+        <v>0.08961622426324789</v>
       </c>
       <c r="O57" s="8" t="b">
         <v>1</v>
@@ -6293,28 +6293,28 @@
         <v>0.14107081521601925</v>
       </c>
       <c r="G58" s="3">
-        <v>0.14048433652388254</v>
+        <v>0.1404865747502729</v>
       </c>
       <c r="H58" s="2">
-        <v>0.00058647869213671044</v>
+        <v>0.00058424046574634403</v>
       </c>
       <c r="I58" s="4">
         <v>27.512457301944551</v>
       </c>
       <c r="J58" s="4">
-        <v>27.511183576637279</v>
+        <v>27.510921071210362</v>
       </c>
       <c r="K58" s="2">
-        <v>0.0012737253072714338</v>
+        <v>0.0015362307341888481</v>
       </c>
       <c r="L58" s="4">
         <v>1.0271471821023077</v>
       </c>
       <c r="M58" s="4">
-        <v>1.0273860796833547</v>
+        <v>1.0275132088856915</v>
       </c>
       <c r="N58" s="2">
-        <v>0.00023889758104700398</v>
+        <v>0.00036602678338382155</v>
       </c>
       <c r="O58" s="8" t="b">
         <v>1</v>
@@ -6368,31 +6368,31 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F59" s="3">
-        <v>0.13859840969175957</v>
+        <v>0.13864672713693132</v>
       </c>
       <c r="G59" s="3">
-        <v>0.14267023390455019</v>
+        <v>0.14266061231022711</v>
       </c>
       <c r="H59" s="2">
-        <v>0.0040718242127906201</v>
+        <v>0.0040138851732957892</v>
       </c>
       <c r="I59" s="4">
-        <v>27.510309864584656</v>
+        <v>27.510770566013548</v>
       </c>
       <c r="J59" s="4">
-        <v>27.511738837031544</v>
+        <v>27.512697732643517</v>
       </c>
       <c r="K59" s="2">
-        <v>0.0014289724468881104</v>
+        <v>0.001927166629968724</v>
       </c>
       <c r="L59" s="4">
-        <v>1.0311761854723915</v>
+        <v>1.0311335525863601</v>
       </c>
       <c r="M59" s="4">
-        <v>1.024752635220066</v>
+        <v>1.0246456233168952</v>
       </c>
       <c r="N59" s="2">
-        <v>0.0064235502523255494</v>
+        <v>0.0064879292694648427</v>
       </c>
       <c r="O59" s="8" t="b">
         <v>1</v>
@@ -6449,28 +6449,28 @@
         <v>0.13824090625453747</v>
       </c>
       <c r="G60" s="3">
-        <v>0.1438975033968313</v>
+        <v>0.14389363369719624</v>
       </c>
       <c r="H60" s="2">
-        <v>0.0056565971422938288</v>
+        <v>0.005652727442658767</v>
       </c>
       <c r="I60" s="4">
         <v>27.507282233892852</v>
       </c>
       <c r="J60" s="4">
-        <v>27.506397177243628</v>
+        <v>27.506392903366248</v>
       </c>
       <c r="K60" s="2">
-        <v>0.00088505664922422511</v>
+        <v>0.00088933052660422618</v>
       </c>
       <c r="L60" s="4">
         <v>1.0258195581676666</v>
       </c>
       <c r="M60" s="4">
-        <v>1.0289415394821695</v>
+        <v>1.0292242194204941</v>
       </c>
       <c r="N60" s="2">
-        <v>0.0031219813145029196</v>
+        <v>0.0034046612528275677</v>
       </c>
       <c r="O60" s="8" t="b">
         <v>1</v>
@@ -6524,31 +6524,31 @@
         <v>-0.074999999999999997</v>
       </c>
       <c r="F61" s="3">
-        <v>0.1396693592077364</v>
+        <v>0.13968362163320772</v>
       </c>
       <c r="G61" s="3">
-        <v>0.14211076440579959</v>
+        <v>0.14208917248664962</v>
       </c>
       <c r="H61" s="2">
-        <v>0.0024414051980631846</v>
+        <v>0.0024055508534419068</v>
       </c>
       <c r="I61" s="4">
-        <v>27.510836865346107</v>
+        <v>27.510840460891529</v>
       </c>
       <c r="J61" s="4">
-        <v>27.512317876738393</v>
+        <v>27.512027050752408</v>
       </c>
       <c r="K61" s="2">
-        <v>0.0014810113922862911</v>
+        <v>0.0011865898608789394</v>
       </c>
       <c r="L61" s="4">
-        <v>1.0200181354071978</v>
+        <v>1.0201686541075439</v>
       </c>
       <c r="M61" s="4">
-        <v>1.037397155262763</v>
+        <v>1.036730818188653</v>
       </c>
       <c r="N61" s="2">
-        <v>0.017379019855565225</v>
+        <v>0.01656216408110911</v>
       </c>
       <c r="O61" s="8" t="b">
         <v>1</v>
@@ -6605,28 +6605,28 @@
         <v>0.14033001958636282</v>
       </c>
       <c r="G62" s="3">
-        <v>0.14115916341752541</v>
+        <v>0.14114645440695303</v>
       </c>
       <c r="H62" s="2">
-        <v>0.00082914383116258761</v>
+        <v>0.00081643482059021166</v>
       </c>
       <c r="I62" s="4">
         <v>27.511357436121102</v>
       </c>
       <c r="J62" s="4">
-        <v>27.510653252812403</v>
+        <v>27.510130062366954</v>
       </c>
       <c r="K62" s="2">
-        <v>0.0007041833086987026</v>
+        <v>0.0012273737541477203</v>
       </c>
       <c r="L62" s="4">
         <v>1.0269082027607774</v>
       </c>
       <c r="M62" s="4">
-        <v>1.030188131466937</v>
+        <v>1.030218585424677</v>
       </c>
       <c r="N62" s="2">
-        <v>0.0032799287061595628</v>
+        <v>0.0033103826638996026</v>
       </c>
       <c r="O62" s="8" t="b">
         <v>1</v>
@@ -6680,31 +6680,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F63" s="3">
-        <v>0.15123829155951757</v>
+        <v>0.15122361896861941</v>
       </c>
       <c r="G63" s="3">
-        <v>0.12992023115852652</v>
+        <v>0.12992057547888436</v>
       </c>
       <c r="H63" s="2">
-        <v>0.021318060400991046</v>
+        <v>0.021303043489735052</v>
       </c>
       <c r="I63" s="4">
-        <v>27.518562389948613</v>
+        <v>27.519166816031657</v>
       </c>
       <c r="J63" s="4">
-        <v>27.506238332422242</v>
+        <v>27.505947753399425</v>
       </c>
       <c r="K63" s="2">
-        <v>0.01232405752637078</v>
+        <v>0.013219062632231271</v>
       </c>
       <c r="L63" s="4">
-        <v>1.1065873075384409</v>
+        <v>1.1069816825409917</v>
       </c>
       <c r="M63" s="4">
-        <v>0.9600920451267787</v>
+        <v>0.96021043090899816</v>
       </c>
       <c r="N63" s="2">
-        <v>0.14649526241166222</v>
+        <v>0.14677125163199356</v>
       </c>
       <c r="O63" s="8" t="b">
         <v>1</v>
@@ -6758,31 +6758,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F64" s="3">
-        <v>0.13882930755447195</v>
+        <v>0.13881521866612304</v>
       </c>
       <c r="G64" s="3">
         <v>0.14259780304668462</v>
       </c>
       <c r="H64" s="2">
-        <v>0.0037684954922126701</v>
+        <v>0.0037825843805615877</v>
       </c>
       <c r="I64" s="4">
-        <v>27.511741892680845</v>
+        <v>27.510875231229932</v>
       </c>
       <c r="J64" s="4">
         <v>27.511228327205572</v>
       </c>
       <c r="K64" s="2">
-        <v>0.00051356547527348084</v>
+        <v>0.00035309597564037176</v>
       </c>
       <c r="L64" s="4">
-        <v>1.0409077449863688</v>
+        <v>1.0413026833505716</v>
       </c>
       <c r="M64" s="4">
         <v>1.0141393359621318</v>
       </c>
       <c r="N64" s="2">
-        <v>0.02676840902423705</v>
+        <v>0.02716334738843984</v>
       </c>
       <c r="O64" s="8" t="b">
         <v>1</v>
@@ -6836,31 +6836,31 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="F65" s="3">
-        <v>0.1308328097204238</v>
+        <v>0.13083247252071112</v>
       </c>
       <c r="G65" s="3">
-        <v>0.14837823744650042</v>
+        <v>0.14839045158579492</v>
       </c>
       <c r="H65" s="2">
-        <v>0.017545427726076618</v>
+        <v>0.017557979065083801</v>
       </c>
       <c r="I65" s="4">
-        <v>27.511182821595071</v>
+        <v>27.51197502438589</v>
       </c>
       <c r="J65" s="4">
-        <v>27.510506763185276</v>
+        <v>27.510141523040716</v>
       </c>
       <c r="K65" s="2">
-        <v>0.00067605840979467757</v>
+        <v>0.0018335013451746818</v>
       </c>
       <c r="L65" s="4">
-        <v>1.1020699950236761</v>
+        <v>1.1024315207722608</v>
       </c>
       <c r="M65" s="4">
-        <v>0.97281122543500764</v>
+        <v>0.97280796586122598</v>
       </c>
       <c r="N65" s="2">
-        <v>0.12925876958866844</v>
+        <v>0.12962355491103483</v>
       </c>
       <c r="O65" s="8" t="b">
         <v>1</v>
@@ -6914,31 +6914,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F66" s="3">
-        <v>0.13342410280355468</v>
+        <v>0.13343135388216812</v>
       </c>
       <c r="G66" s="3">
         <v>0.15132343288475378</v>
       </c>
       <c r="H66" s="2">
-        <v>0.017899330081199094</v>
+        <v>0.017892079002585659</v>
       </c>
       <c r="I66" s="4">
-        <v>27.509085798697754</v>
+        <v>27.509851013596972</v>
       </c>
       <c r="J66" s="4">
         <v>27.513291318619963</v>
       </c>
       <c r="K66" s="2">
-        <v>0.0042055199222090778</v>
+        <v>0.0034403050229911969</v>
       </c>
       <c r="L66" s="4">
-        <v>0.99936143928021792</v>
+        <v>0.99963446634365205</v>
       </c>
       <c r="M66" s="4">
         <v>1.0712583435347907</v>
       </c>
       <c r="N66" s="2">
-        <v>0.071896904254572735</v>
+        <v>0.071623877191138607</v>
       </c>
       <c r="O66" s="8" t="b">
         <v>1</v>
@@ -6992,31 +6992,31 @@
         <v>-0.080000000000000002</v>
       </c>
       <c r="F67" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14073672830247197</v>
       </c>
       <c r="G67" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14073893612287819</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>2.2078204062192519e-06</v>
       </c>
       <c r="I67" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511393660029</v>
       </c>
       <c r="J67" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511392338070664</v>
       </c>
       <c r="K67" s="2">
-        <v>0</v>
+        <v>1.3219583365753351e-06</v>
       </c>
       <c r="L67" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0272332274968039</v>
       </c>
       <c r="M67" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0271357895497772</v>
       </c>
       <c r="N67" s="2">
-        <v>0</v>
+        <v>9.7437947026657312e-05</v>
       </c>
       <c r="O67" s="8" t="b">
         <v>1</v>
@@ -7070,31 +7070,31 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="F68" s="3">
+        <v>0.14069289948299088</v>
+      </c>
+      <c r="G68" s="3">
         <v>0.14073893612287819</v>
       </c>
-      <c r="G68" s="3">
-        <v>0.14073672830247197</v>
-      </c>
       <c r="H68" s="2">
-        <v>2.2078204062192519e-06</v>
+        <v>4.6036639887309105e-05</v>
       </c>
       <c r="I68" s="4">
+        <v>27.51072133602645</v>
+      </c>
+      <c r="J68" s="4">
         <v>27.511392338070664</v>
       </c>
-      <c r="J68" s="4">
-        <v>27.511393660029</v>
-      </c>
       <c r="K68" s="2">
-        <v>1.3219583365753351e-06</v>
+        <v>0.0006710020442142195</v>
       </c>
       <c r="L68" s="4">
+        <v>1.0274743363085255</v>
+      </c>
+      <c r="M68" s="4">
         <v>1.0271357895497772</v>
       </c>
-      <c r="M68" s="4">
-        <v>1.0272332274968039</v>
-      </c>
       <c r="N68" s="2">
-        <v>9.7437947026657312e-05</v>
+        <v>0.00033854675874822604</v>
       </c>
       <c r="O68" s="8" t="b">
         <v>1</v>
@@ -7148,31 +7148,31 @@
         <v>0.215</v>
       </c>
       <c r="F69" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14073672830247197</v>
       </c>
       <c r="G69" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14073893612287819</v>
       </c>
       <c r="H69" s="2">
-        <v>0</v>
+        <v>2.2078204062192519e-06</v>
       </c>
       <c r="I69" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511393660029</v>
       </c>
       <c r="J69" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511392338070664</v>
       </c>
       <c r="K69" s="2">
-        <v>0</v>
+        <v>1.3219583365753351e-06</v>
       </c>
       <c r="L69" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0272332274968039</v>
       </c>
       <c r="M69" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0271357895497772</v>
       </c>
       <c r="N69" s="2">
-        <v>0</v>
+        <v>9.7437947026657312e-05</v>
       </c>
       <c r="O69" s="8" t="b">
         <v>1</v>
@@ -7226,31 +7226,31 @@
         <v>-0.11</v>
       </c>
       <c r="F70" s="3">
+        <v>0.14069289948299088</v>
+      </c>
+      <c r="G70" s="3">
         <v>0.14073893612287819</v>
       </c>
-      <c r="G70" s="3">
-        <v>0.14073672830247197</v>
-      </c>
       <c r="H70" s="2">
-        <v>2.2078204062192519e-06</v>
+        <v>4.6036639887309105e-05</v>
       </c>
       <c r="I70" s="4">
+        <v>27.51072133602645</v>
+      </c>
+      <c r="J70" s="4">
         <v>27.511392338070664</v>
       </c>
-      <c r="J70" s="4">
-        <v>27.511393660029</v>
-      </c>
       <c r="K70" s="2">
-        <v>1.3219583365753351e-06</v>
+        <v>0.0006710020442142195</v>
       </c>
       <c r="L70" s="4">
+        <v>1.0274743363085255</v>
+      </c>
+      <c r="M70" s="4">
         <v>1.0271357895497772</v>
       </c>
-      <c r="M70" s="4">
-        <v>1.0272332274968039</v>
-      </c>
       <c r="N70" s="2">
-        <v>9.7437947026657312e-05</v>
+        <v>0.00033854675874822604</v>
       </c>
       <c r="O70" s="8" t="b">
         <v>1</v>
@@ -7304,31 +7304,31 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="F71" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14073672830247197</v>
       </c>
       <c r="G71" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14073893612287819</v>
       </c>
       <c r="H71" s="2">
-        <v>0</v>
+        <v>2.2078204062192519e-06</v>
       </c>
       <c r="I71" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511393660029</v>
       </c>
       <c r="J71" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511392338070664</v>
       </c>
       <c r="K71" s="2">
-        <v>0</v>
+        <v>1.3219583365753351e-06</v>
       </c>
       <c r="L71" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0272332274968039</v>
       </c>
       <c r="M71" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0271357895497772</v>
       </c>
       <c r="N71" s="2">
-        <v>0</v>
+        <v>9.7437947026657312e-05</v>
       </c>
       <c r="O71" s="8" t="b">
         <v>1</v>
@@ -7385,28 +7385,28 @@
         <v>0.14073893612287819</v>
       </c>
       <c r="G72" s="3">
-        <v>0.14073672830247197</v>
+        <v>0.14069289948299088</v>
       </c>
       <c r="H72" s="2">
-        <v>2.2078204062192519e-06</v>
+        <v>4.6036639887309105e-05</v>
       </c>
       <c r="I72" s="4">
         <v>27.511392338070664</v>
       </c>
       <c r="J72" s="4">
-        <v>27.511393660029</v>
+        <v>27.51072133602645</v>
       </c>
       <c r="K72" s="2">
-        <v>1.3219583365753351e-06</v>
+        <v>0.0006710020442142195</v>
       </c>
       <c r="L72" s="4">
         <v>1.0271357895497772</v>
       </c>
       <c r="M72" s="4">
-        <v>1.0272332274968039</v>
+        <v>1.0274743363085255</v>
       </c>
       <c r="N72" s="2">
-        <v>9.7437947026657312e-05</v>
+        <v>0.00033854675874822604</v>
       </c>
       <c r="O72" s="8" t="b">
         <v>1</v>
@@ -7460,31 +7460,31 @@
         <v>-0.0038700000000000002</v>
       </c>
       <c r="F73" s="3">
-        <v>0.14039006792301148</v>
+        <v>0.14038617534377579</v>
       </c>
       <c r="G73" s="3">
-        <v>0.14172861502465997</v>
+        <v>0.14173047394780877</v>
       </c>
       <c r="H73" s="2">
-        <v>0.0013385471016484907</v>
+        <v>0.0013442986040329841</v>
       </c>
       <c r="I73" s="4">
-        <v>27.511750241435891</v>
+        <v>27.511741310621233</v>
       </c>
       <c r="J73" s="4">
-        <v>27.510402069551674</v>
+        <v>27.510393238273082</v>
       </c>
       <c r="K73" s="2">
-        <v>0.0013481718842172086</v>
+        <v>0.0013480723481507084</v>
       </c>
       <c r="L73" s="4">
-        <v>1.0315573519919696</v>
+        <v>1.0303839916449193</v>
       </c>
       <c r="M73" s="4">
-        <v>1.0171548970660294</v>
+        <v>1.017150585777334</v>
       </c>
       <c r="N73" s="2">
-        <v>0.014402454925940278</v>
+        <v>0.013233405867585368</v>
       </c>
       <c r="O73" s="8" t="b">
         <v>1</v>
@@ -7541,28 +7541,28 @@
         <v>0.14247055929480967</v>
       </c>
       <c r="G74" s="3">
-        <v>0.13876581379936315</v>
+        <v>0.13880176291461122</v>
       </c>
       <c r="H74" s="2">
-        <v>0.0037047454954465264</v>
+        <v>0.003668796380198458</v>
       </c>
       <c r="I74" s="4">
         <v>27.510369128791638</v>
       </c>
       <c r="J74" s="4">
-        <v>27.511482422696645</v>
+        <v>27.512433682761866</v>
       </c>
       <c r="K74" s="2">
-        <v>0.00111329390500714</v>
+        <v>0.0020645539702286442</v>
       </c>
       <c r="L74" s="4">
         <v>1.0070791263152701</v>
       </c>
       <c r="M74" s="4">
-        <v>1.0500260533709997</v>
+        <v>1.0500844699144434</v>
       </c>
       <c r="N74" s="2">
-        <v>0.042946927055729667</v>
+        <v>0.043005343599173296</v>
       </c>
       <c r="O74" s="8" t="b">
         <v>1</v>
@@ -7616,31 +7616,31 @@
         <v>0.57286000000000004</v>
       </c>
       <c r="F75" s="3">
-        <v>0.1423657956489699</v>
+        <v>0.1423722388796973</v>
       </c>
       <c r="G75" s="3">
-        <v>0.13958546066453623</v>
+        <v>0.13958540843158748</v>
       </c>
       <c r="H75" s="2">
-        <v>0.0027803349844336689</v>
+        <v>0.0027868304481098172</v>
       </c>
       <c r="I75" s="4">
-        <v>27.50998907554839</v>
+        <v>27.510029784153346</v>
       </c>
       <c r="J75" s="4">
-        <v>27.511584294857357</v>
+        <v>27.511584756481398</v>
       </c>
       <c r="K75" s="2">
-        <v>0.0015952193089674438</v>
+        <v>0.0015549723280514627</v>
       </c>
       <c r="L75" s="4">
-        <v>1.0081619975361391</v>
+        <v>1.0087068435299902</v>
       </c>
       <c r="M75" s="4">
-        <v>1.0405274685733215</v>
+        <v>1.0405746675289793</v>
       </c>
       <c r="N75" s="2">
-        <v>0.032365471037182347</v>
+        <v>0.031867823998989131</v>
       </c>
       <c r="O75" s="8" t="b">
         <v>1</v>
@@ -7694,31 +7694,31 @@
         <v>-0.023587</v>
       </c>
       <c r="F76" s="3">
-        <v>0.14108993883597437</v>
+        <v>0.14105762096988197</v>
       </c>
       <c r="G76" s="3">
         <v>0.14060266622677731</v>
       </c>
       <c r="H76" s="2">
-        <v>0.00048727260919706472</v>
+        <v>0.00045495474310466855</v>
       </c>
       <c r="I76" s="4">
-        <v>27.510865224218435</v>
+        <v>27.510870176525827</v>
       </c>
       <c r="J76" s="4">
         <v>27.511525598384026</v>
       </c>
       <c r="K76" s="2">
-        <v>0.00066037416559083795</v>
+        <v>0.00065542185819822407</v>
       </c>
       <c r="L76" s="4">
-        <v>1.0235398302357972</v>
+        <v>1.0238311896424825</v>
       </c>
       <c r="M76" s="4">
         <v>1.027973755726276</v>
       </c>
       <c r="N76" s="2">
-        <v>0.0044339254904788294</v>
+        <v>0.0041425660837934863</v>
       </c>
       <c r="O76" s="8" t="b">
         <v>1</v>
@@ -7772,31 +7772,31 @@
         <v>0.746</v>
       </c>
       <c r="F77" s="3">
-        <v>0.14213701503197165</v>
+        <v>0.14214689938780881</v>
       </c>
       <c r="G77" s="3">
-        <v>0.13950431105007116</v>
+        <v>0.13948300721043744</v>
       </c>
       <c r="H77" s="2">
-        <v>0.0026327039819004916</v>
+        <v>0.0026638921773713686</v>
       </c>
       <c r="I77" s="4">
-        <v>27.510666196790112</v>
+        <v>27.510664667063452</v>
       </c>
       <c r="J77" s="4">
-        <v>27.511560336418484</v>
+        <v>27.511569853537651</v>
       </c>
       <c r="K77" s="2">
-        <v>0.00089413962837170402</v>
+        <v>0.00090518647419912668</v>
       </c>
       <c r="L77" s="4">
-        <v>1.0115874263820619</v>
+        <v>1.0121762869233546</v>
       </c>
       <c r="M77" s="4">
-        <v>1.0405058277832224</v>
+        <v>1.0404914140000094</v>
       </c>
       <c r="N77" s="2">
-        <v>0.028918401401160532</v>
+        <v>0.028315127076654845</v>
       </c>
       <c r="O77" s="8" t="b">
         <v>1</v>
@@ -7850,31 +7850,31 @@
         <v>0.17999999999999999</v>
       </c>
       <c r="F78" s="3">
-        <v>0.14125684885960971</v>
+        <v>0.14131313387800654</v>
       </c>
       <c r="G78" s="3">
         <v>0.14005895600472912</v>
       </c>
       <c r="H78" s="2">
-        <v>0.0011978928548805889</v>
+        <v>0.0012541778732774178</v>
       </c>
       <c r="I78" s="4">
-        <v>27.510885866269064</v>
+        <v>27.510708227123246</v>
       </c>
       <c r="J78" s="4">
         <v>27.51151884812316</v>
       </c>
       <c r="K78" s="2">
-        <v>0.0006329818540962151</v>
+        <v>0.00081062099991413561</v>
       </c>
       <c r="L78" s="4">
-        <v>1.0207403542442364</v>
+        <v>1.0207999184811196</v>
       </c>
       <c r="M78" s="4">
         <v>1.0353530017659418</v>
       </c>
       <c r="N78" s="2">
-        <v>0.014612647521705435</v>
+        <v>0.014553083284822188</v>
       </c>
       <c r="O78" s="8" t="b">
         <v>1</v>
@@ -7928,31 +7928,31 @@
         <v>0.02</v>
       </c>
       <c r="F79" s="3">
-        <v>0.14071845426170582</v>
+        <v>0.14071667421853404</v>
       </c>
       <c r="G79" s="3">
-        <v>0.14073254433900881</v>
+        <v>0.1407259953154098</v>
       </c>
       <c r="H79" s="2">
-        <v>1.4090077302991721e-05</v>
+        <v>9.32109687576399e-06</v>
       </c>
       <c r="I79" s="4">
-        <v>27.510959809781696</v>
+        <v>27.510280455208147</v>
       </c>
       <c r="J79" s="4">
-        <v>27.511286557259268</v>
+        <v>27.511315160265781</v>
       </c>
       <c r="K79" s="2">
-        <v>0.00032674747757255318</v>
+        <v>0.0010347050576342554</v>
       </c>
       <c r="L79" s="4">
-        <v>1.0273390936282227</v>
+        <v>1.0278708816234736</v>
       </c>
       <c r="M79" s="4">
-        <v>1.0265578828546083</v>
+        <v>1.0273383361459398</v>
       </c>
       <c r="N79" s="2">
-        <v>0.00078121077361448243</v>
+        <v>0.00053254547753378567</v>
       </c>
       <c r="O79" s="8" t="b">
         <v>1</v>
@@ -8006,31 +8006,31 @@
         <v>0.76000000000000001</v>
       </c>
       <c r="F80" s="3">
-        <v>0.14072520716323197</v>
+        <v>0.14071312928050628</v>
       </c>
       <c r="G80" s="3">
-        <v>0.14071693886095396</v>
+        <v>0.14072741726268817</v>
       </c>
       <c r="H80" s="2">
-        <v>8.2683022780138948e-06</v>
+        <v>1.4287982181893089e-05</v>
       </c>
       <c r="I80" s="4">
-        <v>27.511397889458294</v>
+        <v>27.511391445516836</v>
       </c>
       <c r="J80" s="4">
-        <v>27.510530737546958</v>
+        <v>27.511386599919945</v>
       </c>
       <c r="K80" s="2">
-        <v>0.00086715191133635017</v>
+        <v>4.8455968908456271e-06</v>
       </c>
       <c r="L80" s="4">
-        <v>1.0265323007994418</v>
+        <v>1.026129922706865</v>
       </c>
       <c r="M80" s="4">
-        <v>1.0276140103163303</v>
+        <v>1.0277249697195452</v>
       </c>
       <c r="N80" s="2">
-        <v>0.0010817095168884627</v>
+        <v>0.0015950470126802063</v>
       </c>
       <c r="O80" s="8" t="b">
         <v>1</v>
@@ -8084,31 +8084,31 @@
         <v>0.34999999999999998</v>
       </c>
       <c r="F81" s="3">
-        <v>0.1406779892151066</v>
+        <v>0.14070180826096679</v>
       </c>
       <c r="G81" s="3">
-        <v>0.14076628332641195</v>
+        <v>0.1407580552706976</v>
       </c>
       <c r="H81" s="2">
-        <v>8.8294111305342593e-05</v>
+        <v>5.6247009730808761e-05</v>
       </c>
       <c r="I81" s="4">
-        <v>27.512345143903985</v>
+        <v>27.511450177718586</v>
       </c>
       <c r="J81" s="4">
-        <v>27.511318327906224</v>
+        <v>27.511618297396126</v>
       </c>
       <c r="K81" s="2">
-        <v>0.0010268159977613323</v>
+        <v>0.00016811967753938006</v>
       </c>
       <c r="L81" s="4">
-        <v>1.0274187761663842</v>
+        <v>1.0274831327721206</v>
       </c>
       <c r="M81" s="4">
-        <v>1.0274615577018917</v>
+        <v>1.0272026343031591</v>
       </c>
       <c r="N81" s="2">
-        <v>4.2781535507518953e-05</v>
+        <v>0.00028049846896149866</v>
       </c>
       <c r="O81" s="8" t="b">
         <v>1</v>
@@ -8162,31 +8162,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F82" s="3">
-        <v>0.14257033116176165</v>
+        <v>0.1425669030339011</v>
       </c>
       <c r="G82" s="3">
         <v>0.13888409034350802</v>
       </c>
       <c r="H82" s="2">
-        <v>0.0036862408182536388</v>
+        <v>0.0036828126903930836</v>
       </c>
       <c r="I82" s="4">
-        <v>27.502806523318839</v>
+        <v>27.502798570794937</v>
       </c>
       <c r="J82" s="4">
         <v>27.519265695115791</v>
       </c>
       <c r="K82" s="2">
-        <v>0.016459171796952887</v>
+        <v>0.016467124320854509</v>
       </c>
       <c r="L82" s="4">
-        <v>1.0314192107880875</v>
+        <v>1.0310603239312126</v>
       </c>
       <c r="M82" s="4">
         <v>1.0225605071649189</v>
       </c>
       <c r="N82" s="2">
-        <v>0.0088587036231686511</v>
+        <v>0.0084998167662937441</v>
       </c>
       <c r="O82" s="8" t="b">
         <v>1</v>
@@ -8240,31 +8240,31 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="F83" s="3">
-        <v>0.14817249115941164</v>
+        <v>0.14816946046412804</v>
       </c>
       <c r="G83" s="3">
-        <v>0.13416285938920003</v>
+        <v>0.13414172238994007</v>
       </c>
       <c r="H83" s="2">
-        <v>0.014009631770211611</v>
+        <v>0.014027738074187973</v>
       </c>
       <c r="I83" s="4">
-        <v>27.511686958611676</v>
+        <v>27.511563498047281</v>
       </c>
       <c r="J83" s="4">
-        <v>27.51030735543543</v>
+        <v>27.510681802521617</v>
       </c>
       <c r="K83" s="2">
-        <v>0.0013796031762467464</v>
+        <v>0.00088169552566341736</v>
       </c>
       <c r="L83" s="4">
-        <v>1.0205072075527171</v>
+        <v>1.0204559627748087</v>
       </c>
       <c r="M83" s="4">
-        <v>1.0329265887173313</v>
+        <v>1.033031285086293</v>
       </c>
       <c r="N83" s="2">
-        <v>0.012419381164614274</v>
+        <v>0.012575322311484394</v>
       </c>
       <c r="O83" s="8" t="b">
         <v>1</v>
@@ -8321,28 +8321,28 @@
         <v>0.14545485078271253</v>
       </c>
       <c r="G84" s="3">
-        <v>0.13611858557332956</v>
+        <v>0.13610766819324094</v>
       </c>
       <c r="H84" s="2">
-        <v>0.0093362652093829657</v>
+        <v>0.0093471825894715921</v>
       </c>
       <c r="I84" s="4">
         <v>27.514665971564227</v>
       </c>
       <c r="J84" s="4">
-        <v>27.521224494947489</v>
+        <v>27.521415838978896</v>
       </c>
       <c r="K84" s="2">
-        <v>0.006558523383262127</v>
+        <v>0.0067498674146690973</v>
       </c>
       <c r="L84" s="4">
         <v>1.0157638201668659</v>
       </c>
       <c r="M84" s="4">
-        <v>1.0379092386379796</v>
+        <v>1.0374420203648034</v>
       </c>
       <c r="N84" s="2">
-        <v>0.02214541847111362</v>
+        <v>0.021678200197937425</v>
       </c>
       <c r="O84" s="8" t="b">
         <v>1</v>
@@ -8396,31 +8396,31 @@
         <v>0.34999999999999998</v>
       </c>
       <c r="F85" s="3">
-        <v>0.12554382825883792</v>
+        <v>0.12554039113252791</v>
       </c>
       <c r="G85" s="3">
-        <v>0.15186683322619884</v>
+        <v>0.15188873201162356</v>
       </c>
       <c r="H85" s="2">
-        <v>0.026323004967360925</v>
+        <v>0.026348340879095655</v>
       </c>
       <c r="I85" s="4">
-        <v>27.51152932374265</v>
+        <v>27.510691409107835</v>
       </c>
       <c r="J85" s="4">
-        <v>27.510656181340494</v>
+        <v>27.511434629915811</v>
       </c>
       <c r="K85" s="2">
-        <v>0.00087314240215619066</v>
+        <v>0.00074322080797628587</v>
       </c>
       <c r="L85" s="4">
-        <v>1.1034797429915775</v>
+        <v>1.1034800154768767</v>
       </c>
       <c r="M85" s="4">
-        <v>0.9833774408951359</v>
+        <v>0.98381597118511488</v>
       </c>
       <c r="N85" s="2">
-        <v>0.12010230209644157</v>
+        <v>0.11966404429176181</v>
       </c>
       <c r="O85" s="8" t="b">
         <v>1</v>
@@ -8555,28 +8555,28 @@
         <v>0.14004222595544941</v>
       </c>
       <c r="G87" s="3">
-        <v>0.14138736928915599</v>
+        <v>0.14139557166889125</v>
       </c>
       <c r="H87" s="2">
-        <v>0.0013451433337065832</v>
+        <v>0.0013533457134418392</v>
       </c>
       <c r="I87" s="4">
         <v>27.510673249053809</v>
       </c>
       <c r="J87" s="4">
-        <v>27.511398039616438</v>
+        <v>27.511383473876265</v>
       </c>
       <c r="K87" s="2">
-        <v>0.00072479056262864106</v>
+        <v>0.00071022482245552965</v>
       </c>
       <c r="L87" s="4">
         <v>1.0303841000510063</v>
       </c>
       <c r="M87" s="4">
-        <v>1.0244394800210188</v>
+        <v>1.02454535070414</v>
       </c>
       <c r="N87" s="2">
-        <v>0.005944620029987524</v>
+        <v>0.0058387493468663454</v>
       </c>
       <c r="O87" s="8" t="b">
         <v>1</v>
@@ -8633,28 +8633,28 @@
         <v>0.15183916296546371</v>
       </c>
       <c r="G88" s="3">
-        <v>0.1255909915847459</v>
+        <v>0.12560423154077374</v>
       </c>
       <c r="H88" s="2">
-        <v>0.026248171380717805</v>
+        <v>0.026234931424689967</v>
       </c>
       <c r="I88" s="4">
         <v>27.510672938759342</v>
       </c>
       <c r="J88" s="4">
-        <v>27.510675712157479</v>
+        <v>27.511478133064088</v>
       </c>
       <c r="K88" s="2">
-        <v>2.7733981369237881e-06</v>
+        <v>0.00080519430474623732</v>
       </c>
       <c r="L88" s="4">
         <v>0.98354482176941582</v>
       </c>
       <c r="M88" s="4">
-        <v>1.1031724711138786</v>
+        <v>1.1033699612160639</v>
       </c>
       <c r="N88" s="2">
-        <v>0.11962764934446279</v>
+        <v>0.11982513944664808</v>
       </c>
       <c r="O88" s="8" t="b">
         <v>1</v>
@@ -8708,31 +8708,31 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="F89" s="3">
-        <v>0.15181740596821619</v>
+        <v>0.1517771904284598</v>
       </c>
       <c r="G89" s="3">
-        <v>0.1305539253681274</v>
+        <v>0.13055210535792466</v>
       </c>
       <c r="H89" s="2">
-        <v>0.021263480600088785</v>
+        <v>0.021225085070535138</v>
       </c>
       <c r="I89" s="4">
-        <v>27.510622755220254</v>
+        <v>27.510371082573158</v>
       </c>
       <c r="J89" s="4">
-        <v>27.51044871822711</v>
+        <v>27.511428734037679</v>
       </c>
       <c r="K89" s="2">
-        <v>0.00017403699314400001</v>
+        <v>0.001057651464520859</v>
       </c>
       <c r="L89" s="4">
-        <v>0.98330172138675431</v>
+        <v>0.98363410297322895</v>
       </c>
       <c r="M89" s="4">
-        <v>1.0757304767057105</v>
+        <v>1.0761220229335848</v>
       </c>
       <c r="N89" s="2">
-        <v>0.092428755318956224</v>
+        <v>0.09248791996035588</v>
       </c>
       <c r="O89" s="8" t="b">
         <v>1</v>
@@ -8789,28 +8789,28 @@
         <v>0.14184473909306403</v>
       </c>
       <c r="G90" s="3">
-        <v>0.13960976966736718</v>
+        <v>0.1395991398930721</v>
       </c>
       <c r="H90" s="2">
-        <v>0.0022349694256968422</v>
+        <v>0.0022455991999919267</v>
       </c>
       <c r="I90" s="4">
         <v>27.51097971794826</v>
       </c>
       <c r="J90" s="4">
-        <v>27.512285710565095</v>
+        <v>27.51081003686528</v>
       </c>
       <c r="K90" s="2">
-        <v>0.0013059926168352831</v>
+        <v>0.00016968108297987783</v>
       </c>
       <c r="L90" s="4">
         <v>1.0228966943674578</v>
       </c>
       <c r="M90" s="4">
-        <v>1.0325240528387494</v>
+        <v>1.0326750192360099</v>
       </c>
       <c r="N90" s="2">
-        <v>0.0096273584712915916</v>
+        <v>0.009778324868552124</v>
       </c>
       <c r="O90" s="8" t="b">
         <v>1</v>
@@ -8864,31 +8864,31 @@
         <v>7600</v>
       </c>
       <c r="F91" s="3">
-        <v>0.14124176393943771</v>
+        <v>0.14125323972281936</v>
       </c>
       <c r="G91" s="3">
-        <v>0.13996859645709692</v>
+        <v>0.13997740431253039</v>
       </c>
       <c r="H91" s="2">
-        <v>0.0012731674823407979</v>
+        <v>0.0012758354102889724</v>
       </c>
       <c r="I91" s="4">
-        <v>27.511238435845939</v>
+        <v>27.511589545241634</v>
       </c>
       <c r="J91" s="4">
-        <v>27.51188546703645</v>
+        <v>27.511472995671681</v>
       </c>
       <c r="K91" s="2">
-        <v>0.00064703119051046087</v>
+        <v>0.00011654956995243992</v>
       </c>
       <c r="L91" s="4">
-        <v>1.0060393912652779</v>
+        <v>1.0065220170737168</v>
       </c>
       <c r="M91" s="4">
-        <v>1.0854080579668313</v>
+        <v>1.0854292564939201</v>
       </c>
       <c r="N91" s="2">
-        <v>0.079368666701553403</v>
+        <v>0.078907239420203279</v>
       </c>
       <c r="O91" s="8" t="b">
         <v>1</v>
@@ -9023,28 +9023,28 @@
         <v>0.14069289948299088</v>
       </c>
       <c r="G93" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14073893612287819</v>
       </c>
       <c r="H93" s="2">
-        <v>0</v>
+        <v>4.6036639887309105e-05</v>
       </c>
       <c r="I93" s="4">
         <v>27.51072133602645</v>
       </c>
       <c r="J93" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511392338070664</v>
       </c>
       <c r="K93" s="2">
-        <v>0</v>
+        <v>0.0006710020442142195</v>
       </c>
       <c r="L93" s="4">
         <v>1.0274743363085255</v>
       </c>
       <c r="M93" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0271357895497772</v>
       </c>
       <c r="N93" s="2">
-        <v>0</v>
+        <v>0.00033854675874822604</v>
       </c>
       <c r="O93" s="8" t="b">
         <v>1</v>
@@ -9179,28 +9179,28 @@
         <v>0.14741316700307175</v>
       </c>
       <c r="G95" s="3">
-        <v>0.13496987100583704</v>
+        <v>0.13496814640506949</v>
       </c>
       <c r="H95" s="2">
-        <v>0.012443295997234705</v>
+        <v>0.01244502059800226</v>
       </c>
       <c r="I95" s="4">
         <v>27.511376478256523</v>
       </c>
       <c r="J95" s="4">
-        <v>27.511408361560825</v>
+        <v>27.51141787808757</v>
       </c>
       <c r="K95" s="2">
-        <v>3.1883304302482429e-05</v>
+        <v>4.1399831047783664e-05</v>
       </c>
       <c r="L95" s="4">
         <v>1.0001069977786157</v>
       </c>
       <c r="M95" s="4">
-        <v>1.0539676473092594</v>
+        <v>1.0530991205235298</v>
       </c>
       <c r="N95" s="2">
-        <v>0.053860649530643734</v>
+        <v>0.052992122744914161</v>
       </c>
       <c r="O95" s="8" t="b">
         <v>1</v>

--- a/Workflows/01_Define_Metric/suspOpt_sweep_param_limits_results.xlsx
+++ b/Workflows/01_Define_Metric/suspOpt_sweep_param_limits_results.xlsx
@@ -503,7 +503,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2116" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2740" uniqueCount="195">
   <si>
     <t>Label</t>
   </si>
@@ -1793,13 +1793,13 @@
     <col min="4" max="4" width="9.42578125" customWidth="true"/>
     <col min="6" max="6" width="7.5703125" customWidth="true"/>
     <col min="7" max="7" width="7.42578125" customWidth="true"/>
-    <col min="8" max="8" width="8.42578125" customWidth="true"/>
+    <col min="8" max="8" width="8.7109375" customWidth="true"/>
     <col min="9" max="9" width="8" customWidth="true"/>
     <col min="10" max="10" width="7.85546875" customWidth="true"/>
-    <col min="11" max="11" width="8.42578125" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
     <col min="12" max="12" width="8.140625" customWidth="true"/>
     <col min="13" max="13" width="8" customWidth="true"/>
-    <col min="14" max="14" width="8.42578125" customWidth="true"/>
+    <col min="14" max="14" width="8.7109375" customWidth="true"/>
     <col min="15" max="15" width="9" customWidth="true"/>
     <col min="16" max="16" width="8.85546875" customWidth="true"/>
     <col min="17" max="17" width="8.42578125" customWidth="true"/>
@@ -1905,34 +1905,34 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="E2" s="0">
-        <v>0.14999999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="F2" s="3">
-        <v>0.14121657834474366</v>
+        <v>0.14124078349010044</v>
       </c>
       <c r="G2" s="3">
-        <v>0.14040937706220624</v>
+        <v>0.14039796685495476</v>
       </c>
       <c r="H2" s="2">
-        <v>0.00080720128253741752</v>
+        <v>0.00084281663514568228</v>
       </c>
       <c r="I2" s="4">
-        <v>27.517606957769829</v>
+        <v>27.517474401711524</v>
       </c>
       <c r="J2" s="4">
-        <v>27.507408071782663</v>
+        <v>27.507567851710519</v>
       </c>
       <c r="K2" s="2">
-        <v>0.01019888598716534</v>
+        <v>0.0099065500010055985</v>
       </c>
       <c r="L2" s="4">
-        <v>1.0273071017316526</v>
+        <v>1.0278448837561682</v>
       </c>
       <c r="M2" s="4">
-        <v>1.0270093229452073</v>
+        <v>1.0267552688603912</v>
       </c>
       <c r="N2" s="2">
-        <v>0.00029777878644532407</v>
+        <v>0.0010896148957770802</v>
       </c>
       <c r="O2" s="8" t="b">
         <v>1</v>
@@ -1993,31 +1993,31 @@
         <v>0.501</v>
       </c>
       <c r="F3" s="3">
-        <v>0.14115502492602949</v>
+        <v>0.14117826830669333</v>
       </c>
       <c r="G3" s="3">
-        <v>0.14006081804571691</v>
+        <v>0.14005848898472176</v>
       </c>
       <c r="H3" s="2">
-        <v>0.0010942068803125871</v>
+        <v>0.0011197793219715757</v>
       </c>
       <c r="I3" s="4">
-        <v>27.5224980415191</v>
+        <v>27.522496900682484</v>
       </c>
       <c r="J3" s="4">
-        <v>27.492076503307828</v>
+        <v>27.493323904433339</v>
       </c>
       <c r="K3" s="2">
-        <v>0.030421538211271582</v>
+        <v>0.029172996249144489</v>
       </c>
       <c r="L3" s="4">
-        <v>1.0298224341253985</v>
+        <v>1.0296906842357796</v>
       </c>
       <c r="M3" s="4">
-        <v>1.0242397917888411</v>
+        <v>1.0242471002521836</v>
       </c>
       <c r="N3" s="2">
-        <v>0.0055826423365574751</v>
+        <v>0.005443583983596012</v>
       </c>
       <c r="O3" s="8" t="b">
         <v>1</v>
@@ -2078,31 +2078,31 @@
         <v>0.47999999999999998</v>
       </c>
       <c r="F4" s="3">
-        <v>0.13556261811418471</v>
+        <v>0.13556223944775306</v>
       </c>
       <c r="G4" s="3">
-        <v>0.14373173142396412</v>
+        <v>0.14376922353350727</v>
       </c>
       <c r="H4" s="2">
-        <v>0.0081691133097794022</v>
+        <v>0.0082069840857542098</v>
       </c>
       <c r="I4" s="4">
-        <v>27.449016059270377</v>
+        <v>27.449018291888706</v>
       </c>
       <c r="J4" s="4">
-        <v>27.546723111391316</v>
+        <v>27.546599167395016</v>
       </c>
       <c r="K4" s="2">
-        <v>0.097707052120938442</v>
+        <v>0.097580875506309894</v>
       </c>
       <c r="L4" s="4">
-        <v>1.0235138533655987</v>
+        <v>1.023511998017083</v>
       </c>
       <c r="M4" s="4">
-        <v>1.0326723992936844</v>
+        <v>1.0330391985309224</v>
       </c>
       <c r="N4" s="2">
-        <v>0.0091585459280856263</v>
+        <v>0.0095272005138393734</v>
       </c>
       <c r="O4" s="8" t="b">
         <v>1</v>
@@ -2156,31 +2156,31 @@
         <v>-0.055</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1412349427233906</v>
+        <v>0.14124505128549075</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1398698320380235</v>
+        <v>0.13986950725431982</v>
       </c>
       <c r="H5" s="2">
-        <v>0.0013651106853670991</v>
+        <v>0.0013755440311709333</v>
       </c>
       <c r="I5" s="4">
-        <v>27.511312316111059</v>
+        <v>27.511416222057051</v>
       </c>
       <c r="J5" s="4">
-        <v>27.511964250977996</v>
+        <v>27.511960773782789</v>
       </c>
       <c r="K5" s="2">
-        <v>0.00065193486693715386</v>
+        <v>0.00054455172573852906</v>
       </c>
       <c r="L5" s="4">
-        <v>1.0270515358446308</v>
+        <v>1.0273296039809079</v>
       </c>
       <c r="M5" s="4">
-        <v>1.0270700253603813</v>
+        <v>1.0272543407810495</v>
       </c>
       <c r="N5" s="2">
-        <v>1.8489515750452767e-05</v>
+        <v>7.5263199858399688e-05</v>
       </c>
       <c r="O5" s="8" t="b">
         <v>1</v>
@@ -2234,31 +2234,31 @@
         <v>0.501</v>
       </c>
       <c r="F6" s="3">
-        <v>0.14213768847210281</v>
+        <v>0.14217512434566984</v>
       </c>
       <c r="G6" s="3">
-        <v>0.13872828800145867</v>
+        <v>0.13871645257827547</v>
       </c>
       <c r="H6" s="2">
-        <v>0.0034094004706441416</v>
+        <v>0.0034586717673943668</v>
       </c>
       <c r="I6" s="4">
-        <v>27.50827119985172</v>
+        <v>27.508337510151193</v>
       </c>
       <c r="J6" s="4">
-        <v>27.514764943615489</v>
+        <v>27.513524234128852</v>
       </c>
       <c r="K6" s="2">
-        <v>0.0064937437637695439</v>
+        <v>0.0051867239776584029</v>
       </c>
       <c r="L6" s="4">
-        <v>1.0278893966798905</v>
+        <v>1.0283723586469435</v>
       </c>
       <c r="M6" s="4">
-        <v>1.026595888748165</v>
+        <v>1.0264222283745757</v>
       </c>
       <c r="N6" s="2">
-        <v>0.0012935079317255571</v>
+        <v>0.0019501302723679004</v>
       </c>
       <c r="O6" s="8" t="b">
         <v>1</v>
@@ -2312,31 +2312,31 @@
         <v>0.46000000000000002</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1337855296304222</v>
+        <v>0.13378667361090849</v>
       </c>
       <c r="G7" s="3">
-        <v>0.14655288124076532</v>
+        <v>0.14655323474818593</v>
       </c>
       <c r="H7" s="2">
-        <v>0.012767351610343119</v>
+        <v>0.012766561137277449</v>
       </c>
       <c r="I7" s="4">
-        <v>27.516123583925946</v>
+        <v>27.516374338887772</v>
       </c>
       <c r="J7" s="4">
-        <v>27.498923743303919</v>
+        <v>27.499013015028425</v>
       </c>
       <c r="K7" s="2">
-        <v>0.017199840622026841</v>
+        <v>0.017361323859347522</v>
       </c>
       <c r="L7" s="4">
-        <v>1.0272099460180606</v>
+        <v>1.0268299015261699</v>
       </c>
       <c r="M7" s="4">
-        <v>1.0322312765860604</v>
+        <v>1.0321552462222996</v>
       </c>
       <c r="N7" s="2">
-        <v>0.0050213305679998044</v>
+        <v>0.0053253446961296635</v>
       </c>
       <c r="O7" s="8" t="b">
         <v>1</v>
@@ -2390,31 +2390,31 @@
         <v>0.01</v>
       </c>
       <c r="F8" s="3">
-        <v>0.14134287503548718</v>
+        <v>0.14132105758106359</v>
       </c>
       <c r="G8" s="3">
-        <v>0.14008757057713686</v>
+        <v>0.14011822033296217</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0012553044583503148</v>
+        <v>0.0012028372481014127</v>
       </c>
       <c r="I8" s="4">
-        <v>27.51281751683058</v>
+        <v>27.512804480690875</v>
       </c>
       <c r="J8" s="4">
-        <v>27.509826397298866</v>
+        <v>27.509833521785879</v>
       </c>
       <c r="K8" s="2">
-        <v>0.0029911195317140482</v>
+        <v>0.0029709589049957685</v>
       </c>
       <c r="L8" s="4">
-        <v>1.0272507865357146</v>
+        <v>1.027277150037861</v>
       </c>
       <c r="M8" s="4">
-        <v>1.0272109201686392</v>
+        <v>1.0274936489216151</v>
       </c>
       <c r="N8" s="2">
-        <v>3.9866367075314102e-05</v>
+        <v>0.00021649888375407933</v>
       </c>
       <c r="O8" s="8" t="b">
         <v>1</v>
@@ -2468,31 +2468,31 @@
         <v>0.73719999999999997</v>
       </c>
       <c r="F9" s="3">
-        <v>0.13887719135998683</v>
+        <v>0.13887911005333567</v>
       </c>
       <c r="G9" s="3">
-        <v>0.14185436392373785</v>
+        <v>0.14188687431265812</v>
       </c>
       <c r="H9" s="2">
-        <v>0.0029771725637510182</v>
+        <v>0.0030077642593224485</v>
       </c>
       <c r="I9" s="4">
-        <v>27.501792715209149</v>
+        <v>27.501840275645463</v>
       </c>
       <c r="J9" s="4">
-        <v>27.516859309755546</v>
+        <v>27.5165335943787</v>
       </c>
       <c r="K9" s="2">
-        <v>0.015066594546397027</v>
+        <v>0.014693318733236538</v>
       </c>
       <c r="L9" s="4">
-        <v>1.0246364137769048</v>
+        <v>1.0243712304721289</v>
       </c>
       <c r="M9" s="4">
-        <v>1.0285876743801485</v>
+        <v>1.0287358891793528</v>
       </c>
       <c r="N9" s="2">
-        <v>0.0039512606032436892</v>
+        <v>0.0043646587072239118</v>
       </c>
       <c r="O9" s="8" t="b">
         <v>1</v>
@@ -2546,31 +2546,31 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="3">
-        <v>0.1522976131678066</v>
+        <v>0.15229750086697941</v>
       </c>
       <c r="G10" s="3">
-        <v>0.13244993763092419</v>
+        <v>0.13246674629788541</v>
       </c>
       <c r="H10" s="2">
-        <v>0.019847675536882409</v>
+        <v>0.019830754569094</v>
       </c>
       <c r="I10" s="4">
-        <v>27.550682535960334</v>
+        <v>27.550681793750982</v>
       </c>
       <c r="J10" s="4">
-        <v>27.472115931849942</v>
+        <v>27.472302935912637</v>
       </c>
       <c r="K10" s="2">
-        <v>0.078566604110392291</v>
+        <v>0.078378857838345084</v>
       </c>
       <c r="L10" s="4">
-        <v>1.0345633840610813</v>
+        <v>1.0345517711072236</v>
       </c>
       <c r="M10" s="4">
-        <v>1.0221703695356155</v>
+        <v>1.0224303469561835</v>
       </c>
       <c r="N10" s="2">
-        <v>0.012393014525465817</v>
+        <v>0.012121424151040117</v>
       </c>
       <c r="O10" s="8" t="b">
         <v>1</v>
@@ -2624,31 +2624,31 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="F11" s="3">
-        <v>0.14072620439745503</v>
+        <v>0.14072037095879411</v>
       </c>
       <c r="G11" s="3">
-        <v>0.14072660698311162</v>
+        <v>0.14072549350845864</v>
       </c>
       <c r="H11" s="2">
-        <v>4.0258565658923828e-07</v>
+        <v>5.1225496645324053e-06</v>
       </c>
       <c r="I11" s="4">
-        <v>27.511444193139994</v>
+        <v>27.510775664298819</v>
       </c>
       <c r="J11" s="4">
-        <v>27.510969573088914</v>
+        <v>27.510532930089028</v>
       </c>
       <c r="K11" s="2">
-        <v>0.00047462005107945515</v>
+        <v>0.00024273420979170624</v>
       </c>
       <c r="L11" s="4">
-        <v>1.0274830485938551</v>
+        <v>1.0274868223518352</v>
       </c>
       <c r="M11" s="4">
-        <v>1.0272519016462718</v>
+        <v>1.0272364194977257</v>
       </c>
       <c r="N11" s="2">
-        <v>0.00023114694758330501</v>
+        <v>0.00025040285410948826</v>
       </c>
       <c r="O11" s="8" t="b">
         <v>1</v>
@@ -2702,31 +2702,31 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F12" s="3">
-        <v>0.1410787352724191</v>
+        <v>0.14111209489732834</v>
       </c>
       <c r="G12" s="3">
-        <v>0.14009103307182619</v>
+        <v>0.14011026940545945</v>
       </c>
       <c r="H12" s="2">
-        <v>0.00098770220059291036</v>
+        <v>0.0010018254918688907</v>
       </c>
       <c r="I12" s="4">
-        <v>27.512725723407414</v>
+        <v>27.514701041735805</v>
       </c>
       <c r="J12" s="4">
-        <v>27.507666188480528</v>
+        <v>27.508771062513688</v>
       </c>
       <c r="K12" s="2">
-        <v>0.0050595349268860446</v>
+        <v>0.0059299792221167991</v>
       </c>
       <c r="L12" s="4">
-        <v>1.0266081719178159</v>
+        <v>1.0263726407651326</v>
       </c>
       <c r="M12" s="4">
-        <v>1.0298510475401148</v>
+        <v>1.0298843373114888</v>
       </c>
       <c r="N12" s="2">
-        <v>0.0032428756222988575</v>
+        <v>0.0035116965463561911</v>
       </c>
       <c r="O12" s="8" t="b">
         <v>1</v>
@@ -2780,31 +2780,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F13" s="3">
-        <v>0.14290939485706688</v>
+        <v>0.14291856140315623</v>
       </c>
       <c r="G13" s="3">
-        <v>0.13835950671784358</v>
+        <v>0.13837776613164107</v>
       </c>
       <c r="H13" s="2">
-        <v>0.0045498881392233015</v>
+        <v>0.0045407952715151578</v>
       </c>
       <c r="I13" s="4">
-        <v>27.556734688301731</v>
+        <v>27.556750532882859</v>
       </c>
       <c r="J13" s="4">
-        <v>27.565939972908495</v>
+        <v>27.566997805619508</v>
       </c>
       <c r="K13" s="2">
-        <v>0.0092052846067645078</v>
+        <v>0.010247272736648938</v>
       </c>
       <c r="L13" s="4">
-        <v>1.0553166364607047</v>
+        <v>1.0553598869441492</v>
       </c>
       <c r="M13" s="4">
-        <v>1.0034399406411938</v>
+        <v>1.0035191469186195</v>
       </c>
       <c r="N13" s="2">
-        <v>0.051876695819510932</v>
+        <v>0.05184074002552963</v>
       </c>
       <c r="O13" s="8" t="b">
         <v>1</v>
@@ -2858,31 +2858,31 @@
         <v>-0.074999999999999997</v>
       </c>
       <c r="F14" s="3">
-        <v>0.14072152826424486</v>
+        <v>0.14072053911607754</v>
       </c>
       <c r="G14" s="3">
-        <v>0.14072686774364113</v>
+        <v>0.14073095666905397</v>
       </c>
       <c r="H14" s="2">
-        <v>5.3394793962657783e-06</v>
+        <v>1.0417552976427213e-05</v>
       </c>
       <c r="I14" s="4">
-        <v>27.510667914325325</v>
+        <v>27.511435085538551</v>
       </c>
       <c r="J14" s="4">
-        <v>27.511345938585237</v>
+        <v>27.511345536001102</v>
       </c>
       <c r="K14" s="2">
-        <v>0.00067802425991203563</v>
+        <v>8.9549537449329364e-05</v>
       </c>
       <c r="L14" s="4">
-        <v>1.0270669165281685</v>
+        <v>1.0274794091003294</v>
       </c>
       <c r="M14" s="4">
-        <v>1.0274154693486688</v>
+        <v>1.0278160075005212</v>
       </c>
       <c r="N14" s="2">
-        <v>0.0003485528205002808</v>
+        <v>0.00033659840019173437</v>
       </c>
       <c r="O14" s="8" t="b">
         <v>1</v>
@@ -2936,31 +2936,31 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F15" s="3">
-        <v>0.13812787867777296</v>
+        <v>0.13813037291100139</v>
       </c>
       <c r="G15" s="3">
-        <v>0.14335378735643831</v>
+        <v>0.14336229031200024</v>
       </c>
       <c r="H15" s="2">
-        <v>0.0052259086786653475</v>
+        <v>0.0052319174009988478</v>
       </c>
       <c r="I15" s="4">
-        <v>27.521088192242473</v>
+        <v>27.52048533956048</v>
       </c>
       <c r="J15" s="4">
-        <v>27.499406224507197</v>
+        <v>27.499154003750391</v>
       </c>
       <c r="K15" s="2">
-        <v>0.021681967735275975</v>
+        <v>0.021331335810089058</v>
       </c>
       <c r="L15" s="4">
-        <v>1.0287773544899979</v>
+        <v>1.0284375370415912</v>
       </c>
       <c r="M15" s="4">
-        <v>1.025864210565449</v>
+        <v>1.0261327235788511</v>
       </c>
       <c r="N15" s="2">
-        <v>0.0029131439245488888</v>
+        <v>0.0023048134627401407</v>
       </c>
       <c r="O15" s="8" t="b">
         <v>1</v>
@@ -3014,31 +3014,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F16" s="3">
-        <v>0.14185812521112645</v>
+        <v>0.14185120056499553</v>
       </c>
       <c r="G16" s="3">
-        <v>0.13869492824792987</v>
+        <v>0.13866586809298195</v>
       </c>
       <c r="H16" s="2">
-        <v>0.0031631969631965851</v>
+        <v>0.0031853324720135801</v>
       </c>
       <c r="I16" s="4">
-        <v>27.358956449659388</v>
+        <v>27.359244806939614</v>
       </c>
       <c r="J16" s="4">
-        <v>27.570958554065157</v>
+        <v>27.571112013440143</v>
       </c>
       <c r="K16" s="2">
-        <v>0.21200210440576939</v>
+        <v>0.21186720650052848</v>
       </c>
       <c r="L16" s="4">
-        <v>1.0467526167185699</v>
+        <v>1.0464197752503794</v>
       </c>
       <c r="M16" s="4">
-        <v>1.0035210286101881</v>
+        <v>1.003820004189339</v>
       </c>
       <c r="N16" s="2">
-        <v>0.043231588108381791</v>
+        <v>0.042599771061040403</v>
       </c>
       <c r="O16" s="8" t="b">
         <v>1</v>
@@ -3092,31 +3092,31 @@
         <v>0.065000000000000002</v>
       </c>
       <c r="F17" s="3">
-        <v>0.13618219959629785</v>
+        <v>0.13620358255552631</v>
       </c>
       <c r="G17" s="3">
-        <v>0.14714957540543244</v>
+        <v>0.14714497766248374</v>
       </c>
       <c r="H17" s="2">
-        <v>0.010967375809134594</v>
+        <v>0.010941395106957436</v>
       </c>
       <c r="I17" s="4">
-        <v>27.539764265034876</v>
+        <v>27.539507401121171</v>
       </c>
       <c r="J17" s="4">
-        <v>27.44825613792375</v>
+        <v>27.448150231764089</v>
       </c>
       <c r="K17" s="2">
-        <v>0.091508127111126214</v>
+        <v>0.091357169357081602</v>
       </c>
       <c r="L17" s="4">
-        <v>1.016994456123989</v>
+        <v>1.0175786386700745</v>
       </c>
       <c r="M17" s="4">
-        <v>1.0472217061764055</v>
+        <v>1.0490131594445316</v>
       </c>
       <c r="N17" s="2">
-        <v>0.030227250052416554</v>
+        <v>0.031434520774457075</v>
       </c>
       <c r="O17" s="8" t="b">
         <v>1</v>
@@ -3170,31 +3170,31 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="F18" s="3">
-        <v>0.13520965734853091</v>
+        <v>0.13520886342446023</v>
       </c>
       <c r="G18" s="3">
-        <v>0.14410639300459901</v>
+        <v>0.14411603751143184</v>
       </c>
       <c r="H18" s="2">
-        <v>0.0088967356560681055</v>
+        <v>0.0089071740869716143</v>
       </c>
       <c r="I18" s="4">
-        <v>27.520445928863182</v>
+        <v>27.520426201473242</v>
       </c>
       <c r="J18" s="4">
-        <v>27.513641901314202</v>
+        <v>27.512477130851323</v>
       </c>
       <c r="K18" s="2">
-        <v>0.0068040275489806845</v>
+        <v>0.0079490706219189633</v>
       </c>
       <c r="L18" s="4">
-        <v>1.0494949058371743</v>
+        <v>1.0494631146299565</v>
       </c>
       <c r="M18" s="4">
-        <v>1.0133560317323933</v>
+        <v>1.0130312043391649</v>
       </c>
       <c r="N18" s="2">
-        <v>0.036138874104781005</v>
+        <v>0.036431910290791514</v>
       </c>
       <c r="O18" s="8" t="b">
         <v>1</v>
@@ -3248,31 +3248,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F19" s="3">
-        <v>0.1357219770245762</v>
+        <v>0.13572177973289001</v>
       </c>
       <c r="G19" s="3">
-        <v>0.14973297657790938</v>
+        <v>0.14974795001246013</v>
       </c>
       <c r="H19" s="2">
-        <v>0.014010999553333181</v>
+        <v>0.014026170279570122</v>
       </c>
       <c r="I19" s="4">
-        <v>27.561183433327926</v>
+        <v>27.56119040883533</v>
       </c>
       <c r="J19" s="4">
-        <v>27.378578652801025</v>
+        <v>27.378589576147135</v>
       </c>
       <c r="K19" s="2">
-        <v>0.18260478052690132</v>
+        <v>0.18260083268819472</v>
       </c>
       <c r="L19" s="4">
-        <v>1.0053834706852616</v>
+        <v>1.0053698446199484</v>
       </c>
       <c r="M19" s="4">
-        <v>1.0908425675648494</v>
+        <v>1.0905057084920355</v>
       </c>
       <c r="N19" s="2">
-        <v>0.085459096879587859</v>
+        <v>0.085135863872087159</v>
       </c>
       <c r="O19" s="8" t="b">
         <v>1</v>
@@ -3326,31 +3326,31 @@
         <v>0.18708</v>
       </c>
       <c r="F20" s="3">
-        <v>0.14074559244364857</v>
+        <v>0.14074351600194032</v>
       </c>
       <c r="G20" s="3">
-        <v>0.14070699825290253</v>
+        <v>0.14070651148638524</v>
       </c>
       <c r="H20" s="2">
-        <v>3.8594190746032986e-05</v>
+        <v>3.7004515555077999e-05</v>
       </c>
       <c r="I20" s="4">
-        <v>27.502490782367659</v>
+        <v>27.502971441751242</v>
       </c>
       <c r="J20" s="4">
-        <v>27.519167247266296</v>
+        <v>27.519582506748691</v>
       </c>
       <c r="K20" s="2">
-        <v>0.016676464898637278</v>
+        <v>0.016611064997448466</v>
       </c>
       <c r="L20" s="4">
-        <v>1.0283306677712039</v>
+        <v>1.028193553445879</v>
       </c>
       <c r="M20" s="4">
-        <v>1.0256194879714395</v>
+        <v>1.0256320135904902</v>
       </c>
       <c r="N20" s="2">
-        <v>0.0027111797997643183</v>
+        <v>0.0025615398553888724</v>
       </c>
       <c r="O20" s="8" t="b">
         <v>1</v>
@@ -3404,31 +3404,31 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F21" s="3">
-        <v>0.14038814640174074</v>
+        <v>0.14039000237567822</v>
       </c>
       <c r="G21" s="3">
-        <v>0.14117806025620397</v>
+        <v>0.14119105810130761</v>
       </c>
       <c r="H21" s="2">
-        <v>0.0007899138544632256</v>
+        <v>0.00080105572562938487</v>
       </c>
       <c r="I21" s="4">
-        <v>27.506137209264637</v>
+        <v>27.506139318065721</v>
       </c>
       <c r="J21" s="4">
-        <v>27.518918177648743</v>
+        <v>27.518985009661151</v>
       </c>
       <c r="K21" s="2">
-        <v>0.012780968384106473</v>
+        <v>0.012845691595430253</v>
       </c>
       <c r="L21" s="4">
-        <v>1.0287390444491413</v>
+        <v>1.029173316591016</v>
       </c>
       <c r="M21" s="4">
-        <v>1.0250370341064952</v>
+        <v>1.0242186740535189</v>
       </c>
       <c r="N21" s="2">
-        <v>0.003702010342646167</v>
+        <v>0.0049546425374971115</v>
       </c>
       <c r="O21" s="8" t="b">
         <v>1</v>
@@ -3482,31 +3482,31 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="F22" s="3">
-        <v>0.15192929268654221</v>
+        <v>0.15191330538018893</v>
       </c>
       <c r="G22" s="3">
-        <v>0.13243589057927818</v>
+        <v>0.13243042693598986</v>
       </c>
       <c r="H22" s="2">
-        <v>0.019493402107264024</v>
+        <v>0.019482878444199075</v>
       </c>
       <c r="I22" s="4">
-        <v>27.526629021471308</v>
+        <v>27.526636284054746</v>
       </c>
       <c r="J22" s="4">
-        <v>27.284649989372724</v>
+        <v>27.283736107671018</v>
       </c>
       <c r="K22" s="2">
-        <v>0.24197903209858396</v>
+        <v>0.24290017638372774</v>
       </c>
       <c r="L22" s="4">
-        <v>1.004121634860051</v>
+        <v>1.0041451647108381</v>
       </c>
       <c r="M22" s="4">
-        <v>1.0649175873647465</v>
+        <v>1.0648175617019573</v>
       </c>
       <c r="N22" s="2">
-        <v>0.060795952504695494</v>
+        <v>0.060672396991119149</v>
       </c>
       <c r="O22" s="8" t="b">
         <v>1</v>
@@ -3560,31 +3560,31 @@
         <v>0.19208</v>
       </c>
       <c r="F23" s="3">
-        <v>0.1412795634209211</v>
+        <v>0.14134190509957431</v>
       </c>
       <c r="G23" s="3">
-        <v>0.13858929072394605</v>
+        <v>0.13856638039093441</v>
       </c>
       <c r="H23" s="2">
-        <v>0.0026902726969750546</v>
+        <v>0.0027755247086398982</v>
       </c>
       <c r="I23" s="4">
-        <v>27.435373100997424</v>
+        <v>27.435777789314386</v>
       </c>
       <c r="J23" s="4">
-        <v>27.538324248963363</v>
+        <v>27.538341102658705</v>
       </c>
       <c r="K23" s="2">
-        <v>0.10295114796593907</v>
+        <v>0.10256331334431934</v>
       </c>
       <c r="L23" s="4">
-        <v>1.0383032574051203</v>
+        <v>1.0378401790275431</v>
       </c>
       <c r="M23" s="4">
-        <v>1.0223250304036451</v>
+        <v>1.0218079818920896</v>
       </c>
       <c r="N23" s="2">
-        <v>0.01597822700147522</v>
+        <v>0.016032197135453563</v>
       </c>
       <c r="O23" s="8" t="b">
         <v>1</v>
@@ -3638,31 +3638,31 @@
         <v>0.83899999999999997</v>
       </c>
       <c r="F24" s="3">
-        <v>0.14081751975352222</v>
+        <v>0.14082369011060417</v>
       </c>
       <c r="G24" s="3">
-        <v>0.14065491839067576</v>
+        <v>0.14068035031205298</v>
       </c>
       <c r="H24" s="2">
-        <v>0.00016260136284645954</v>
+        <v>0.00014333979855118972</v>
       </c>
       <c r="I24" s="4">
-        <v>27.514838925943707</v>
+        <v>27.514515561885503</v>
       </c>
       <c r="J24" s="4">
-        <v>27.508765187925633</v>
+        <v>27.508467196837387</v>
       </c>
       <c r="K24" s="2">
-        <v>0.0060737380180739819</v>
+        <v>0.0060483650481160112</v>
       </c>
       <c r="L24" s="4">
-        <v>1.026509240350981</v>
+        <v>1.0266337757981372</v>
       </c>
       <c r="M24" s="4">
-        <v>1.0280042364712358</v>
+        <v>1.0280042392448323</v>
       </c>
       <c r="N24" s="2">
-        <v>0.0014949961202548323</v>
+        <v>0.0013704634466951138</v>
       </c>
       <c r="O24" s="8" t="b">
         <v>1</v>
@@ -3716,31 +3716,31 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="F25" s="3">
-        <v>0.13432373862376751</v>
+        <v>0.13430979896297091</v>
       </c>
       <c r="G25" s="3">
-        <v>0.15556748957123989</v>
+        <v>0.1555947530108526</v>
       </c>
       <c r="H25" s="2">
-        <v>0.021243750947472384</v>
+        <v>0.021284954047881693</v>
       </c>
       <c r="I25" s="4">
-        <v>27.296098921378643</v>
+        <v>27.295868426636957</v>
       </c>
       <c r="J25" s="4">
-        <v>27.468498670252757</v>
+        <v>27.468678327649968</v>
       </c>
       <c r="K25" s="2">
-        <v>0.17239974887411336</v>
+        <v>0.17280990101301086</v>
       </c>
       <c r="L25" s="4">
-        <v>1.0594050773319859</v>
+        <v>1.0594509825728402</v>
       </c>
       <c r="M25" s="4">
-        <v>1.0019797227681266</v>
+        <v>1.0019691619727766</v>
       </c>
       <c r="N25" s="2">
-        <v>0.057425354563859221</v>
+        <v>0.057481820600063571</v>
       </c>
       <c r="O25" s="8" t="b">
         <v>1</v>
@@ -3794,31 +3794,31 @@
         <v>0.099782999999999997</v>
       </c>
       <c r="F26" s="3">
-        <v>0.14105314571032912</v>
+        <v>0.14106021923929518</v>
       </c>
       <c r="G26" s="3">
-        <v>0.14105774503235918</v>
+        <v>0.14105254500378295</v>
       </c>
       <c r="H26" s="2">
-        <v>4.599322030063302e-06</v>
+        <v>7.6742355122338957e-06</v>
       </c>
       <c r="I26" s="4">
-        <v>27.509409991070072</v>
+        <v>27.509233659714994</v>
       </c>
       <c r="J26" s="4">
-        <v>27.50879465527521</v>
+        <v>27.509089071512506</v>
       </c>
       <c r="K26" s="2">
-        <v>0.00061533579486194867</v>
+        <v>0.00014458820248819393</v>
       </c>
       <c r="L26" s="4">
-        <v>1.0260324907781173</v>
+        <v>1.0261383019311683</v>
       </c>
       <c r="M26" s="4">
-        <v>1.0257789211524411</v>
+        <v>1.0253118788224989</v>
       </c>
       <c r="N26" s="2">
-        <v>0.00025356962567624208</v>
+        <v>0.00082642310866942736</v>
       </c>
       <c r="O26" s="8" t="b">
         <v>1</v>
@@ -3872,31 +3872,31 @@
         <v>0.54198999999999997</v>
       </c>
       <c r="F27" s="3">
-        <v>0.14186910848124168</v>
+        <v>0.14186426970955471</v>
       </c>
       <c r="G27" s="3">
-        <v>0.13924167467563334</v>
+        <v>0.13924056508064472</v>
       </c>
       <c r="H27" s="2">
-        <v>0.0026274338056083424</v>
+        <v>0.0026237046289099841</v>
       </c>
       <c r="I27" s="4">
-        <v>27.499895894980227</v>
+        <v>27.499906806045203</v>
       </c>
       <c r="J27" s="4">
-        <v>27.522958264113015</v>
+        <v>27.522927366982401</v>
       </c>
       <c r="K27" s="2">
-        <v>0.023062369132787808</v>
+        <v>0.023020560937197843</v>
       </c>
       <c r="L27" s="4">
-        <v>1.0208435933089075</v>
+        <v>1.0204020711363022</v>
       </c>
       <c r="M27" s="4">
-        <v>1.0341894290332714</v>
+        <v>1.0341903262881369</v>
       </c>
       <c r="N27" s="2">
-        <v>0.013345835724363875</v>
+        <v>0.013788255151834683</v>
       </c>
       <c r="O27" s="8" t="b">
         <v>1</v>
@@ -3950,31 +3950,31 @@
         <v>0.57586000000000004</v>
       </c>
       <c r="F28" s="3">
-        <v>0.14205281040183712</v>
+        <v>0.14205061962983309</v>
       </c>
       <c r="G28" s="3">
-        <v>0.13982560182662479</v>
+        <v>0.13982712665854771</v>
       </c>
       <c r="H28" s="2">
-        <v>0.0022272085752123305</v>
+        <v>0.002223492971285379</v>
       </c>
       <c r="I28" s="4">
-        <v>27.502082152639389</v>
+        <v>27.503065425810689</v>
       </c>
       <c r="J28" s="4">
-        <v>27.518260167712072</v>
+        <v>27.517549130644738</v>
       </c>
       <c r="K28" s="2">
-        <v>0.016178015072682683</v>
+        <v>0.014483704834049149</v>
       </c>
       <c r="L28" s="4">
-        <v>1.0204941134781909</v>
+        <v>1.0210397797565007</v>
       </c>
       <c r="M28" s="4">
-        <v>1.0321066560313283</v>
+        <v>1.0321571348666372</v>
       </c>
       <c r="N28" s="2">
-        <v>0.011612542553137484</v>
+        <v>0.011117355110136451</v>
       </c>
       <c r="O28" s="8" t="b">
         <v>1</v>
@@ -4028,31 +4028,31 @@
         <v>0.079783000000000007</v>
       </c>
       <c r="F29" s="3">
-        <v>0.14085390742844808</v>
+        <v>0.14083695305788843</v>
       </c>
       <c r="G29" s="3">
-        <v>0.14085471265066593</v>
+        <v>0.14082992193476232</v>
       </c>
       <c r="H29" s="2">
-        <v>8.052222178478452e-07</v>
+        <v>7.031123126111094e-06</v>
       </c>
       <c r="I29" s="4">
-        <v>27.510846002777498</v>
+        <v>27.510064522874131</v>
       </c>
       <c r="J29" s="4">
-        <v>27.50998131561164</v>
+        <v>27.510098388731706</v>
       </c>
       <c r="K29" s="2">
-        <v>0.00086468716585841321</v>
+        <v>3.3865857574255642e-05</v>
       </c>
       <c r="L29" s="4">
-        <v>1.0267676838287307</v>
+        <v>1.0263449976655188</v>
       </c>
       <c r="M29" s="4">
-        <v>1.02636588735099</v>
+        <v>1.0264609578792017</v>
       </c>
       <c r="N29" s="2">
-        <v>0.00040179647774074567</v>
+        <v>0.00011596021368287524</v>
       </c>
       <c r="O29" s="8" t="b">
         <v>1</v>
@@ -4106,31 +4106,31 @@
         <v>0.746</v>
       </c>
       <c r="F30" s="3">
-        <v>0.14194599326516602</v>
+        <v>0.14197368782909883</v>
       </c>
       <c r="G30" s="3">
-        <v>0.13959793051855099</v>
+        <v>0.13959162457788779</v>
       </c>
       <c r="H30" s="2">
-        <v>0.0023480627466150317</v>
+        <v>0.0023820632512110418</v>
       </c>
       <c r="I30" s="4">
-        <v>27.50247771081473</v>
+        <v>27.503039461205788</v>
       </c>
       <c r="J30" s="4">
-        <v>27.519456586058595</v>
+        <v>27.518622176373754</v>
       </c>
       <c r="K30" s="2">
-        <v>0.016978875243864877</v>
+        <v>0.015582715167965944</v>
       </c>
       <c r="L30" s="4">
-        <v>1.0207484334531103</v>
+        <v>1.0212353179746536</v>
       </c>
       <c r="M30" s="4">
-        <v>1.0326536878596062</v>
+        <v>1.0326553187264096</v>
       </c>
       <c r="N30" s="2">
-        <v>0.011905254406495924</v>
+        <v>0.011420000751755977</v>
       </c>
       <c r="O30" s="8" t="b">
         <v>1</v>
@@ -4184,31 +4184,31 @@
         <v>0.17999999999999999</v>
       </c>
       <c r="F31" s="3">
-        <v>0.14110534252641224</v>
+        <v>0.14109291992894729</v>
       </c>
       <c r="G31" s="3">
-        <v>0.14020495662169447</v>
+        <v>0.14020886540299871</v>
       </c>
       <c r="H31" s="2">
-        <v>0.00090038590471777646</v>
+        <v>0.00088405452594858547</v>
       </c>
       <c r="I31" s="4">
-        <v>27.508003285458642</v>
+        <v>27.506806305446617</v>
       </c>
       <c r="J31" s="4">
-        <v>27.516194359571102</v>
+        <v>27.516207519951649</v>
       </c>
       <c r="K31" s="2">
-        <v>0.0081910741124602282</v>
+        <v>0.00940121450503284</v>
       </c>
       <c r="L31" s="4">
-        <v>1.0252940973479576</v>
+        <v>1.0251883062028118</v>
       </c>
       <c r="M31" s="4">
-        <v>1.0302304482816884</v>
+        <v>1.0302322887449391</v>
       </c>
       <c r="N31" s="2">
-        <v>0.0049363509337307931</v>
+        <v>0.0050439825421273454</v>
       </c>
       <c r="O31" s="8" t="b">
         <v>1</v>
@@ -4262,31 +4262,31 @@
         <v>0.02</v>
       </c>
       <c r="F32" s="3">
-        <v>0.1407199599079324</v>
+        <v>0.14072978180361984</v>
       </c>
       <c r="G32" s="3">
-        <v>0.14073853848963647</v>
+        <v>0.14074550195363977</v>
       </c>
       <c r="H32" s="2">
-        <v>1.8578581704065122e-05</v>
+        <v>1.5720150019937762e-05</v>
       </c>
       <c r="I32" s="4">
-        <v>27.510599008918973</v>
+        <v>27.511445540990678</v>
       </c>
       <c r="J32" s="4">
-        <v>27.510638233598172</v>
+        <v>27.511331173330632</v>
       </c>
       <c r="K32" s="2">
-        <v>3.9224679198923695e-05</v>
+        <v>0.00011436766004635501</v>
       </c>
       <c r="L32" s="4">
-        <v>1.0272296274102082</v>
+        <v>1.0270760149825404</v>
       </c>
       <c r="M32" s="4">
-        <v>1.0274291602146819</v>
+        <v>1.0274135113818219</v>
       </c>
       <c r="N32" s="2">
-        <v>0.00019953280447371213</v>
+        <v>0.00033749639928148945</v>
       </c>
       <c r="O32" s="8" t="b">
         <v>1</v>
@@ -4334,37 +4334,37 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>0.70999999999999996</v>
+        <v>0.70999999999999997</v>
       </c>
       <c r="E33" s="0">
         <v>0.75</v>
       </c>
       <c r="F33" s="3">
-        <v>0.14071688765795629</v>
+        <v>0.14073854632156666</v>
       </c>
       <c r="G33" s="3">
-        <v>0.14073329516445904</v>
+        <v>0.14072496603059651</v>
       </c>
       <c r="H33" s="2">
-        <v>1.6407506502752467e-05</v>
+        <v>1.35802909701499e-05</v>
       </c>
       <c r="I33" s="4">
-        <v>27.510913509733996</v>
+        <v>27.510925224505058</v>
       </c>
       <c r="J33" s="4">
-        <v>27.511422011396576</v>
+        <v>27.511420717479041</v>
       </c>
       <c r="K33" s="2">
-        <v>0.00050850166257987439</v>
+        <v>0.00049549297398243653</v>
       </c>
       <c r="L33" s="4">
-        <v>1.0267114818869487</v>
+        <v>1.027365153566459</v>
       </c>
       <c r="M33" s="4">
-        <v>1.0267999429387753</v>
+        <v>1.0270834641920039</v>
       </c>
       <c r="N33" s="2">
-        <v>8.8461051826582704e-05</v>
+        <v>0.00028168937445505193</v>
       </c>
       <c r="O33" s="8" t="b">
         <v>1</v>
@@ -4418,31 +4418,31 @@
         <v>0.34999999999999998</v>
       </c>
       <c r="F34" s="3">
-        <v>0.14069625943445735</v>
+        <v>0.14069516436287205</v>
       </c>
       <c r="G34" s="3">
-        <v>0.14075444784806213</v>
+        <v>0.14074832178705535</v>
       </c>
       <c r="H34" s="2">
-        <v>5.8188413604776112e-05</v>
+        <v>5.3157424183297719e-05</v>
       </c>
       <c r="I34" s="4">
-        <v>27.510775099681211</v>
+        <v>27.510704089935757</v>
       </c>
       <c r="J34" s="4">
-        <v>27.511343105780156</v>
+        <v>27.511331630710231</v>
       </c>
       <c r="K34" s="2">
-        <v>0.00056800609894480658</v>
+        <v>0.00062754077447380041</v>
       </c>
       <c r="L34" s="4">
-        <v>1.0274273574635429</v>
+        <v>1.0271644384612075</v>
       </c>
       <c r="M34" s="4">
-        <v>1.0273706520798547</v>
+        <v>1.027224735725462</v>
       </c>
       <c r="N34" s="2">
-        <v>5.6705383688182565e-05</v>
+        <v>6.029726425449411e-05</v>
       </c>
       <c r="O34" s="8" t="b">
         <v>1</v>
@@ -4496,31 +4496,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F35" s="3">
-        <v>0.1423176778388269</v>
+        <v>0.14230808826162383</v>
       </c>
       <c r="G35" s="3">
-        <v>0.1393286483714587</v>
+        <v>0.13931470337038288</v>
       </c>
       <c r="H35" s="2">
-        <v>0.0029890294673682039</v>
+        <v>0.0029933848912409577</v>
       </c>
       <c r="I35" s="4">
-        <v>27.494341131443718</v>
+        <v>27.494329991729728</v>
       </c>
       <c r="J35" s="4">
-        <v>27.527734882025584</v>
+        <v>27.528162439574317</v>
       </c>
       <c r="K35" s="2">
-        <v>0.033393750581865334</v>
+        <v>0.033832447844588387</v>
       </c>
       <c r="L35" s="4">
-        <v>1.0169744420704692</v>
+        <v>1.0175066440446692</v>
       </c>
       <c r="M35" s="4">
-        <v>1.0369702860358241</v>
+        <v>1.036954964265776</v>
       </c>
       <c r="N35" s="2">
-        <v>0.01999584396535492</v>
+        <v>0.019448320221106874</v>
       </c>
       <c r="O35" s="8" t="b">
         <v>1</v>
@@ -4574,31 +4574,31 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="F36" s="3">
-        <v>0.14501089070759646</v>
+        <v>0.14500683076963949</v>
       </c>
       <c r="G36" s="3">
-        <v>0.13715827433211297</v>
+        <v>0.13712880403130276</v>
       </c>
       <c r="H36" s="2">
-        <v>0.0078526163754834843</v>
+        <v>0.0078780267383367353</v>
       </c>
       <c r="I36" s="4">
-        <v>27.520774964009149</v>
+        <v>27.5203797686342</v>
       </c>
       <c r="J36" s="4">
-        <v>27.503731972033847</v>
+        <v>27.50343713777113</v>
       </c>
       <c r="K36" s="2">
-        <v>0.017042991975301902</v>
+        <v>0.016942630863070463</v>
       </c>
       <c r="L36" s="4">
-        <v>1.0233461296624327</v>
+        <v>1.0241367324105866</v>
       </c>
       <c r="M36" s="4">
-        <v>1.0312458611874087</v>
+        <v>1.0310033271676467</v>
       </c>
       <c r="N36" s="2">
-        <v>0.007899731524976028</v>
+        <v>0.0068665947570600849</v>
       </c>
       <c r="O36" s="8" t="b">
         <v>1</v>
@@ -4652,31 +4652,31 @@
         <v>0.38</v>
       </c>
       <c r="F37" s="3">
-        <v>0.14696651956206053</v>
+        <v>0.14699369548986316</v>
       </c>
       <c r="G37" s="3">
-        <v>0.13458915765935614</v>
+        <v>0.1345950324455038</v>
       </c>
       <c r="H37" s="2">
-        <v>0.012377361902704387</v>
+        <v>0.012398663044359354</v>
       </c>
       <c r="I37" s="4">
-        <v>27.494630416039399</v>
+        <v>27.494522573432391</v>
       </c>
       <c r="J37" s="4">
-        <v>27.541670479493519</v>
+        <v>27.540841226762325</v>
       </c>
       <c r="K37" s="2">
-        <v>0.047040063454119263</v>
+        <v>0.046318653329933568</v>
       </c>
       <c r="L37" s="4">
-        <v>1.021112880015238</v>
+        <v>1.0211113664203797</v>
       </c>
       <c r="M37" s="4">
-        <v>1.0309443963891087</v>
+        <v>1.0316530568262776</v>
       </c>
       <c r="N37" s="2">
-        <v>0.0098315163738706968</v>
+        <v>0.010541690405897919</v>
       </c>
       <c r="O37" s="8" t="b">
         <v>1</v>
@@ -4730,31 +4730,31 @@
         <v>-0.25</v>
       </c>
       <c r="F38" s="3">
-        <v>0.14784056389370032</v>
+        <v>0.14782498678257339</v>
       </c>
       <c r="G38" s="3">
-        <v>0.12962748679089986</v>
+        <v>0.12963093897012693</v>
       </c>
       <c r="H38" s="2">
-        <v>0.018213077102800457</v>
+        <v>0.018194047812446462</v>
       </c>
       <c r="I38" s="4">
-        <v>27.510607427389516</v>
+        <v>27.510986913418208</v>
       </c>
       <c r="J38" s="4">
-        <v>27.511012655408649</v>
+        <v>27.510652035070677</v>
       </c>
       <c r="K38" s="2">
-        <v>0.00040522801913311923</v>
+        <v>0.00033487834753032075</v>
       </c>
       <c r="L38" s="4">
-        <v>1.016006239054239</v>
+        <v>1.0161354760887367</v>
       </c>
       <c r="M38" s="4">
-        <v>1.0471431369050475</v>
+        <v>1.0472485163749152</v>
       </c>
       <c r="N38" s="2">
-        <v>0.03113689785080842</v>
+        <v>0.031113040286178562</v>
       </c>
       <c r="O38" s="8" t="b">
         <v>1</v>
@@ -4808,31 +4808,31 @@
         <v>0.63</v>
       </c>
       <c r="F39" s="3">
-        <v>0.14073425489699654</v>
+        <v>0.14072667976480996</v>
       </c>
       <c r="G39" s="3">
-        <v>0.1407314267704918</v>
+        <v>0.14073507233730542</v>
       </c>
       <c r="H39" s="2">
-        <v>2.8281265047336301e-06</v>
+        <v>8.3925724954636571e-06</v>
       </c>
       <c r="I39" s="4">
-        <v>27.510505605213666</v>
+        <v>27.511410143177159</v>
       </c>
       <c r="J39" s="4">
-        <v>27.510969263500783</v>
+        <v>27.510746696106935</v>
       </c>
       <c r="K39" s="2">
-        <v>0.0004636582871171413</v>
+        <v>0.00066344707022381044</v>
       </c>
       <c r="L39" s="4">
-        <v>1.0274924780367181</v>
+        <v>1.0272584651785022</v>
       </c>
       <c r="M39" s="4">
-        <v>1.0271789252709764</v>
+        <v>1.0271720387659724</v>
       </c>
       <c r="N39" s="2">
-        <v>0.00031355276574163149</v>
+        <v>8.642641252976091e-05</v>
       </c>
       <c r="O39" s="8" t="b">
         <v>1</v>
@@ -4886,31 +4886,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F40" s="3">
-        <v>0.14014972113368865</v>
+        <v>0.14014788480104765</v>
       </c>
       <c r="G40" s="3">
-        <v>0.14129333178723485</v>
+        <v>0.14129264245396833</v>
       </c>
       <c r="H40" s="2">
-        <v>0.0011436106535462065</v>
+        <v>0.001144757652920686</v>
       </c>
       <c r="I40" s="4">
-        <v>27.510679482701903</v>
+        <v>27.510672252470897</v>
       </c>
       <c r="J40" s="4">
-        <v>27.510173379268394</v>
+        <v>27.511519994678054</v>
       </c>
       <c r="K40" s="2">
-        <v>0.00050610343350854237</v>
+        <v>0.00084774220715644333</v>
       </c>
       <c r="L40" s="4">
-        <v>1.0271534518254453</v>
+        <v>1.0287461011005512</v>
       </c>
       <c r="M40" s="4">
-        <v>1.0262524219871263</v>
+        <v>1.0261074891067381</v>
       </c>
       <c r="N40" s="2">
-        <v>0.00090102983831896744</v>
+        <v>0.0026386119938131003</v>
       </c>
       <c r="O40" s="8" t="b">
         <v>1</v>
@@ -4964,31 +4964,31 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0.12961195246605725</v>
+        <v>0.12961379900393333</v>
       </c>
       <c r="G41" s="3">
-        <v>0.14783408546186899</v>
+        <v>0.14782757704496471</v>
       </c>
       <c r="H41" s="2">
-        <v>0.018222132995811741</v>
+        <v>0.018213778041031387</v>
       </c>
       <c r="I41" s="4">
-        <v>27.510611006305055</v>
+        <v>27.510991866318364</v>
       </c>
       <c r="J41" s="4">
-        <v>27.511384790136503</v>
+        <v>27.51057801257673</v>
       </c>
       <c r="K41" s="2">
-        <v>0.00077378383144832696</v>
+        <v>0.00041385374163382949</v>
       </c>
       <c r="L41" s="4">
-        <v>1.0472412694816198</v>
+        <v>1.0473312299947235</v>
       </c>
       <c r="M41" s="4">
-        <v>1.0161654021270725</v>
+        <v>1.0158883106408876</v>
       </c>
       <c r="N41" s="2">
-        <v>0.03107586735454726</v>
+        <v>0.031442919353835919</v>
       </c>
       <c r="O41" s="8" t="b">
         <v>1</v>
@@ -5036,37 +5036,37 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.55000000000000004</v>
+        <v>0.55000000000000005</v>
       </c>
       <c r="E42" s="0">
         <v>0.65000000000000002</v>
       </c>
       <c r="F42" s="3">
-        <v>0.14772546725158672</v>
+        <v>0.14770369166080508</v>
       </c>
       <c r="G42" s="3">
-        <v>0.13354685633352253</v>
+        <v>0.13358439845450429</v>
       </c>
       <c r="H42" s="2">
-        <v>0.014178610918064188</v>
+        <v>0.014119293206300787</v>
       </c>
       <c r="I42" s="4">
-        <v>27.511469800410737</v>
+        <v>27.511393332490002</v>
       </c>
       <c r="J42" s="4">
-        <v>27.510861360876049</v>
+        <v>27.511394746813323</v>
       </c>
       <c r="K42" s="2">
-        <v>0.00060843953468747713</v>
+        <v>1.4143233215690998e-06</v>
       </c>
       <c r="L42" s="4">
-        <v>1.0158262382255883</v>
+        <v>1.0151593643325472</v>
       </c>
       <c r="M42" s="4">
-        <v>1.0391632772691348</v>
+        <v>1.0394922579743049</v>
       </c>
       <c r="N42" s="2">
-        <v>0.023337039043546559</v>
+        <v>0.024332893641757725</v>
       </c>
       <c r="O42" s="8" t="b">
         <v>1</v>
@@ -5120,31 +5120,31 @@
         <v>0.29999999999999999</v>
       </c>
       <c r="F43" s="3">
-        <v>0.14163214455339021</v>
+        <v>0.14164832345832731</v>
       </c>
       <c r="G43" s="3">
-        <v>0.13975984033754996</v>
+        <v>0.13976804439380586</v>
       </c>
       <c r="H43" s="2">
-        <v>0.0018723042158402536</v>
+        <v>0.0018802790645214562</v>
       </c>
       <c r="I43" s="4">
-        <v>27.511375779158584</v>
+        <v>27.511375262577644</v>
       </c>
       <c r="J43" s="4">
-        <v>27.5109639790399</v>
+        <v>27.510739403039679</v>
       </c>
       <c r="K43" s="2">
-        <v>0.00041180011868391375</v>
+        <v>0.00063585953796518879</v>
       </c>
       <c r="L43" s="4">
-        <v>1.02577783819281</v>
+        <v>1.0256730330404717</v>
       </c>
       <c r="M43" s="4">
-        <v>1.0290678826872124</v>
+        <v>1.0291882138939155</v>
       </c>
       <c r="N43" s="2">
-        <v>0.0032900444944023999</v>
+        <v>0.0035151808534437112</v>
       </c>
       <c r="O43" s="8" t="b">
         <v>1</v>
@@ -5198,31 +5198,31 @@
         <v>7600</v>
       </c>
       <c r="F44" s="3">
-        <v>0.1412597697096851</v>
+        <v>0.14125637520199474</v>
       </c>
       <c r="G44" s="3">
-        <v>0.13991598122578283</v>
+        <v>0.13991198899414872</v>
       </c>
       <c r="H44" s="2">
-        <v>0.001343788483902264</v>
+        <v>0.0013443862078460211</v>
       </c>
       <c r="I44" s="4">
-        <v>27.511046623413961</v>
+        <v>27.511068143085993</v>
       </c>
       <c r="J44" s="4">
-        <v>27.510989894203703</v>
+        <v>27.512235084118629</v>
       </c>
       <c r="K44" s="2">
-        <v>5.6729210257344675e-05</v>
+        <v>0.0011669410326362595</v>
       </c>
       <c r="L44" s="4">
-        <v>1.0344928932193969</v>
+        <v>1.034573983346031</v>
       </c>
       <c r="M44" s="4">
-        <v>1.056217464509684</v>
+        <v>1.0562036553680731</v>
       </c>
       <c r="N44" s="2">
-        <v>0.021724571290287154</v>
+        <v>0.021629672022042135</v>
       </c>
       <c r="O44" s="8" t="b">
         <v>1</v>
@@ -5270,37 +5270,37 @@
         <v>1</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.087499999999999994</v>
+        <v>-0.087499999999999995</v>
       </c>
       <c r="E45" s="0">
         <v>-0.085000000000000006</v>
       </c>
       <c r="F45" s="3">
-        <v>0.14073672830247197</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="G45" s="3">
-        <v>0.14073893612287819</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="H45" s="2">
-        <v>2.2078204062192519e-06</v>
+        <v>1.0534981475823768e-05</v>
       </c>
       <c r="I45" s="4">
-        <v>27.511393660029</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="J45" s="4">
-        <v>27.511392338070664</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="K45" s="2">
-        <v>1.3219583365753351e-06</v>
+        <v>4.4603661422115693e-06</v>
       </c>
       <c r="L45" s="4">
-        <v>1.0272332274968039</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="M45" s="4">
-        <v>1.0271357895497772</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="N45" s="2">
-        <v>9.7437947026657312e-05</v>
+        <v>0.0001649829569911887</v>
       </c>
       <c r="O45" s="8" t="b">
         <v>1</v>
@@ -5354,31 +5354,31 @@
         <v>0.065000000000000002</v>
       </c>
       <c r="F46" s="3">
-        <v>0.14073893612287819</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="G46" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="H46" s="2">
-        <v>4.6036639887309105e-05</v>
+        <v>0</v>
       </c>
       <c r="I46" s="4">
-        <v>27.511392338070664</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="J46" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="K46" s="2">
-        <v>0.0006710020442142195</v>
+        <v>0</v>
       </c>
       <c r="L46" s="4">
-        <v>1.0271357895497772</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="M46" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="N46" s="2">
-        <v>0.00033854675874822604</v>
+        <v>0</v>
       </c>
       <c r="O46" s="8" t="b">
         <v>1</v>
@@ -5432,31 +5432,31 @@
         <v>58000</v>
       </c>
       <c r="F47" s="3">
-        <v>0.14088217213938831</v>
+        <v>0.14088202032243285</v>
       </c>
       <c r="G47" s="3">
-        <v>0.13974969623026831</v>
+        <v>0.1397514612663881</v>
       </c>
       <c r="H47" s="2">
-        <v>0.0011324759091199954</v>
+        <v>0.0011305590560447554</v>
       </c>
       <c r="I47" s="4">
-        <v>27.495853744277611</v>
+        <v>27.495854565740103</v>
       </c>
       <c r="J47" s="4">
-        <v>27.531422036571769</v>
+        <v>27.531399660938348</v>
       </c>
       <c r="K47" s="2">
-        <v>0.035568292294158255</v>
+        <v>0.035545095198244781</v>
       </c>
       <c r="L47" s="4">
-        <v>1.0249777357657563</v>
+        <v>1.0249775439534874</v>
       </c>
       <c r="M47" s="4">
-        <v>1.0290500272320418</v>
+        <v>1.0290498635504595</v>
       </c>
       <c r="N47" s="2">
-        <v>0.0040722914662854048</v>
+        <v>0.0040723195969720738</v>
       </c>
       <c r="O47" s="8" t="b">
         <v>1</v>
@@ -5510,31 +5510,31 @@
         <v>38</v>
       </c>
       <c r="F48" s="3">
-        <v>0.146622962784247</v>
+        <v>0.1466163958831897</v>
       </c>
       <c r="G48" s="3">
-        <v>0.13553923306598295</v>
+        <v>0.13553966810806278</v>
       </c>
       <c r="H48" s="2">
-        <v>0.011083729718264046</v>
+        <v>0.011076727775126916</v>
       </c>
       <c r="I48" s="4">
-        <v>27.51095474054938</v>
+        <v>27.511386613741934</v>
       </c>
       <c r="J48" s="4">
-        <v>27.510623328155532</v>
+        <v>27.510632193677338</v>
       </c>
       <c r="K48" s="2">
-        <v>0.00033141239384804067</v>
+        <v>0.00075442006459525146</v>
       </c>
       <c r="L48" s="4">
-        <v>1.0180039929098958</v>
+        <v>1.0179926243670208</v>
       </c>
       <c r="M48" s="4">
-        <v>1.0361489134910358</v>
+        <v>1.036112619525239</v>
       </c>
       <c r="N48" s="2">
-        <v>0.018144920581139923</v>
+        <v>0.018119995158218272</v>
       </c>
       <c r="O48" s="8" t="b">
         <v>1</v>
@@ -5585,34 +5585,34 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="E49" s="0">
-        <v>0.14999999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="F49" s="3">
-        <v>0.14073693601437753</v>
+        <v>0.1407362686132457</v>
       </c>
       <c r="G49" s="3">
-        <v>0.14072702653870492</v>
+        <v>0.14072315703969443</v>
       </c>
       <c r="H49" s="2">
-        <v>9.9094756726147981e-06</v>
+        <v>1.3111573551272127e-05</v>
       </c>
       <c r="I49" s="4">
-        <v>27.511434350558886</v>
+        <v>27.510614590467071</v>
       </c>
       <c r="J49" s="4">
-        <v>27.510160400491372</v>
+        <v>27.510938019173978</v>
       </c>
       <c r="K49" s="2">
-        <v>0.0012739500675138515</v>
+        <v>0.00032342870690627024</v>
       </c>
       <c r="L49" s="4">
-        <v>1.0271158514997483</v>
+        <v>1.0270164544561597</v>
       </c>
       <c r="M49" s="4">
-        <v>1.0272321083217235</v>
+        <v>1.0275010774411821</v>
       </c>
       <c r="N49" s="2">
-        <v>0.00011625682197524689</v>
+        <v>0.0004846229850223871</v>
       </c>
       <c r="O49" s="8" t="b">
         <v>1</v>
@@ -5666,31 +5666,31 @@
         <v>0.501</v>
       </c>
       <c r="F50" s="3">
-        <v>0.140733184299798</v>
+        <v>0.14076340212878799</v>
       </c>
       <c r="G50" s="3">
-        <v>0.14064629492263303</v>
+        <v>0.14062980713959203</v>
       </c>
       <c r="H50" s="2">
-        <v>8.6889377164972581e-05</v>
+        <v>0.00013359498919596202</v>
       </c>
       <c r="I50" s="4">
-        <v>27.512123945041253</v>
+        <v>27.511380428449627</v>
       </c>
       <c r="J50" s="4">
-        <v>27.510710025273056</v>
+        <v>27.509359081284458</v>
       </c>
       <c r="K50" s="2">
-        <v>0.0014139197681970472</v>
+        <v>0.0020213471651686632</v>
       </c>
       <c r="L50" s="4">
-        <v>1.0330153986753352</v>
+        <v>1.0332870452223877</v>
       </c>
       <c r="M50" s="4">
-        <v>1.0201849289668889</v>
+        <v>1.0199355949752935</v>
       </c>
       <c r="N50" s="2">
-        <v>0.012830469708446257</v>
+        <v>0.013351450247094165</v>
       </c>
       <c r="O50" s="8" t="b">
         <v>1</v>
@@ -5744,31 +5744,31 @@
         <v>0.46999999999999997</v>
       </c>
       <c r="F51" s="3">
-        <v>0.13876808537927893</v>
+        <v>0.13875017970680645</v>
       </c>
       <c r="G51" s="3">
-        <v>0.14162536204375251</v>
+        <v>0.1416456941494762</v>
       </c>
       <c r="H51" s="2">
-        <v>0.0028572766644735792</v>
+        <v>0.0028955144426697499</v>
       </c>
       <c r="I51" s="4">
-        <v>27.514356545131136</v>
+        <v>27.514270622311983</v>
       </c>
       <c r="J51" s="4">
-        <v>27.506337865557555</v>
+        <v>27.506328873617292</v>
       </c>
       <c r="K51" s="2">
-        <v>0.0080186795735812666</v>
+        <v>0.0079417486946908866</v>
       </c>
       <c r="L51" s="4">
-        <v>1.0032929426408363</v>
+        <v>1.0029933845610095</v>
       </c>
       <c r="M51" s="4">
-        <v>1.0534988359185682</v>
+        <v>1.0536175509104493</v>
       </c>
       <c r="N51" s="2">
-        <v>0.050205893277731839</v>
+        <v>0.050624166349439781</v>
       </c>
       <c r="O51" s="8" t="b">
         <v>1</v>
@@ -5822,31 +5822,31 @@
         <v>-0.055</v>
       </c>
       <c r="F52" s="3">
-        <v>0.14072337449813338</v>
+        <v>0.14072952593457547</v>
       </c>
       <c r="G52" s="3">
-        <v>0.14072357060710788</v>
+        <v>0.14072348602602494</v>
       </c>
       <c r="H52" s="2">
-        <v>1.9610897450395015e-07</v>
+        <v>6.0399085505258299e-06</v>
       </c>
       <c r="I52" s="4">
-        <v>27.51023660390706</v>
+        <v>27.511436328342768</v>
       </c>
       <c r="J52" s="4">
-        <v>27.512250820609552</v>
+        <v>27.510923105049585</v>
       </c>
       <c r="K52" s="2">
-        <v>0.002014216702491467</v>
+        <v>0.00051322329318281845</v>
       </c>
       <c r="L52" s="4">
-        <v>1.0265061292185576</v>
+        <v>1.02734133338427</v>
       </c>
       <c r="M52" s="4">
-        <v>1.0274737778843461</v>
+        <v>1.027212747435581</v>
       </c>
       <c r="N52" s="2">
-        <v>0.00096764866578857855</v>
+        <v>0.00012858594868903062</v>
       </c>
       <c r="O52" s="8" t="b">
         <v>1</v>
@@ -5900,31 +5900,31 @@
         <v>0.501</v>
       </c>
       <c r="F53" s="3">
-        <v>0.14074805235755902</v>
+        <v>0.1407481026123146</v>
       </c>
       <c r="G53" s="3">
-        <v>0.14067360980089982</v>
+        <v>0.14068271046139058</v>
       </c>
       <c r="H53" s="2">
-        <v>7.4442556659198855e-05</v>
+        <v>6.5392150924020731e-05</v>
       </c>
       <c r="I53" s="4">
-        <v>27.51174250657624</v>
+        <v>27.511003653796138</v>
       </c>
       <c r="J53" s="4">
-        <v>27.510364544448066</v>
+        <v>27.510122323365295</v>
       </c>
       <c r="K53" s="2">
-        <v>0.0013779621281742038</v>
+        <v>0.00088133043084326346</v>
       </c>
       <c r="L53" s="4">
-        <v>1.0341276114507523</v>
+        <v>1.0337630020818811</v>
       </c>
       <c r="M53" s="4">
-        <v>1.0192372713426265</v>
+        <v>1.0192863945159485</v>
       </c>
       <c r="N53" s="2">
-        <v>0.014890340108125732</v>
+        <v>0.014476607565932609</v>
       </c>
       <c r="O53" s="8" t="b">
         <v>1</v>
@@ -5978,31 +5978,31 @@
         <v>0.46999999999999997</v>
       </c>
       <c r="F54" s="3">
-        <v>0.13832626896618516</v>
+        <v>0.13831774353069556</v>
       </c>
       <c r="G54" s="3">
-        <v>0.1423221499322733</v>
+        <v>0.14229613271601546</v>
       </c>
       <c r="H54" s="2">
-        <v>0.0039958809660881334</v>
+        <v>0.0039783891853198972</v>
       </c>
       <c r="I54" s="4">
-        <v>27.506034937229856</v>
+        <v>27.506006700784781</v>
       </c>
       <c r="J54" s="4">
-        <v>27.516647597176757</v>
+        <v>27.516182898113243</v>
       </c>
       <c r="K54" s="2">
-        <v>0.010612659946900749</v>
+        <v>0.010176197328462422</v>
       </c>
       <c r="L54" s="4">
-        <v>1.003541142485155</v>
+        <v>1.0035179698443082</v>
       </c>
       <c r="M54" s="4">
-        <v>1.0551870005106128</v>
+        <v>1.0551884216580216</v>
       </c>
       <c r="N54" s="2">
-        <v>0.051645858025457736</v>
+        <v>0.051670451813713436</v>
       </c>
       <c r="O54" s="8" t="b">
         <v>1</v>
@@ -6056,31 +6056,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F55" s="3">
-        <v>0.14093755779056227</v>
+        <v>0.14094970074205518</v>
       </c>
       <c r="G55" s="3">
-        <v>0.14051402204672739</v>
+        <v>0.14051005951874693</v>
       </c>
       <c r="H55" s="2">
-        <v>0.00042353574383488524</v>
+        <v>0.00043964122330825139</v>
       </c>
       <c r="I55" s="4">
-        <v>27.511628369703885</v>
+        <v>27.511626173917762</v>
       </c>
       <c r="J55" s="4">
-        <v>27.510627316373302</v>
+        <v>27.511288799864928</v>
       </c>
       <c r="K55" s="2">
-        <v>0.0010010533305830904</v>
+        <v>0.00033737405283318367</v>
       </c>
       <c r="L55" s="4">
-        <v>1.0294577310239053</v>
+        <v>1.0292990033555918</v>
       </c>
       <c r="M55" s="4">
-        <v>1.0241620679263275</v>
+        <v>1.0242151381620319</v>
       </c>
       <c r="N55" s="2">
-        <v>0.0052956630975777852</v>
+        <v>0.0050838651935598556</v>
       </c>
       <c r="O55" s="8" t="b">
         <v>1</v>
@@ -6134,31 +6134,31 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="F56" s="3">
-        <v>0.14050645259969041</v>
+        <v>0.14050533607702942</v>
       </c>
       <c r="G56" s="3">
-        <v>0.14084241628413566</v>
+        <v>0.1408426237817548</v>
       </c>
       <c r="H56" s="2">
-        <v>0.00033596368444524516</v>
+        <v>0.00033728770472538083</v>
       </c>
       <c r="I56" s="4">
-        <v>27.510511441772564</v>
+        <v>27.510050452212681</v>
       </c>
       <c r="J56" s="4">
-        <v>27.511976696423289</v>
+        <v>27.511959902742717</v>
       </c>
       <c r="K56" s="2">
-        <v>0.0014652546507250008</v>
+        <v>0.0019094505300358833</v>
       </c>
       <c r="L56" s="4">
-        <v>1.0147673294560691</v>
+        <v>1.0148381919895371</v>
       </c>
       <c r="M56" s="4">
-        <v>1.0366557486035501</v>
+        <v>1.0362888065498088</v>
       </c>
       <c r="N56" s="2">
-        <v>0.021888419147481075</v>
+        <v>0.021450614560271752</v>
       </c>
       <c r="O56" s="8" t="b">
         <v>1</v>
@@ -6212,31 +6212,31 @@
         <v>0.5</v>
       </c>
       <c r="F57" s="3">
-        <v>0.14404068264672229</v>
+        <v>0.14401743215280033</v>
       </c>
       <c r="G57" s="3">
-        <v>0.13811297849812582</v>
+        <v>0.13809870236411298</v>
       </c>
       <c r="H57" s="2">
-        <v>0.0059277041485964743</v>
+        <v>0.0059187297886873491</v>
       </c>
       <c r="I57" s="4">
-        <v>27.51180623091102</v>
+        <v>27.511809385493791</v>
       </c>
       <c r="J57" s="4">
-        <v>27.51093702459616</v>
+        <v>27.509726406681068</v>
       </c>
       <c r="K57" s="2">
-        <v>0.0008692063148600937</v>
+        <v>0.0020829788127230131</v>
       </c>
       <c r="L57" s="4">
-        <v>1.0814867363087808</v>
+        <v>1.0815380572803306</v>
       </c>
       <c r="M57" s="4">
-        <v>0.99187051204553289</v>
+        <v>0.99164031787614226</v>
       </c>
       <c r="N57" s="2">
-        <v>0.08961622426324789</v>
+        <v>0.089897739404188326</v>
       </c>
       <c r="O57" s="8" t="b">
         <v>1</v>
@@ -6290,31 +6290,31 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="F58" s="3">
-        <v>0.14107081521601925</v>
+        <v>0.14108397022570143</v>
       </c>
       <c r="G58" s="3">
-        <v>0.1404865747502729</v>
+        <v>0.14047293140606695</v>
       </c>
       <c r="H58" s="2">
-        <v>0.00058424046574634403</v>
+        <v>0.00061103881963447959</v>
       </c>
       <c r="I58" s="4">
-        <v>27.512457301944551</v>
+        <v>27.512317350632998</v>
       </c>
       <c r="J58" s="4">
-        <v>27.510921071210362</v>
+        <v>27.51028703541823</v>
       </c>
       <c r="K58" s="2">
-        <v>0.0015362307341888481</v>
+        <v>0.0020303152147675974</v>
       </c>
       <c r="L58" s="4">
-        <v>1.0271471821023077</v>
+        <v>1.0274507571549829</v>
       </c>
       <c r="M58" s="4">
-        <v>1.0275132088856915</v>
+        <v>1.0275895140347362</v>
       </c>
       <c r="N58" s="2">
-        <v>0.00036602678338382155</v>
+        <v>0.00013875687975328788</v>
       </c>
       <c r="O58" s="8" t="b">
         <v>1</v>
@@ -6368,31 +6368,31 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F59" s="3">
-        <v>0.13864672713693132</v>
+        <v>0.13862132919138884</v>
       </c>
       <c r="G59" s="3">
-        <v>0.14266061231022711</v>
+        <v>0.14268014457133579</v>
       </c>
       <c r="H59" s="2">
-        <v>0.0040138851732957892</v>
+        <v>0.0040588153799469562</v>
       </c>
       <c r="I59" s="4">
-        <v>27.510770566013548</v>
+        <v>27.510291195889295</v>
       </c>
       <c r="J59" s="4">
-        <v>27.512697732643517</v>
+        <v>27.512126988651858</v>
       </c>
       <c r="K59" s="2">
-        <v>0.001927166629968724</v>
+        <v>0.00183579276256296</v>
       </c>
       <c r="L59" s="4">
-        <v>1.0311335525863601</v>
+        <v>1.0312806874242402</v>
       </c>
       <c r="M59" s="4">
-        <v>1.0246456233168952</v>
+        <v>1.0243511033014749</v>
       </c>
       <c r="N59" s="2">
-        <v>0.0064879292694648427</v>
+        <v>0.0069295841227652311</v>
       </c>
       <c r="O59" s="8" t="b">
         <v>1</v>
@@ -6446,31 +6446,31 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="F60" s="3">
-        <v>0.13824090625453747</v>
+        <v>0.13819770701936335</v>
       </c>
       <c r="G60" s="3">
-        <v>0.14389363369719624</v>
+        <v>0.14387749395397831</v>
       </c>
       <c r="H60" s="2">
-        <v>0.005652727442658767</v>
+        <v>0.005679786934614961</v>
       </c>
       <c r="I60" s="4">
-        <v>27.507282233892852</v>
+        <v>27.507879234711424</v>
       </c>
       <c r="J60" s="4">
-        <v>27.506392903366248</v>
+        <v>27.506371660305206</v>
       </c>
       <c r="K60" s="2">
-        <v>0.00088933052660422618</v>
+        <v>0.0015075744062187368</v>
       </c>
       <c r="L60" s="4">
-        <v>1.0258195581676666</v>
+        <v>1.0256347477719368</v>
       </c>
       <c r="M60" s="4">
-        <v>1.0292242194204941</v>
+        <v>1.0293352516604937</v>
       </c>
       <c r="N60" s="2">
-        <v>0.0034046612528275677</v>
+        <v>0.0037005038885569164</v>
       </c>
       <c r="O60" s="8" t="b">
         <v>1</v>
@@ -6524,31 +6524,31 @@
         <v>-0.074999999999999997</v>
       </c>
       <c r="F61" s="3">
-        <v>0.13968362163320772</v>
+        <v>0.13966993256970495</v>
       </c>
       <c r="G61" s="3">
-        <v>0.14208917248664962</v>
+        <v>0.14211037404304155</v>
       </c>
       <c r="H61" s="2">
-        <v>0.0024055508534419068</v>
+        <v>0.0024404414733366076</v>
       </c>
       <c r="I61" s="4">
-        <v>27.510840460891529</v>
+        <v>27.510844255991174</v>
       </c>
       <c r="J61" s="4">
-        <v>27.512027050752408</v>
+        <v>27.512265459883679</v>
       </c>
       <c r="K61" s="2">
-        <v>0.0011865898608789394</v>
+        <v>0.0014212038925052184</v>
       </c>
       <c r="L61" s="4">
-        <v>1.0201686541075439</v>
+        <v>1.0205459099208085</v>
       </c>
       <c r="M61" s="4">
-        <v>1.036730818188653</v>
+        <v>1.0373502102975718</v>
       </c>
       <c r="N61" s="2">
-        <v>0.01656216408110911</v>
+        <v>0.016804300376763281</v>
       </c>
       <c r="O61" s="8" t="b">
         <v>1</v>
@@ -6602,31 +6602,31 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F62" s="3">
-        <v>0.14033001958636282</v>
+        <v>0.14031695957682539</v>
       </c>
       <c r="G62" s="3">
-        <v>0.14114645440695303</v>
+        <v>0.14115846369812707</v>
       </c>
       <c r="H62" s="2">
-        <v>0.00081643482059021166</v>
+        <v>0.00084150412130168384</v>
       </c>
       <c r="I62" s="4">
-        <v>27.511357436121102</v>
+        <v>27.511959969106215</v>
       </c>
       <c r="J62" s="4">
-        <v>27.510130062366954</v>
+        <v>27.50998005820486</v>
       </c>
       <c r="K62" s="2">
-        <v>0.0012273737541477203</v>
+        <v>0.0019799109013547422</v>
       </c>
       <c r="L62" s="4">
-        <v>1.0269082027607774</v>
+        <v>1.0268935054516402</v>
       </c>
       <c r="M62" s="4">
-        <v>1.030218585424677</v>
+        <v>1.0303829393450623</v>
       </c>
       <c r="N62" s="2">
-        <v>0.0033103826638996026</v>
+        <v>0.0034894338934221558</v>
       </c>
       <c r="O62" s="8" t="b">
         <v>1</v>
@@ -6680,31 +6680,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F63" s="3">
-        <v>0.15122361896861941</v>
+        <v>0.15124652186728374</v>
       </c>
       <c r="G63" s="3">
-        <v>0.12992057547888436</v>
+        <v>0.12992018461351812</v>
       </c>
       <c r="H63" s="2">
-        <v>0.021303043489735052</v>
+        <v>0.02132633725376562</v>
       </c>
       <c r="I63" s="4">
-        <v>27.519166816031657</v>
+        <v>27.518496287829692</v>
       </c>
       <c r="J63" s="4">
-        <v>27.505947753399425</v>
+        <v>27.506800078323238</v>
       </c>
       <c r="K63" s="2">
-        <v>0.013219062632231271</v>
+        <v>0.01169620950645367</v>
       </c>
       <c r="L63" s="4">
-        <v>1.1069816825409917</v>
+        <v>1.1067271100321709</v>
       </c>
       <c r="M63" s="4">
-        <v>0.96021043090899816</v>
+        <v>0.96007517627794925</v>
       </c>
       <c r="N63" s="2">
-        <v>0.14677125163199356</v>
+        <v>0.1466519337542217</v>
       </c>
       <c r="O63" s="8" t="b">
         <v>1</v>
@@ -6758,31 +6758,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F64" s="3">
-        <v>0.13881521866612304</v>
+        <v>0.13883036455286732</v>
       </c>
       <c r="G64" s="3">
-        <v>0.14259780304668462</v>
+        <v>0.1425896382049934</v>
       </c>
       <c r="H64" s="2">
-        <v>0.0037825843805615877</v>
+        <v>0.0037592736521260828</v>
       </c>
       <c r="I64" s="4">
-        <v>27.510875231229932</v>
+        <v>27.510933092522464</v>
       </c>
       <c r="J64" s="4">
-        <v>27.511228327205572</v>
+        <v>27.51068792770775</v>
       </c>
       <c r="K64" s="2">
-        <v>0.00035309597564037176</v>
+        <v>0.00024516481471437146</v>
       </c>
       <c r="L64" s="4">
-        <v>1.0413026833505716</v>
+        <v>1.0411811916013216</v>
       </c>
       <c r="M64" s="4">
-        <v>1.0141393359621318</v>
+        <v>1.0142561081074659</v>
       </c>
       <c r="N64" s="2">
-        <v>0.02716334738843984</v>
+        <v>0.026925083493855695</v>
       </c>
       <c r="O64" s="8" t="b">
         <v>1</v>
@@ -6836,31 +6836,31 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="F65" s="3">
-        <v>0.13083247252071112</v>
+        <v>0.13081141389078113</v>
       </c>
       <c r="G65" s="3">
-        <v>0.14839045158579492</v>
+        <v>0.14838458249548564</v>
       </c>
       <c r="H65" s="2">
-        <v>0.017557979065083801</v>
+        <v>0.017573168604704509</v>
       </c>
       <c r="I65" s="4">
-        <v>27.51197502438589</v>
+        <v>27.511975879338422</v>
       </c>
       <c r="J65" s="4">
-        <v>27.510141523040716</v>
+        <v>27.510505577784841</v>
       </c>
       <c r="K65" s="2">
-        <v>0.0018335013451746818</v>
+        <v>0.0014703015535815211</v>
       </c>
       <c r="L65" s="4">
-        <v>1.1024315207722608</v>
+        <v>1.1020979612910658</v>
       </c>
       <c r="M65" s="4">
-        <v>0.97280796586122598</v>
+        <v>0.97279919995684938</v>
       </c>
       <c r="N65" s="2">
-        <v>0.12962355491103483</v>
+        <v>0.12929876133421636</v>
       </c>
       <c r="O65" s="8" t="b">
         <v>1</v>
@@ -6914,31 +6914,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F66" s="3">
-        <v>0.13343135388216812</v>
+        <v>0.13343462123112424</v>
       </c>
       <c r="G66" s="3">
-        <v>0.15132343288475378</v>
+        <v>0.15133231540071998</v>
       </c>
       <c r="H66" s="2">
-        <v>0.017892079002585659</v>
+        <v>0.017897694169595746</v>
       </c>
       <c r="I66" s="4">
-        <v>27.509851013596972</v>
+        <v>27.509099878884001</v>
       </c>
       <c r="J66" s="4">
-        <v>27.513291318619963</v>
+        <v>27.512868013922116</v>
       </c>
       <c r="K66" s="2">
-        <v>0.0034403050229911969</v>
+        <v>0.0037681350381149059</v>
       </c>
       <c r="L66" s="4">
-        <v>0.99963446634365205</v>
+        <v>0.99891071658624142</v>
       </c>
       <c r="M66" s="4">
-        <v>1.0712583435347907</v>
+        <v>1.0715236363325973</v>
       </c>
       <c r="N66" s="2">
-        <v>0.071623877191138607</v>
+        <v>0.072612919746355864</v>
       </c>
       <c r="O66" s="8" t="b">
         <v>1</v>
@@ -6992,31 +6992,31 @@
         <v>-0.080000000000000002</v>
       </c>
       <c r="F67" s="3">
-        <v>0.14073672830247197</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="G67" s="3">
-        <v>0.14073893612287819</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="H67" s="2">
-        <v>2.2078204062192519e-06</v>
+        <v>1.0534981475823768e-05</v>
       </c>
       <c r="I67" s="4">
-        <v>27.511393660029</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="J67" s="4">
-        <v>27.511392338070664</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="K67" s="2">
-        <v>1.3219583365753351e-06</v>
+        <v>4.4603661422115693e-06</v>
       </c>
       <c r="L67" s="4">
-        <v>1.0272332274968039</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="M67" s="4">
-        <v>1.0271357895497772</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="N67" s="2">
-        <v>9.7437947026657312e-05</v>
+        <v>0.0001649829569911887</v>
       </c>
       <c r="O67" s="8" t="b">
         <v>1</v>
@@ -7070,31 +7070,31 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="F68" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="G68" s="3">
-        <v>0.14073893612287819</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="H68" s="2">
-        <v>4.6036639887309105e-05</v>
+        <v>0</v>
       </c>
       <c r="I68" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="J68" s="4">
-        <v>27.511392338070664</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="K68" s="2">
-        <v>0.0006710020442142195</v>
+        <v>0</v>
       </c>
       <c r="L68" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="M68" s="4">
-        <v>1.0271357895497772</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="N68" s="2">
-        <v>0.00033854675874822604</v>
+        <v>0</v>
       </c>
       <c r="O68" s="8" t="b">
         <v>1</v>
@@ -7148,31 +7148,31 @@
         <v>0.215</v>
       </c>
       <c r="F69" s="3">
-        <v>0.14073672830247197</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="G69" s="3">
-        <v>0.14073893612287819</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="H69" s="2">
-        <v>2.2078204062192519e-06</v>
+        <v>1.0534981475823768e-05</v>
       </c>
       <c r="I69" s="4">
-        <v>27.511393660029</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="J69" s="4">
-        <v>27.511392338070664</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="K69" s="2">
-        <v>1.3219583365753351e-06</v>
+        <v>4.4603661422115693e-06</v>
       </c>
       <c r="L69" s="4">
-        <v>1.0272332274968039</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="M69" s="4">
-        <v>1.0271357895497772</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="N69" s="2">
-        <v>9.7437947026657312e-05</v>
+        <v>0.0001649829569911887</v>
       </c>
       <c r="O69" s="8" t="b">
         <v>1</v>
@@ -7220,37 +7220,37 @@
         <v>1</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.14999999999999999</v>
+        <v>-0.15</v>
       </c>
       <c r="E70" s="0">
         <v>-0.11</v>
       </c>
       <c r="F70" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="G70" s="3">
-        <v>0.14073893612287819</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="H70" s="2">
-        <v>4.6036639887309105e-05</v>
+        <v>0</v>
       </c>
       <c r="I70" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="J70" s="4">
-        <v>27.511392338070664</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="K70" s="2">
-        <v>0.0006710020442142195</v>
+        <v>0</v>
       </c>
       <c r="L70" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="M70" s="4">
-        <v>1.0271357895497772</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="N70" s="2">
-        <v>0.00033854675874822604</v>
+        <v>0</v>
       </c>
       <c r="O70" s="8" t="b">
         <v>1</v>
@@ -7304,31 +7304,31 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="F71" s="3">
-        <v>0.14073672830247197</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="G71" s="3">
-        <v>0.14073893612287819</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="H71" s="2">
-        <v>2.2078204062192519e-06</v>
+        <v>1.0534981475823768e-05</v>
       </c>
       <c r="I71" s="4">
-        <v>27.511393660029</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="J71" s="4">
-        <v>27.511392338070664</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="K71" s="2">
-        <v>1.3219583365753351e-06</v>
+        <v>4.4603661422115693e-06</v>
       </c>
       <c r="L71" s="4">
-        <v>1.0272332274968039</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="M71" s="4">
-        <v>1.0271357895497772</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="N71" s="2">
-        <v>9.7437947026657312e-05</v>
+        <v>0.0001649829569911887</v>
       </c>
       <c r="O71" s="8" t="b">
         <v>1</v>
@@ -7382,31 +7382,31 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="F72" s="3">
-        <v>0.14073893612287819</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="G72" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="H72" s="2">
-        <v>4.6036639887309105e-05</v>
+        <v>0</v>
       </c>
       <c r="I72" s="4">
-        <v>27.511392338070664</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="J72" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="K72" s="2">
-        <v>0.0006710020442142195</v>
+        <v>0</v>
       </c>
       <c r="L72" s="4">
-        <v>1.0271357895497772</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="M72" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="N72" s="2">
-        <v>0.00033854675874822604</v>
+        <v>0</v>
       </c>
       <c r="O72" s="8" t="b">
         <v>1</v>
@@ -7460,31 +7460,31 @@
         <v>-0.0038700000000000002</v>
       </c>
       <c r="F73" s="3">
-        <v>0.14038617534377579</v>
+        <v>0.14038652142691993</v>
       </c>
       <c r="G73" s="3">
-        <v>0.14173047394780877</v>
+        <v>0.14174180377019235</v>
       </c>
       <c r="H73" s="2">
-        <v>0.0013442986040329841</v>
+        <v>0.0013552823432724237</v>
       </c>
       <c r="I73" s="4">
-        <v>27.511741310621233</v>
+        <v>27.510747820037068</v>
       </c>
       <c r="J73" s="4">
-        <v>27.510393238273082</v>
+        <v>27.510421893656599</v>
       </c>
       <c r="K73" s="2">
-        <v>0.0013480723481507084</v>
+        <v>0.00032592638046935463</v>
       </c>
       <c r="L73" s="4">
-        <v>1.0303839916449193</v>
+        <v>1.0306916743490413</v>
       </c>
       <c r="M73" s="4">
-        <v>1.017150585777334</v>
+        <v>1.0171536285781329</v>
       </c>
       <c r="N73" s="2">
-        <v>0.013233405867585368</v>
+        <v>0.013538045770908447</v>
       </c>
       <c r="O73" s="8" t="b">
         <v>1</v>
@@ -7538,31 +7538,31 @@
         <v>0.54195000000000004</v>
       </c>
       <c r="F74" s="3">
-        <v>0.14247055929480967</v>
+        <v>0.14245493226669509</v>
       </c>
       <c r="G74" s="3">
-        <v>0.13880176291461122</v>
+        <v>0.13877630861220516</v>
       </c>
       <c r="H74" s="2">
-        <v>0.003668796380198458</v>
+        <v>0.0036786236544899265</v>
       </c>
       <c r="I74" s="4">
-        <v>27.510369128791638</v>
+        <v>27.510988292590412</v>
       </c>
       <c r="J74" s="4">
-        <v>27.512433682761866</v>
+        <v>27.512438050668948</v>
       </c>
       <c r="K74" s="2">
-        <v>0.0020645539702286442</v>
+        <v>0.0014497580785359787</v>
       </c>
       <c r="L74" s="4">
-        <v>1.0070791263152701</v>
+        <v>1.0073050999227979</v>
       </c>
       <c r="M74" s="4">
-        <v>1.0500844699144434</v>
+        <v>1.0489110884453319</v>
       </c>
       <c r="N74" s="2">
-        <v>0.043005343599173296</v>
+        <v>0.041605988522533943</v>
       </c>
       <c r="O74" s="8" t="b">
         <v>1</v>
@@ -7616,31 +7616,31 @@
         <v>0.57286000000000004</v>
       </c>
       <c r="F75" s="3">
-        <v>0.1423722388796973</v>
+        <v>0.14235474693603606</v>
       </c>
       <c r="G75" s="3">
-        <v>0.13958540843158748</v>
+        <v>0.13958562211606715</v>
       </c>
       <c r="H75" s="2">
-        <v>0.0027868304481098172</v>
+        <v>0.00276912481996891</v>
       </c>
       <c r="I75" s="4">
-        <v>27.510029784153346</v>
+        <v>27.510686129550322</v>
       </c>
       <c r="J75" s="4">
-        <v>27.511584756481398</v>
+        <v>27.511583912294043</v>
       </c>
       <c r="K75" s="2">
-        <v>0.0015549723280514627</v>
+        <v>0.00089778274372065425</v>
       </c>
       <c r="L75" s="4">
-        <v>1.0087068435299902</v>
+        <v>1.0087408435450354</v>
       </c>
       <c r="M75" s="4">
-        <v>1.0405746675289793</v>
+        <v>1.0405810818441068</v>
       </c>
       <c r="N75" s="2">
-        <v>0.031867823998989131</v>
+        <v>0.031840238299071455</v>
       </c>
       <c r="O75" s="8" t="b">
         <v>1</v>
@@ -7694,31 +7694,31 @@
         <v>-0.023587</v>
       </c>
       <c r="F76" s="3">
-        <v>0.14105762096988197</v>
+        <v>0.14108090357411834</v>
       </c>
       <c r="G76" s="3">
-        <v>0.14060266622677731</v>
+        <v>0.14060307889289858</v>
       </c>
       <c r="H76" s="2">
-        <v>0.00045495474310466855</v>
+        <v>0.00047782468121976285</v>
       </c>
       <c r="I76" s="4">
-        <v>27.510870176525827</v>
+        <v>27.512259768724391</v>
       </c>
       <c r="J76" s="4">
-        <v>27.511525598384026</v>
+        <v>27.511499519639756</v>
       </c>
       <c r="K76" s="2">
-        <v>0.00065542185819822407</v>
+        <v>0.00076024908463523389</v>
       </c>
       <c r="L76" s="4">
-        <v>1.0238311896424825</v>
+        <v>1.0238331519427406</v>
       </c>
       <c r="M76" s="4">
-        <v>1.027973755726276</v>
+        <v>1.0284841665616278</v>
       </c>
       <c r="N76" s="2">
-        <v>0.0041425660837934863</v>
+        <v>0.0046510146188871726</v>
       </c>
       <c r="O76" s="8" t="b">
         <v>1</v>
@@ -7772,31 +7772,31 @@
         <v>0.746</v>
       </c>
       <c r="F77" s="3">
-        <v>0.14214689938780881</v>
+        <v>0.14214903690284009</v>
       </c>
       <c r="G77" s="3">
-        <v>0.13948300721043744</v>
+        <v>0.13950811377398475</v>
       </c>
       <c r="H77" s="2">
-        <v>0.0026638921773713686</v>
+        <v>0.0026409231288553325</v>
       </c>
       <c r="I77" s="4">
-        <v>27.510664667063452</v>
+        <v>27.510671472529168</v>
       </c>
       <c r="J77" s="4">
-        <v>27.511569853537651</v>
+        <v>27.511725944248951</v>
       </c>
       <c r="K77" s="2">
-        <v>0.00090518647419912668</v>
+        <v>0.0010544717197831233</v>
       </c>
       <c r="L77" s="4">
-        <v>1.0121762869233546</v>
+        <v>1.0114219589436722</v>
       </c>
       <c r="M77" s="4">
-        <v>1.0404914140000094</v>
+        <v>1.040445291439837</v>
       </c>
       <c r="N77" s="2">
-        <v>0.028315127076654845</v>
+        <v>0.029023332496164844</v>
       </c>
       <c r="O77" s="8" t="b">
         <v>1</v>
@@ -7850,31 +7850,31 @@
         <v>0.17999999999999999</v>
       </c>
       <c r="F78" s="3">
-        <v>0.14131313387800654</v>
+        <v>0.14129779291630484</v>
       </c>
       <c r="G78" s="3">
-        <v>0.14005895600472912</v>
+        <v>0.14005368050573549</v>
       </c>
       <c r="H78" s="2">
-        <v>0.0012541778732774178</v>
+        <v>0.001244112410569348</v>
       </c>
       <c r="I78" s="4">
-        <v>27.510708227123246</v>
+        <v>27.510673033880721</v>
       </c>
       <c r="J78" s="4">
-        <v>27.51151884812316</v>
+        <v>27.5110307102305</v>
       </c>
       <c r="K78" s="2">
-        <v>0.00081062099991413561</v>
+        <v>0.00035767634977901253</v>
       </c>
       <c r="L78" s="4">
-        <v>1.0207999184811196</v>
+        <v>1.0203707696437345</v>
       </c>
       <c r="M78" s="4">
-        <v>1.0353530017659418</v>
+        <v>1.034651422656717</v>
       </c>
       <c r="N78" s="2">
-        <v>0.014553083284822188</v>
+        <v>0.014280653012982425</v>
       </c>
       <c r="O78" s="8" t="b">
         <v>1</v>
@@ -7928,31 +7928,31 @@
         <v>0.02</v>
       </c>
       <c r="F79" s="3">
-        <v>0.14071667421853404</v>
+        <v>0.14072115912881214</v>
       </c>
       <c r="G79" s="3">
-        <v>0.1407259953154098</v>
+        <v>0.14072690518552586</v>
       </c>
       <c r="H79" s="2">
-        <v>9.32109687576399e-06</v>
+        <v>5.746056713717973e-06</v>
       </c>
       <c r="I79" s="4">
-        <v>27.510280455208147</v>
+        <v>27.511478366558833</v>
       </c>
       <c r="J79" s="4">
-        <v>27.511315160265781</v>
+        <v>27.511319504369567</v>
       </c>
       <c r="K79" s="2">
-        <v>0.0010347050576342554</v>
+        <v>0.00015886218926652873</v>
       </c>
       <c r="L79" s="4">
-        <v>1.0278708816234736</v>
+        <v>1.0275458710196539</v>
       </c>
       <c r="M79" s="4">
-        <v>1.0273383361459398</v>
+        <v>1.0275136392284456</v>
       </c>
       <c r="N79" s="2">
-        <v>0.00053254547753378567</v>
+        <v>3.2231791208259253e-05</v>
       </c>
       <c r="O79" s="8" t="b">
         <v>1</v>
@@ -8006,31 +8006,31 @@
         <v>0.76000000000000001</v>
       </c>
       <c r="F80" s="3">
-        <v>0.14071312928050628</v>
+        <v>0.14072493115134913</v>
       </c>
       <c r="G80" s="3">
-        <v>0.14072741726268817</v>
+        <v>0.14073348410850908</v>
       </c>
       <c r="H80" s="2">
-        <v>1.4287982181893089e-05</v>
+        <v>8.5529571599574084e-06</v>
       </c>
       <c r="I80" s="4">
-        <v>27.511391445516836</v>
+        <v>27.511402412528185</v>
       </c>
       <c r="J80" s="4">
-        <v>27.511386599919945</v>
+        <v>27.511371412318056</v>
       </c>
       <c r="K80" s="2">
-        <v>4.8455968908456271e-06</v>
+        <v>3.1000210128695471e-05</v>
       </c>
       <c r="L80" s="4">
-        <v>1.026129922706865</v>
+        <v>1.0263833552649269</v>
       </c>
       <c r="M80" s="4">
-        <v>1.0277249697195452</v>
+        <v>1.0273933385240866</v>
       </c>
       <c r="N80" s="2">
-        <v>0.0015950470126802063</v>
+        <v>0.0010099832591596858</v>
       </c>
       <c r="O80" s="8" t="b">
         <v>1</v>
@@ -8084,31 +8084,31 @@
         <v>0.34999999999999998</v>
       </c>
       <c r="F81" s="3">
-        <v>0.14070180826096679</v>
+        <v>0.140694176180515</v>
       </c>
       <c r="G81" s="3">
-        <v>0.1407580552706976</v>
+        <v>0.14075404809781861</v>
       </c>
       <c r="H81" s="2">
-        <v>5.6247009730808761e-05</v>
+        <v>5.9871917303611077e-05</v>
       </c>
       <c r="I81" s="4">
-        <v>27.511450177718586</v>
+        <v>27.510264461842212</v>
       </c>
       <c r="J81" s="4">
-        <v>27.511618297396126</v>
+        <v>27.511655055561562</v>
       </c>
       <c r="K81" s="2">
-        <v>0.00016811967753938006</v>
+        <v>0.0013905937193499085</v>
       </c>
       <c r="L81" s="4">
-        <v>1.0274831327721206</v>
+        <v>1.0271312870449063</v>
       </c>
       <c r="M81" s="4">
-        <v>1.0272026343031591</v>
+        <v>1.0272483923011233</v>
       </c>
       <c r="N81" s="2">
-        <v>0.00028049846896149866</v>
+        <v>0.0001171052562169983</v>
       </c>
       <c r="O81" s="8" t="b">
         <v>1</v>
@@ -8162,31 +8162,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F82" s="3">
-        <v>0.1425669030339011</v>
+        <v>0.14258185279278496</v>
       </c>
       <c r="G82" s="3">
-        <v>0.13888409034350802</v>
+        <v>0.13886283276341999</v>
       </c>
       <c r="H82" s="2">
-        <v>0.0036828126903930836</v>
+        <v>0.0037190200293649722</v>
       </c>
       <c r="I82" s="4">
-        <v>27.502798570794937</v>
+        <v>27.502417847472486</v>
       </c>
       <c r="J82" s="4">
-        <v>27.519265695115791</v>
+        <v>27.519438059654647</v>
       </c>
       <c r="K82" s="2">
-        <v>0.016467124320854509</v>
+        <v>0.017020212182160321</v>
       </c>
       <c r="L82" s="4">
-        <v>1.0310603239312126</v>
+        <v>1.0312092996059996</v>
       </c>
       <c r="M82" s="4">
-        <v>1.0225605071649189</v>
+        <v>1.0224649453142305</v>
       </c>
       <c r="N82" s="2">
-        <v>0.0084998167662937441</v>
+        <v>0.0087443542917691186</v>
       </c>
       <c r="O82" s="8" t="b">
         <v>1</v>
@@ -8240,31 +8240,31 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="F83" s="3">
-        <v>0.14816946046412804</v>
+        <v>0.14818490815196916</v>
       </c>
       <c r="G83" s="3">
-        <v>0.13414172238994007</v>
+        <v>0.13416074779839651</v>
       </c>
       <c r="H83" s="2">
-        <v>0.014027738074187973</v>
+        <v>0.014024160353572651</v>
       </c>
       <c r="I83" s="4">
-        <v>27.511563498047281</v>
+        <v>27.510550979712491</v>
       </c>
       <c r="J83" s="4">
-        <v>27.510681802521617</v>
+        <v>27.511232100599102</v>
       </c>
       <c r="K83" s="2">
-        <v>0.00088169552566341736</v>
+        <v>0.00068112088661109738</v>
       </c>
       <c r="L83" s="4">
-        <v>1.0204559627748087</v>
+        <v>1.0204801763052076</v>
       </c>
       <c r="M83" s="4">
-        <v>1.033031285086293</v>
+        <v>1.0331539723831298</v>
       </c>
       <c r="N83" s="2">
-        <v>0.012575322311484394</v>
+        <v>0.012673796077922184</v>
       </c>
       <c r="O83" s="8" t="b">
         <v>1</v>
@@ -8318,31 +8318,31 @@
         <v>0.38</v>
       </c>
       <c r="F84" s="3">
-        <v>0.14545485078271253</v>
+        <v>0.14545445358911058</v>
       </c>
       <c r="G84" s="3">
-        <v>0.13610766819324094</v>
+        <v>0.13611690028373916</v>
       </c>
       <c r="H84" s="2">
-        <v>0.0093471825894715921</v>
+        <v>0.009337553305371421</v>
       </c>
       <c r="I84" s="4">
-        <v>27.514665971564227</v>
+        <v>27.514665993858102</v>
       </c>
       <c r="J84" s="4">
-        <v>27.521415838978896</v>
+        <v>27.521402732450838</v>
       </c>
       <c r="K84" s="2">
-        <v>0.0067498674146690973</v>
+        <v>0.0067367385927354917</v>
       </c>
       <c r="L84" s="4">
-        <v>1.0157638201668659</v>
+        <v>1.0157639091493498</v>
       </c>
       <c r="M84" s="4">
-        <v>1.0374420203648034</v>
+        <v>1.037995257540274</v>
       </c>
       <c r="N84" s="2">
-        <v>0.021678200197937425</v>
+        <v>0.022231348390924222</v>
       </c>
       <c r="O84" s="8" t="b">
         <v>1</v>
@@ -8396,31 +8396,31 @@
         <v>0.34999999999999998</v>
       </c>
       <c r="F85" s="3">
-        <v>0.12554039113252791</v>
+        <v>0.12552986946696648</v>
       </c>
       <c r="G85" s="3">
-        <v>0.15188873201162356</v>
+        <v>0.15187483410319041</v>
       </c>
       <c r="H85" s="2">
-        <v>0.026348340879095655</v>
+        <v>0.026344964636223933</v>
       </c>
       <c r="I85" s="4">
-        <v>27.510691409107835</v>
+        <v>27.511458320862403</v>
       </c>
       <c r="J85" s="4">
-        <v>27.511434629915811</v>
+        <v>27.510604394039035</v>
       </c>
       <c r="K85" s="2">
-        <v>0.00074322080797628587</v>
+        <v>0.00085392682336760117</v>
       </c>
       <c r="L85" s="4">
-        <v>1.1034800154768767</v>
+        <v>1.1034811330801617</v>
       </c>
       <c r="M85" s="4">
-        <v>0.98381597118511488</v>
+        <v>0.98258869101576674</v>
       </c>
       <c r="N85" s="2">
-        <v>0.11966404429176181</v>
+        <v>0.12089244206439498</v>
       </c>
       <c r="O85" s="8" t="b">
         <v>1</v>
@@ -8474,31 +8474,31 @@
         <v>0.63</v>
       </c>
       <c r="F86" s="3">
-        <v>0.1407256155819121</v>
+        <v>0.14072635172112147</v>
       </c>
       <c r="G86" s="3">
-        <v>0.14071578440413551</v>
+        <v>0.14071422807311085</v>
       </c>
       <c r="H86" s="2">
-        <v>9.8311777765869302e-06</v>
+        <v>1.2123648010620158e-05</v>
       </c>
       <c r="I86" s="4">
-        <v>27.510989541644619</v>
+        <v>27.511402804254829</v>
       </c>
       <c r="J86" s="4">
-        <v>27.511397473537215</v>
+        <v>27.510806116311301</v>
       </c>
       <c r="K86" s="2">
-        <v>0.00040793189259602514</v>
+        <v>0.00059668794352774057</v>
       </c>
       <c r="L86" s="4">
-        <v>1.0274678249793496</v>
+        <v>1.0274745772036982</v>
       </c>
       <c r="M86" s="4">
-        <v>1.0271352432817245</v>
+        <v>1.0276130596207806</v>
       </c>
       <c r="N86" s="2">
-        <v>0.00033258169762517831</v>
+        <v>0.000138482417082475</v>
       </c>
       <c r="O86" s="8" t="b">
         <v>1</v>
@@ -8552,31 +8552,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F87" s="3">
-        <v>0.14004222595544941</v>
+        <v>0.14003197448002866</v>
       </c>
       <c r="G87" s="3">
-        <v>0.14139557166889125</v>
+        <v>0.14139079768816568</v>
       </c>
       <c r="H87" s="2">
-        <v>0.0013533457134418392</v>
+        <v>0.0013588232081370166</v>
       </c>
       <c r="I87" s="4">
-        <v>27.510673249053809</v>
+        <v>27.511562292141093</v>
       </c>
       <c r="J87" s="4">
-        <v>27.511383473876265</v>
+        <v>27.511451564091374</v>
       </c>
       <c r="K87" s="2">
-        <v>0.00071022482245552965</v>
+        <v>0.00011072804971945516</v>
       </c>
       <c r="L87" s="4">
-        <v>1.0303841000510063</v>
+        <v>1.0306733560279502</v>
       </c>
       <c r="M87" s="4">
-        <v>1.02454535070414</v>
+        <v>1.0246184679003862</v>
       </c>
       <c r="N87" s="2">
-        <v>0.0058387493468663454</v>
+        <v>0.0060548881275639399</v>
       </c>
       <c r="O87" s="8" t="b">
         <v>1</v>
@@ -8630,31 +8630,31 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="F88" s="3">
-        <v>0.15183916296546371</v>
+        <v>0.15184453731484693</v>
       </c>
       <c r="G88" s="3">
-        <v>0.12560423154077374</v>
+        <v>0.12559216721718552</v>
       </c>
       <c r="H88" s="2">
-        <v>0.026234931424689967</v>
+        <v>0.026252370097661404</v>
       </c>
       <c r="I88" s="4">
-        <v>27.510672938759342</v>
+        <v>27.511363333926966</v>
       </c>
       <c r="J88" s="4">
-        <v>27.511478133064088</v>
+        <v>27.510433922562868</v>
       </c>
       <c r="K88" s="2">
-        <v>0.00080519430474623732</v>
+        <v>0.00092941136409763203</v>
       </c>
       <c r="L88" s="4">
-        <v>0.98354482176941582</v>
+        <v>0.98391730717034476</v>
       </c>
       <c r="M88" s="4">
-        <v>1.1033699612160639</v>
+        <v>1.1035102483261234</v>
       </c>
       <c r="N88" s="2">
-        <v>0.11982513944664808</v>
+        <v>0.11959294115577868</v>
       </c>
       <c r="O88" s="8" t="b">
         <v>1</v>
@@ -8702,37 +8702,37 @@
         <v>2</v>
       </c>
       <c r="D89" s="0">
-        <v>0.55000000000000004</v>
+        <v>0.55000000000000005</v>
       </c>
       <c r="E89" s="0">
         <v>0.65000000000000002</v>
       </c>
       <c r="F89" s="3">
-        <v>0.1517771904284598</v>
+        <v>0.15180809032341613</v>
       </c>
       <c r="G89" s="3">
-        <v>0.13055210535792466</v>
+        <v>0.13055212962945525</v>
       </c>
       <c r="H89" s="2">
-        <v>0.021225085070535138</v>
+        <v>0.021255960693960879</v>
       </c>
       <c r="I89" s="4">
-        <v>27.510371082573158</v>
+        <v>27.51056457460021</v>
       </c>
       <c r="J89" s="4">
-        <v>27.511428734037679</v>
+        <v>27.510848075354261</v>
       </c>
       <c r="K89" s="2">
-        <v>0.001057651464520859</v>
+        <v>0.00028350075405114694</v>
       </c>
       <c r="L89" s="4">
-        <v>0.98363410297322895</v>
+        <v>0.98332876137754155</v>
       </c>
       <c r="M89" s="4">
-        <v>1.0761220229335848</v>
+        <v>1.0757255030073491</v>
       </c>
       <c r="N89" s="2">
-        <v>0.09248791996035588</v>
+        <v>0.0923967416298076</v>
       </c>
       <c r="O89" s="8" t="b">
         <v>1</v>
@@ -8786,31 +8786,31 @@
         <v>0.29999999999999999</v>
       </c>
       <c r="F90" s="3">
-        <v>0.14184473909306403</v>
+        <v>0.14184058741346064</v>
       </c>
       <c r="G90" s="3">
-        <v>0.1395991398930721</v>
+        <v>0.13960515054013026</v>
       </c>
       <c r="H90" s="2">
-        <v>0.0022455991999919267</v>
+        <v>0.0022354368733303875</v>
       </c>
       <c r="I90" s="4">
-        <v>27.51097971794826</v>
+        <v>27.510828811577653</v>
       </c>
       <c r="J90" s="4">
-        <v>27.51081003686528</v>
+        <v>27.512286862824624</v>
       </c>
       <c r="K90" s="2">
-        <v>0.00016968108297987783</v>
+        <v>0.0014580512469706264</v>
       </c>
       <c r="L90" s="4">
-        <v>1.0228966943674578</v>
+        <v>1.0225864425788214</v>
       </c>
       <c r="M90" s="4">
-        <v>1.0326750192360099</v>
+        <v>1.0325175813702339</v>
       </c>
       <c r="N90" s="2">
-        <v>0.009778324868552124</v>
+        <v>0.0099311387914124971</v>
       </c>
       <c r="O90" s="8" t="b">
         <v>1</v>
@@ -8864,31 +8864,31 @@
         <v>7600</v>
       </c>
       <c r="F91" s="3">
-        <v>0.14125323972281936</v>
+        <v>0.14121394676532226</v>
       </c>
       <c r="G91" s="3">
-        <v>0.13997740431253039</v>
+        <v>0.13995614196132475</v>
       </c>
       <c r="H91" s="2">
-        <v>0.0012758354102889724</v>
+        <v>0.0012578048039975087</v>
       </c>
       <c r="I91" s="4">
-        <v>27.511589545241634</v>
+        <v>27.511709834512374</v>
       </c>
       <c r="J91" s="4">
-        <v>27.511472995671681</v>
+        <v>27.511349183075367</v>
       </c>
       <c r="K91" s="2">
-        <v>0.00011654956995243992</v>
+        <v>0.00036065143700625413</v>
       </c>
       <c r="L91" s="4">
-        <v>1.0065220170737168</v>
+        <v>1.0068824834151631</v>
       </c>
       <c r="M91" s="4">
-        <v>1.0854292564939201</v>
+        <v>1.0854688315615693</v>
       </c>
       <c r="N91" s="2">
-        <v>0.078907239420203279</v>
+        <v>0.078586348146406193</v>
       </c>
       <c r="O91" s="8" t="b">
         <v>1</v>
@@ -8936,37 +8936,37 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.087499999999999994</v>
+        <v>-0.087499999999999995</v>
       </c>
       <c r="E92" s="0">
         <v>-0.085000000000000006</v>
       </c>
       <c r="F92" s="3">
-        <v>0.14073893612287819</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="G92" s="3">
-        <v>0.14073672830247197</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="H92" s="2">
-        <v>2.2078204062192519e-06</v>
+        <v>0</v>
       </c>
       <c r="I92" s="4">
-        <v>27.511392338070664</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="J92" s="4">
-        <v>27.511393660029</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="K92" s="2">
-        <v>1.3219583365753351e-06</v>
+        <v>0</v>
       </c>
       <c r="L92" s="4">
-        <v>1.0271357895497772</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="M92" s="4">
-        <v>1.0272332274968039</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="N92" s="2">
-        <v>9.7437947026657312e-05</v>
+        <v>0</v>
       </c>
       <c r="O92" s="8" t="b">
         <v>1</v>
@@ -9020,31 +9020,31 @@
         <v>0.065000000000000002</v>
       </c>
       <c r="F93" s="3">
-        <v>0.14069289948299088</v>
+        <v>0.14072627984857264</v>
       </c>
       <c r="G93" s="3">
-        <v>0.14073893612287819</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="H93" s="2">
-        <v>4.6036639887309105e-05</v>
+        <v>1.0534981475823768e-05</v>
       </c>
       <c r="I93" s="4">
-        <v>27.51072133602645</v>
+        <v>27.511397910621099</v>
       </c>
       <c r="J93" s="4">
-        <v>27.511392338070664</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="K93" s="2">
-        <v>0.0006710020442142195</v>
+        <v>4.4603661422115693e-06</v>
       </c>
       <c r="L93" s="4">
-        <v>1.0274743363085255</v>
+        <v>1.0274158185617246</v>
       </c>
       <c r="M93" s="4">
-        <v>1.0271357895497772</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="N93" s="2">
-        <v>0.00033854675874822604</v>
+        <v>0.0001649829569911887</v>
       </c>
       <c r="O93" s="8" t="b">
         <v>1</v>
@@ -9098,31 +9098,31 @@
         <v>58000</v>
       </c>
       <c r="F94" s="3">
-        <v>0.14191018861683755</v>
+        <v>0.1419167839203383</v>
       </c>
       <c r="G94" s="3">
-        <v>0.1392297005833262</v>
+        <v>0.13921861854170367</v>
       </c>
       <c r="H94" s="2">
-        <v>0.0026804880335113412</v>
+        <v>0.002698165378634626</v>
       </c>
       <c r="I94" s="4">
-        <v>27.510333078371104</v>
+        <v>27.510696863880526</v>
       </c>
       <c r="J94" s="4">
-        <v>27.511387105605309</v>
+        <v>27.509882617402411</v>
       </c>
       <c r="K94" s="2">
-        <v>0.0010540272342041135</v>
+        <v>0.00081424647811445539</v>
       </c>
       <c r="L94" s="4">
-        <v>1.0300633860109976</v>
+        <v>1.0294745811034167</v>
       </c>
       <c r="M94" s="4">
-        <v>1.0300867289824964</v>
+        <v>1.0308099213875723</v>
       </c>
       <c r="N94" s="2">
-        <v>2.3342971498863108e-05</v>
+        <v>0.0013353402841556061</v>
       </c>
       <c r="O94" s="8" t="b">
         <v>1</v>
@@ -9176,31 +9176,31 @@
         <v>60</v>
       </c>
       <c r="F95" s="3">
-        <v>0.14741316700307175</v>
+        <v>0.14745509252990505</v>
       </c>
       <c r="G95" s="3">
-        <v>0.13496814640506949</v>
+        <v>0.13497913969654107</v>
       </c>
       <c r="H95" s="2">
-        <v>0.01244502059800226</v>
+        <v>0.012475952833363974</v>
       </c>
       <c r="I95" s="4">
-        <v>27.511376478256523</v>
+        <v>27.510593154100775</v>
       </c>
       <c r="J95" s="4">
-        <v>27.51141787808757</v>
+        <v>27.512211856389683</v>
       </c>
       <c r="K95" s="2">
-        <v>4.1399831047783664e-05</v>
+        <v>0.0016187022889084801</v>
       </c>
       <c r="L95" s="4">
-        <v>1.0001069977786157</v>
+        <v>1.0001318443834066</v>
       </c>
       <c r="M95" s="4">
-        <v>1.0530991205235298</v>
+        <v>1.0540507156076111</v>
       </c>
       <c r="N95" s="2">
-        <v>0.052992122744914161</v>
+        <v>0.053918871224204468</v>
       </c>
       <c r="O95" s="8" t="b">
         <v>1</v>

--- a/Workflows/01_Define_Metric/suspOpt_sweep_param_limits_results.xlsx
+++ b/Workflows/01_Define_Metric/suspOpt_sweep_param_limits_results.xlsx
@@ -503,7 +503,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2740" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2948" uniqueCount="195">
   <si>
     <t>Label</t>
   </si>
@@ -1908,31 +1908,31 @@
         <v>0.15</v>
       </c>
       <c r="F2" s="3">
-        <v>0.14124078349010044</v>
+        <v>0.14124394581464875</v>
       </c>
       <c r="G2" s="3">
-        <v>0.14039796685495476</v>
+        <v>0.14039488575211237</v>
       </c>
       <c r="H2" s="2">
-        <v>0.00084281663514568228</v>
+        <v>0.00084906006253637756</v>
       </c>
       <c r="I2" s="4">
-        <v>27.517474401711524</v>
+        <v>27.517604798762079</v>
       </c>
       <c r="J2" s="4">
-        <v>27.507567851710519</v>
+        <v>27.507452115879005</v>
       </c>
       <c r="K2" s="2">
-        <v>0.0099065500010055985</v>
+        <v>0.010152682883074249</v>
       </c>
       <c r="L2" s="4">
-        <v>1.0278448837561682</v>
+        <v>1.0278560409092758</v>
       </c>
       <c r="M2" s="4">
-        <v>1.0267552688603912</v>
+        <v>1.0267828714407627</v>
       </c>
       <c r="N2" s="2">
-        <v>0.0010896148957770802</v>
+        <v>0.0010731694685131021</v>
       </c>
       <c r="O2" s="8" t="b">
         <v>1</v>
@@ -2078,31 +2078,31 @@
         <v>0.47999999999999998</v>
       </c>
       <c r="F4" s="3">
-        <v>0.13556223944775306</v>
+        <v>0.13557569893261873</v>
       </c>
       <c r="G4" s="3">
         <v>0.14376922353350727</v>
       </c>
       <c r="H4" s="2">
-        <v>0.0082069840857542098</v>
+        <v>0.008193524600888541</v>
       </c>
       <c r="I4" s="4">
-        <v>27.449018291888706</v>
+        <v>27.450966522901297</v>
       </c>
       <c r="J4" s="4">
         <v>27.546599167395016</v>
       </c>
       <c r="K4" s="2">
-        <v>0.097580875506309894</v>
+        <v>0.095632644493718999</v>
       </c>
       <c r="L4" s="4">
-        <v>1.023511998017083</v>
+        <v>1.023608643294686</v>
       </c>
       <c r="M4" s="4">
         <v>1.0330391985309224</v>
       </c>
       <c r="N4" s="2">
-        <v>0.0095272005138393734</v>
+        <v>0.0094305552362363709</v>
       </c>
       <c r="O4" s="8" t="b">
         <v>1</v>
@@ -2156,31 +2156,31 @@
         <v>-0.055</v>
       </c>
       <c r="F5" s="3">
-        <v>0.14124505128549075</v>
+        <v>0.14124702395774258</v>
       </c>
       <c r="G5" s="3">
         <v>0.13986950725431982</v>
       </c>
       <c r="H5" s="2">
-        <v>0.0013755440311709333</v>
+        <v>0.0013775167034227598</v>
       </c>
       <c r="I5" s="4">
-        <v>27.511416222057051</v>
+        <v>27.511398311569735</v>
       </c>
       <c r="J5" s="4">
         <v>27.511960773782789</v>
       </c>
       <c r="K5" s="2">
-        <v>0.00054455172573852906</v>
+        <v>0.00056246221305400468</v>
       </c>
       <c r="L5" s="4">
-        <v>1.0273296039809079</v>
+        <v>1.0275782890349494</v>
       </c>
       <c r="M5" s="4">
         <v>1.0272543407810495</v>
       </c>
       <c r="N5" s="2">
-        <v>7.5263199858399688e-05</v>
+        <v>0.00032394825389991944</v>
       </c>
       <c r="O5" s="8" t="b">
         <v>1</v>
@@ -2234,31 +2234,31 @@
         <v>0.501</v>
       </c>
       <c r="F6" s="3">
-        <v>0.14217512434566984</v>
+        <v>0.14217618195001083</v>
       </c>
       <c r="G6" s="3">
-        <v>0.13871645257827547</v>
+        <v>0.13869901471527335</v>
       </c>
       <c r="H6" s="2">
-        <v>0.0034586717673943668</v>
+        <v>0.0034771672347374827</v>
       </c>
       <c r="I6" s="4">
-        <v>27.508337510151193</v>
+        <v>27.50770742048968</v>
       </c>
       <c r="J6" s="4">
-        <v>27.513524234128852</v>
+        <v>27.513491356133329</v>
       </c>
       <c r="K6" s="2">
-        <v>0.0051867239776584029</v>
+        <v>0.0057839356436488742</v>
       </c>
       <c r="L6" s="4">
-        <v>1.0283723586469435</v>
+        <v>1.0279056747422415</v>
       </c>
       <c r="M6" s="4">
-        <v>1.0264222283745757</v>
+        <v>1.0266851880191552</v>
       </c>
       <c r="N6" s="2">
-        <v>0.0019501302723679004</v>
+        <v>0.0012204867230862781</v>
       </c>
       <c r="O6" s="8" t="b">
         <v>1</v>
@@ -2312,31 +2312,31 @@
         <v>0.46000000000000002</v>
       </c>
       <c r="F7" s="3">
-        <v>0.13378667361090849</v>
+        <v>0.1337609737506385</v>
       </c>
       <c r="G7" s="3">
-        <v>0.14655323474818593</v>
+        <v>0.14656012768503574</v>
       </c>
       <c r="H7" s="2">
-        <v>0.012766561137277449</v>
+        <v>0.012799153934397234</v>
       </c>
       <c r="I7" s="4">
-        <v>27.516374338887772</v>
+        <v>27.516125462069738</v>
       </c>
       <c r="J7" s="4">
-        <v>27.499013015028425</v>
+        <v>27.498019416017826</v>
       </c>
       <c r="K7" s="2">
-        <v>0.017361323859347522</v>
+        <v>0.018106046051912017</v>
       </c>
       <c r="L7" s="4">
-        <v>1.0268299015261699</v>
+        <v>1.0261053928073032</v>
       </c>
       <c r="M7" s="4">
-        <v>1.0321552462222996</v>
+        <v>1.032106693759953</v>
       </c>
       <c r="N7" s="2">
-        <v>0.0053253446961296635</v>
+        <v>0.0060013009526498351</v>
       </c>
       <c r="O7" s="8" t="b">
         <v>1</v>
@@ -2390,31 +2390,31 @@
         <v>0.01</v>
       </c>
       <c r="F8" s="3">
-        <v>0.14132105758106359</v>
+        <v>0.14130315315177219</v>
       </c>
       <c r="G8" s="3">
-        <v>0.14011822033296217</v>
+        <v>0.14010543126721611</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0012028372481014127</v>
+        <v>0.00119772188455608</v>
       </c>
       <c r="I8" s="4">
-        <v>27.512804480690875</v>
+        <v>27.512355307242899</v>
       </c>
       <c r="J8" s="4">
-        <v>27.509833521785879</v>
+        <v>27.509822168331084</v>
       </c>
       <c r="K8" s="2">
-        <v>0.0029709589049957685</v>
+        <v>0.0025331389118150582</v>
       </c>
       <c r="L8" s="4">
-        <v>1.027277150037861</v>
+        <v>1.0272079341483216</v>
       </c>
       <c r="M8" s="4">
-        <v>1.0274936489216151</v>
+        <v>1.027493474753322</v>
       </c>
       <c r="N8" s="2">
-        <v>0.00021649888375407933</v>
+        <v>0.00028554060500041167</v>
       </c>
       <c r="O8" s="8" t="b">
         <v>1</v>
@@ -2468,31 +2468,31 @@
         <v>0.73719999999999997</v>
       </c>
       <c r="F9" s="3">
-        <v>0.13887911005333567</v>
+        <v>0.13887674172559755</v>
       </c>
       <c r="G9" s="3">
-        <v>0.14188687431265812</v>
+        <v>0.14189877917576141</v>
       </c>
       <c r="H9" s="2">
-        <v>0.0030077642593224485</v>
+        <v>0.0030220374501638558</v>
       </c>
       <c r="I9" s="4">
-        <v>27.501840275645463</v>
+        <v>27.501981530869159</v>
       </c>
       <c r="J9" s="4">
-        <v>27.5165335943787</v>
+        <v>27.517682161965524</v>
       </c>
       <c r="K9" s="2">
-        <v>0.014693318733236538</v>
+        <v>0.015700631096365214</v>
       </c>
       <c r="L9" s="4">
-        <v>1.0243712304721289</v>
+        <v>1.0243518368777123</v>
       </c>
       <c r="M9" s="4">
-        <v>1.0287358891793528</v>
+        <v>1.0288068860189061</v>
       </c>
       <c r="N9" s="2">
-        <v>0.0043646587072239118</v>
+        <v>0.0044550491411938786</v>
       </c>
       <c r="O9" s="8" t="b">
         <v>1</v>
@@ -2546,31 +2546,31 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="3">
-        <v>0.15229750086697941</v>
+        <v>0.15227385452346909</v>
       </c>
       <c r="G10" s="3">
-        <v>0.13246674629788541</v>
+        <v>0.13246967422071301</v>
       </c>
       <c r="H10" s="2">
-        <v>0.019830754569094</v>
+        <v>0.019804180302756075</v>
       </c>
       <c r="I10" s="4">
-        <v>27.550681793750982</v>
+        <v>27.552840081872716</v>
       </c>
       <c r="J10" s="4">
-        <v>27.472302935912637</v>
+        <v>27.472183313917242</v>
       </c>
       <c r="K10" s="2">
-        <v>0.078378857838345084</v>
+        <v>0.080656767955474607</v>
       </c>
       <c r="L10" s="4">
-        <v>1.0345517711072236</v>
+        <v>1.0342972954602669</v>
       </c>
       <c r="M10" s="4">
-        <v>1.0224303469561835</v>
+        <v>1.022673707655869</v>
       </c>
       <c r="N10" s="2">
-        <v>0.012121424151040117</v>
+        <v>0.011623587804397983</v>
       </c>
       <c r="O10" s="8" t="b">
         <v>1</v>
@@ -2624,31 +2624,31 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="F11" s="3">
-        <v>0.14072037095879411</v>
+        <v>0.1407260861420018</v>
       </c>
       <c r="G11" s="3">
-        <v>0.14072549350845864</v>
+        <v>0.14071211271902143</v>
       </c>
       <c r="H11" s="2">
-        <v>5.1225496645324053e-06</v>
+        <v>1.3973422980373407e-05</v>
       </c>
       <c r="I11" s="4">
-        <v>27.510775664298819</v>
+        <v>27.511445889463403</v>
       </c>
       <c r="J11" s="4">
-        <v>27.510532930089028</v>
+        <v>27.511352407873005</v>
       </c>
       <c r="K11" s="2">
-        <v>0.00024273420979170624</v>
+        <v>9.3481590397459513e-05</v>
       </c>
       <c r="L11" s="4">
-        <v>1.0274868223518352</v>
+        <v>1.0274875714872385</v>
       </c>
       <c r="M11" s="4">
-        <v>1.0272364194977257</v>
+        <v>1.0271907147046338</v>
       </c>
       <c r="N11" s="2">
-        <v>0.00025040285410948826</v>
+        <v>0.00029685678260471526</v>
       </c>
       <c r="O11" s="8" t="b">
         <v>1</v>
@@ -2702,31 +2702,31 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F12" s="3">
-        <v>0.14111209489732834</v>
+        <v>0.14111142809713401</v>
       </c>
       <c r="G12" s="3">
-        <v>0.14011026940545945</v>
+        <v>0.14011441325431476</v>
       </c>
       <c r="H12" s="2">
-        <v>0.0010018254918688907</v>
+        <v>0.00099701484281924935</v>
       </c>
       <c r="I12" s="4">
-        <v>27.514701041735805</v>
+        <v>27.514702848520869</v>
       </c>
       <c r="J12" s="4">
-        <v>27.508771062513688</v>
+        <v>27.508772092975221</v>
       </c>
       <c r="K12" s="2">
-        <v>0.0059299792221167991</v>
+        <v>0.0059307555456484806</v>
       </c>
       <c r="L12" s="4">
-        <v>1.0263726407651326</v>
+        <v>1.0263732122872236</v>
       </c>
       <c r="M12" s="4">
-        <v>1.0298843373114888</v>
+        <v>1.029915887267715</v>
       </c>
       <c r="N12" s="2">
-        <v>0.0035116965463561911</v>
+        <v>0.0035426749804914337</v>
       </c>
       <c r="O12" s="8" t="b">
         <v>1</v>
@@ -2780,31 +2780,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F13" s="3">
-        <v>0.14291856140315623</v>
+        <v>0.14290902866897046</v>
       </c>
       <c r="G13" s="3">
-        <v>0.13837776613164107</v>
+        <v>0.1383832947830333</v>
       </c>
       <c r="H13" s="2">
-        <v>0.0045407952715151578</v>
+        <v>0.004525733885937161</v>
       </c>
       <c r="I13" s="4">
-        <v>27.556750532882859</v>
+        <v>27.557902445964487</v>
       </c>
       <c r="J13" s="4">
-        <v>27.566997805619508</v>
+        <v>27.565946610313404</v>
       </c>
       <c r="K13" s="2">
-        <v>0.010247272736648938</v>
+        <v>0.0080441643489166381</v>
       </c>
       <c r="L13" s="4">
-        <v>1.0553598869441492</v>
+        <v>1.0553514041607499</v>
       </c>
       <c r="M13" s="4">
-        <v>1.0035191469186195</v>
+        <v>1.003629195831385</v>
       </c>
       <c r="N13" s="2">
-        <v>0.05184074002552963</v>
+        <v>0.051722208329364916</v>
       </c>
       <c r="O13" s="8" t="b">
         <v>1</v>
@@ -2858,31 +2858,31 @@
         <v>-0.074999999999999997</v>
       </c>
       <c r="F14" s="3">
-        <v>0.14072053911607754</v>
+        <v>0.14071460078989673</v>
       </c>
       <c r="G14" s="3">
-        <v>0.14073095666905397</v>
+        <v>0.14070479246439427</v>
       </c>
       <c r="H14" s="2">
-        <v>1.0417552976427213e-05</v>
+        <v>9.8083255024583593e-06</v>
       </c>
       <c r="I14" s="4">
-        <v>27.511435085538551</v>
+        <v>27.510890931943493</v>
       </c>
       <c r="J14" s="4">
-        <v>27.511345536001102</v>
+        <v>27.511337667946691</v>
       </c>
       <c r="K14" s="2">
-        <v>8.9549537449329364e-05</v>
+        <v>0.00044673600319811158</v>
       </c>
       <c r="L14" s="4">
-        <v>1.0274794091003294</v>
+        <v>1.0273672089391885</v>
       </c>
       <c r="M14" s="4">
-        <v>1.0278160075005212</v>
+        <v>1.0272124026309004</v>
       </c>
       <c r="N14" s="2">
-        <v>0.00033659840019173437</v>
+        <v>0.00015480630828812458</v>
       </c>
       <c r="O14" s="8" t="b">
         <v>1</v>
@@ -2936,31 +2936,31 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F15" s="3">
-        <v>0.13813037291100139</v>
+        <v>0.13815035366773262</v>
       </c>
       <c r="G15" s="3">
-        <v>0.14336229031200024</v>
+        <v>0.14335343253664351</v>
       </c>
       <c r="H15" s="2">
-        <v>0.0052319174009988478</v>
+        <v>0.0052030788689108876</v>
       </c>
       <c r="I15" s="4">
-        <v>27.52048533956048</v>
+        <v>27.519363083255712</v>
       </c>
       <c r="J15" s="4">
-        <v>27.499154003750391</v>
+        <v>27.498978464224649</v>
       </c>
       <c r="K15" s="2">
-        <v>0.021331335810089058</v>
+        <v>0.020384619031062812</v>
       </c>
       <c r="L15" s="4">
-        <v>1.0284375370415912</v>
+        <v>1.0285389198951425</v>
       </c>
       <c r="M15" s="4">
-        <v>1.0261327235788511</v>
+        <v>1.0261521405383529</v>
       </c>
       <c r="N15" s="2">
-        <v>0.0023048134627401407</v>
+        <v>0.0023867793567895479</v>
       </c>
       <c r="O15" s="8" t="b">
         <v>1</v>
@@ -3014,31 +3014,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F16" s="3">
-        <v>0.14185120056499553</v>
+        <v>0.14185635647684128</v>
       </c>
       <c r="G16" s="3">
-        <v>0.13866586809298195</v>
+        <v>0.13867654821692285</v>
       </c>
       <c r="H16" s="2">
-        <v>0.0031853324720135801</v>
+        <v>0.0031798082599184263</v>
       </c>
       <c r="I16" s="4">
-        <v>27.359244806939614</v>
+        <v>27.358991802789149</v>
       </c>
       <c r="J16" s="4">
-        <v>27.571112013440143</v>
+        <v>27.571358918091278</v>
       </c>
       <c r="K16" s="2">
-        <v>0.21186720650052848</v>
+        <v>0.21236711530212915</v>
       </c>
       <c r="L16" s="4">
-        <v>1.0464197752503794</v>
+        <v>1.0469414461448439</v>
       </c>
       <c r="M16" s="4">
-        <v>1.003820004189339</v>
+        <v>1.0038238266425243</v>
       </c>
       <c r="N16" s="2">
-        <v>0.042599771061040403</v>
+        <v>0.043117619502319515</v>
       </c>
       <c r="O16" s="8" t="b">
         <v>1</v>
@@ -3092,31 +3092,31 @@
         <v>0.065000000000000002</v>
       </c>
       <c r="F17" s="3">
-        <v>0.13620358255552631</v>
+        <v>0.13620324385504221</v>
       </c>
       <c r="G17" s="3">
-        <v>0.14714497766248374</v>
+        <v>0.14716395710258351</v>
       </c>
       <c r="H17" s="2">
-        <v>0.010941395106957436</v>
+        <v>0.010960713247541304</v>
       </c>
       <c r="I17" s="4">
-        <v>27.539507401121171</v>
+        <v>27.539550413446932</v>
       </c>
       <c r="J17" s="4">
-        <v>27.448150231764089</v>
+        <v>27.447999643343451</v>
       </c>
       <c r="K17" s="2">
-        <v>0.091357169357081602</v>
+        <v>0.091550770103481227</v>
       </c>
       <c r="L17" s="4">
-        <v>1.0175786386700745</v>
+        <v>1.0174344851376125</v>
       </c>
       <c r="M17" s="4">
-        <v>1.0490131594445316</v>
+        <v>1.0488403847338745</v>
       </c>
       <c r="N17" s="2">
-        <v>0.031434520774457075</v>
+        <v>0.031405899596262055</v>
       </c>
       <c r="O17" s="8" t="b">
         <v>1</v>
@@ -3170,31 +3170,31 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="F18" s="3">
-        <v>0.13520886342446023</v>
+        <v>0.13520110310583283</v>
       </c>
       <c r="G18" s="3">
-        <v>0.14411603751143184</v>
+        <v>0.14411928790539444</v>
       </c>
       <c r="H18" s="2">
-        <v>0.0089071740869716143</v>
+        <v>0.008918184799561607</v>
       </c>
       <c r="I18" s="4">
-        <v>27.520426201473242</v>
+        <v>27.521047393470155</v>
       </c>
       <c r="J18" s="4">
-        <v>27.512477130851323</v>
+        <v>27.512910439540917</v>
       </c>
       <c r="K18" s="2">
-        <v>0.0079490706219189633</v>
+        <v>0.0081369539292381887</v>
       </c>
       <c r="L18" s="4">
-        <v>1.0494631146299565</v>
+        <v>1.0494521159515722</v>
       </c>
       <c r="M18" s="4">
-        <v>1.0130312043391649</v>
+        <v>1.0128430601073966</v>
       </c>
       <c r="N18" s="2">
-        <v>0.036431910290791514</v>
+        <v>0.03660905584417562</v>
       </c>
       <c r="O18" s="8" t="b">
         <v>1</v>
@@ -3248,31 +3248,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F19" s="3">
-        <v>0.13572177973289001</v>
+        <v>0.13572201763918509</v>
       </c>
       <c r="G19" s="3">
-        <v>0.14974795001246013</v>
+        <v>0.1497266396343167</v>
       </c>
       <c r="H19" s="2">
-        <v>0.014026170279570122</v>
+        <v>0.014004621995131611</v>
       </c>
       <c r="I19" s="4">
-        <v>27.56119040883533</v>
+        <v>27.56119071107139</v>
       </c>
       <c r="J19" s="4">
-        <v>27.378589576147135</v>
+        <v>27.378589954010124</v>
       </c>
       <c r="K19" s="2">
-        <v>0.18260083268819472</v>
+        <v>0.18260075706126599</v>
       </c>
       <c r="L19" s="4">
-        <v>1.0053698446199484</v>
+        <v>1.0053650288962739</v>
       </c>
       <c r="M19" s="4">
-        <v>1.0905057084920355</v>
+        <v>1.090991339662871</v>
       </c>
       <c r="N19" s="2">
-        <v>0.085135863872087159</v>
+        <v>0.085626310766597102</v>
       </c>
       <c r="O19" s="8" t="b">
         <v>1</v>
@@ -3404,31 +3404,31 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="F21" s="3">
-        <v>0.14039000237567822</v>
+        <v>0.14038846250062179</v>
       </c>
       <c r="G21" s="3">
-        <v>0.14119105810130761</v>
+        <v>0.14119587544954856</v>
       </c>
       <c r="H21" s="2">
-        <v>0.00080105572562938487</v>
+        <v>0.00080741294892677784</v>
       </c>
       <c r="I21" s="4">
-        <v>27.506139318065721</v>
+        <v>27.50613860150014</v>
       </c>
       <c r="J21" s="4">
-        <v>27.518985009661151</v>
+        <v>27.518884138073247</v>
       </c>
       <c r="K21" s="2">
-        <v>0.012845691595430253</v>
+        <v>0.012745536573106619</v>
       </c>
       <c r="L21" s="4">
-        <v>1.029173316591016</v>
+        <v>1.029173373650045</v>
       </c>
       <c r="M21" s="4">
-        <v>1.0242186740535189</v>
+        <v>1.0242197289195596</v>
       </c>
       <c r="N21" s="2">
-        <v>0.0049546425374971115</v>
+        <v>0.0049536447304854292</v>
       </c>
       <c r="O21" s="8" t="b">
         <v>1</v>
@@ -3560,31 +3560,31 @@
         <v>0.19208</v>
       </c>
       <c r="F23" s="3">
-        <v>0.14134190509957431</v>
+        <v>0.14129871808515759</v>
       </c>
       <c r="G23" s="3">
-        <v>0.13856638039093441</v>
+        <v>0.13856393183739699</v>
       </c>
       <c r="H23" s="2">
-        <v>0.0027755247086398982</v>
+        <v>0.0027347862477606066</v>
       </c>
       <c r="I23" s="4">
-        <v>27.435777789314386</v>
+        <v>27.435636466339418</v>
       </c>
       <c r="J23" s="4">
-        <v>27.538341102658705</v>
+        <v>27.539203242514247</v>
       </c>
       <c r="K23" s="2">
-        <v>0.10256331334431934</v>
+        <v>0.10356677617483001</v>
       </c>
       <c r="L23" s="4">
-        <v>1.0378401790275431</v>
+        <v>1.038037872424266</v>
       </c>
       <c r="M23" s="4">
-        <v>1.0218079818920896</v>
+        <v>1.022341694962666</v>
       </c>
       <c r="N23" s="2">
-        <v>0.016032197135453563</v>
+        <v>0.015696177461600014</v>
       </c>
       <c r="O23" s="8" t="b">
         <v>1</v>
@@ -3641,28 +3641,28 @@
         <v>0.14082369011060417</v>
       </c>
       <c r="G24" s="3">
-        <v>0.14068035031205298</v>
+        <v>0.14067109525517355</v>
       </c>
       <c r="H24" s="2">
-        <v>0.00014333979855118972</v>
+        <v>0.00015259485543062112</v>
       </c>
       <c r="I24" s="4">
         <v>27.514515561885503</v>
       </c>
       <c r="J24" s="4">
-        <v>27.508467196837387</v>
+        <v>27.509337640408148</v>
       </c>
       <c r="K24" s="2">
-        <v>0.0060483650481160112</v>
+        <v>0.00517792147735463</v>
       </c>
       <c r="L24" s="4">
         <v>1.0266337757981372</v>
       </c>
       <c r="M24" s="4">
-        <v>1.0280042392448323</v>
+        <v>1.0280621106920635</v>
       </c>
       <c r="N24" s="2">
-        <v>0.0013704634466951138</v>
+        <v>0.0014283348939263529</v>
       </c>
       <c r="O24" s="8" t="b">
         <v>1</v>
@@ -3719,28 +3719,28 @@
         <v>0.13430979896297091</v>
       </c>
       <c r="G25" s="3">
-        <v>0.1555947530108526</v>
+        <v>0.15558076806935367</v>
       </c>
       <c r="H25" s="2">
-        <v>0.021284954047881693</v>
+        <v>0.021270969106382764</v>
       </c>
       <c r="I25" s="4">
         <v>27.295868426636957</v>
       </c>
       <c r="J25" s="4">
-        <v>27.468678327649968</v>
+        <v>27.468464236312059</v>
       </c>
       <c r="K25" s="2">
-        <v>0.17280990101301086</v>
+        <v>0.17259580967510146</v>
       </c>
       <c r="L25" s="4">
         <v>1.0594509825728402</v>
       </c>
       <c r="M25" s="4">
-        <v>1.0019691619727766</v>
+        <v>1.0017833739729074</v>
       </c>
       <c r="N25" s="2">
-        <v>0.057481820600063571</v>
+        <v>0.057667608599932807</v>
       </c>
       <c r="O25" s="8" t="b">
         <v>1</v>
@@ -3797,28 +3797,28 @@
         <v>0.14106021923929518</v>
       </c>
       <c r="G26" s="3">
-        <v>0.14105254500378295</v>
+        <v>0.14102397219691562</v>
       </c>
       <c r="H26" s="2">
-        <v>7.6742355122338957e-06</v>
+        <v>3.6247042379561334e-05</v>
       </c>
       <c r="I26" s="4">
         <v>27.509233659714994</v>
       </c>
       <c r="J26" s="4">
-        <v>27.509089071512506</v>
+        <v>27.50876408749923</v>
       </c>
       <c r="K26" s="2">
-        <v>0.00014458820248819393</v>
+        <v>0.00046957221576349184</v>
       </c>
       <c r="L26" s="4">
         <v>1.0261383019311683</v>
       </c>
       <c r="M26" s="4">
-        <v>1.0253118788224989</v>
+        <v>1.0262526725630037</v>
       </c>
       <c r="N26" s="2">
-        <v>0.00082642310866942736</v>
+        <v>0.00011437063183539209</v>
       </c>
       <c r="O26" s="8" t="b">
         <v>1</v>
@@ -3875,28 +3875,28 @@
         <v>0.14186426970955471</v>
       </c>
       <c r="G27" s="3">
-        <v>0.13924056508064472</v>
+        <v>0.13924135504680843</v>
       </c>
       <c r="H27" s="2">
-        <v>0.0026237046289099841</v>
+        <v>0.0026229146627462785</v>
       </c>
       <c r="I27" s="4">
         <v>27.499906806045203</v>
       </c>
       <c r="J27" s="4">
-        <v>27.522927366982401</v>
+        <v>27.523749842465179</v>
       </c>
       <c r="K27" s="2">
-        <v>0.023020560937197843</v>
+        <v>0.023843036419975761</v>
       </c>
       <c r="L27" s="4">
         <v>1.0204020711363022</v>
       </c>
       <c r="M27" s="4">
-        <v>1.0341903262881369</v>
+        <v>1.0341878021948303</v>
       </c>
       <c r="N27" s="2">
-        <v>0.013788255151834683</v>
+        <v>0.013785731058528095</v>
       </c>
       <c r="O27" s="8" t="b">
         <v>1</v>
@@ -3953,28 +3953,28 @@
         <v>0.14205061962983309</v>
       </c>
       <c r="G28" s="3">
-        <v>0.13982712665854771</v>
+        <v>0.1398185835719889</v>
       </c>
       <c r="H28" s="2">
-        <v>0.002223492971285379</v>
+        <v>0.0022320360578441945</v>
       </c>
       <c r="I28" s="4">
         <v>27.503065425810689</v>
       </c>
       <c r="J28" s="4">
-        <v>27.517549130644738</v>
+        <v>27.518258693529333</v>
       </c>
       <c r="K28" s="2">
-        <v>0.014483704834049149</v>
+        <v>0.01519326771864371</v>
       </c>
       <c r="L28" s="4">
         <v>1.0210397797565007</v>
       </c>
       <c r="M28" s="4">
-        <v>1.0321571348666372</v>
+        <v>1.032173034609005</v>
       </c>
       <c r="N28" s="2">
-        <v>0.011117355110136451</v>
+        <v>0.011133254852504271</v>
       </c>
       <c r="O28" s="8" t="b">
         <v>1</v>
@@ -4031,28 +4031,28 @@
         <v>0.14083695305788843</v>
       </c>
       <c r="G29" s="3">
-        <v>0.14082992193476232</v>
+        <v>0.14081283700507918</v>
       </c>
       <c r="H29" s="2">
-        <v>7.031123126111094e-06</v>
+        <v>2.4116052809247668e-05</v>
       </c>
       <c r="I29" s="4">
         <v>27.510064522874131</v>
       </c>
       <c r="J29" s="4">
-        <v>27.510098388731706</v>
+        <v>27.510002170070095</v>
       </c>
       <c r="K29" s="2">
-        <v>3.3865857574255642e-05</v>
+        <v>6.2352804036436282e-05</v>
       </c>
       <c r="L29" s="4">
         <v>1.0263449976655188</v>
       </c>
       <c r="M29" s="4">
-        <v>1.0264609578792017</v>
+        <v>1.0260671824688661</v>
       </c>
       <c r="N29" s="2">
-        <v>0.00011596021368287524</v>
+        <v>0.00027781519665270871</v>
       </c>
       <c r="O29" s="8" t="b">
         <v>1</v>
@@ -4109,28 +4109,28 @@
         <v>0.14197368782909883</v>
       </c>
       <c r="G30" s="3">
-        <v>0.13959162457788779</v>
+        <v>0.1395969770038851</v>
       </c>
       <c r="H30" s="2">
-        <v>0.0023820632512110418</v>
+        <v>0.0023767108252137348</v>
       </c>
       <c r="I30" s="4">
         <v>27.503039461205788</v>
       </c>
       <c r="J30" s="4">
-        <v>27.518622176373754</v>
+        <v>27.518513736238845</v>
       </c>
       <c r="K30" s="2">
-        <v>0.015582715167965944</v>
+        <v>0.015474275033056983</v>
       </c>
       <c r="L30" s="4">
         <v>1.0212353179746536</v>
       </c>
       <c r="M30" s="4">
-        <v>1.0326553187264096</v>
+        <v>1.0326511015567002</v>
       </c>
       <c r="N30" s="2">
-        <v>0.011420000751755977</v>
+        <v>0.011415783582046535</v>
       </c>
       <c r="O30" s="8" t="b">
         <v>1</v>
@@ -4187,28 +4187,28 @@
         <v>0.14109291992894729</v>
       </c>
       <c r="G31" s="3">
-        <v>0.14020886540299871</v>
+        <v>0.14019139790899904</v>
       </c>
       <c r="H31" s="2">
-        <v>0.00088405452594858547</v>
+        <v>0.00090152201994825321</v>
       </c>
       <c r="I31" s="4">
         <v>27.506806305446617</v>
       </c>
       <c r="J31" s="4">
-        <v>27.516207519951649</v>
+        <v>27.516191570652836</v>
       </c>
       <c r="K31" s="2">
-        <v>0.00940121450503284</v>
+        <v>0.0093852652062196285</v>
       </c>
       <c r="L31" s="4">
         <v>1.0251883062028118</v>
       </c>
       <c r="M31" s="4">
-        <v>1.0302322887449391</v>
+        <v>1.0301873805320614</v>
       </c>
       <c r="N31" s="2">
-        <v>0.0050439825421273454</v>
+        <v>0.0049990743292496198</v>
       </c>
       <c r="O31" s="8" t="b">
         <v>1</v>
@@ -4262,31 +4262,31 @@
         <v>0.02</v>
       </c>
       <c r="F32" s="3">
-        <v>0.14072978180361984</v>
+        <v>0.14072373998505453</v>
       </c>
       <c r="G32" s="3">
         <v>0.14074550195363977</v>
       </c>
       <c r="H32" s="2">
-        <v>1.5720150019937762e-05</v>
+        <v>2.1761968585248814e-05</v>
       </c>
       <c r="I32" s="4">
-        <v>27.511445540990678</v>
+        <v>27.511450892971197</v>
       </c>
       <c r="J32" s="4">
         <v>27.511331173330632</v>
       </c>
       <c r="K32" s="2">
-        <v>0.00011436766004635501</v>
+        <v>0.00011971964056556317</v>
       </c>
       <c r="L32" s="4">
-        <v>1.0270760149825404</v>
+        <v>1.0273618259868598</v>
       </c>
       <c r="M32" s="4">
         <v>1.0274135113818219</v>
       </c>
       <c r="N32" s="2">
-        <v>0.00033749639928148945</v>
+        <v>5.1685394962142084e-05</v>
       </c>
       <c r="O32" s="8" t="b">
         <v>1</v>
@@ -4343,28 +4343,28 @@
         <v>0.14073854632156666</v>
       </c>
       <c r="G33" s="3">
-        <v>0.14072496603059651</v>
+        <v>0.14073125123924179</v>
       </c>
       <c r="H33" s="2">
-        <v>1.35802909701499e-05</v>
+        <v>7.2950823248596475e-06</v>
       </c>
       <c r="I33" s="4">
         <v>27.510925224505058</v>
       </c>
       <c r="J33" s="4">
-        <v>27.511420717479041</v>
+        <v>27.51141496364744</v>
       </c>
       <c r="K33" s="2">
-        <v>0.00049549297398243653</v>
+        <v>0.00048973914238104044</v>
       </c>
       <c r="L33" s="4">
         <v>1.027365153566459</v>
       </c>
       <c r="M33" s="4">
-        <v>1.0270834641920039</v>
+        <v>1.0274741361076212</v>
       </c>
       <c r="N33" s="2">
-        <v>0.00028168937445505193</v>
+        <v>0.00010898254116220585</v>
       </c>
       <c r="O33" s="8" t="b">
         <v>1</v>
@@ -4421,28 +4421,28 @@
         <v>0.14069516436287205</v>
       </c>
       <c r="G34" s="3">
-        <v>0.14074832178705535</v>
+        <v>0.14072747421819307</v>
       </c>
       <c r="H34" s="2">
-        <v>5.3157424183297719e-05</v>
+        <v>3.2309855321016601e-05</v>
       </c>
       <c r="I34" s="4">
         <v>27.510704089935757</v>
       </c>
       <c r="J34" s="4">
-        <v>27.511331630710231</v>
+        <v>27.510451701491036</v>
       </c>
       <c r="K34" s="2">
-        <v>0.00062754077447380041</v>
+        <v>0.00025238844472141864</v>
       </c>
       <c r="L34" s="4">
         <v>1.0271644384612075</v>
       </c>
       <c r="M34" s="4">
-        <v>1.027224735725462</v>
+        <v>1.0274029832667897</v>
       </c>
       <c r="N34" s="2">
-        <v>6.029726425449411e-05</v>
+        <v>0.00023854480558216373</v>
       </c>
       <c r="O34" s="8" t="b">
         <v>1</v>
@@ -4496,31 +4496,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F35" s="3">
-        <v>0.14230808826162383</v>
+        <v>0.14230768095986385</v>
       </c>
       <c r="G35" s="3">
         <v>0.13931470337038288</v>
       </c>
       <c r="H35" s="2">
-        <v>0.0029933848912409577</v>
+        <v>0.0029929775894809718</v>
       </c>
       <c r="I35" s="4">
-        <v>27.494329991729728</v>
+        <v>27.49433444139089</v>
       </c>
       <c r="J35" s="4">
         <v>27.528162439574317</v>
       </c>
       <c r="K35" s="2">
-        <v>0.033832447844588387</v>
+        <v>0.033827998183426189</v>
       </c>
       <c r="L35" s="4">
-        <v>1.0175066440446692</v>
+        <v>1.0174436128081832</v>
       </c>
       <c r="M35" s="4">
         <v>1.036954964265776</v>
       </c>
       <c r="N35" s="2">
-        <v>0.019448320221106874</v>
+        <v>0.019511351457592863</v>
       </c>
       <c r="O35" s="8" t="b">
         <v>1</v>
@@ -4574,31 +4574,31 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="F36" s="3">
-        <v>0.14500683076963949</v>
+        <v>0.14498662526248368</v>
       </c>
       <c r="G36" s="3">
         <v>0.13712880403130276</v>
       </c>
       <c r="H36" s="2">
-        <v>0.0078780267383367353</v>
+        <v>0.0078578212311809226</v>
       </c>
       <c r="I36" s="4">
-        <v>27.5203797686342</v>
+        <v>27.520697521351849</v>
       </c>
       <c r="J36" s="4">
         <v>27.50343713777113</v>
       </c>
       <c r="K36" s="2">
-        <v>0.016942630863070463</v>
+        <v>0.017260383580719463</v>
       </c>
       <c r="L36" s="4">
-        <v>1.0241367324105866</v>
+        <v>1.024367225097548</v>
       </c>
       <c r="M36" s="4">
         <v>1.0310033271676467</v>
       </c>
       <c r="N36" s="2">
-        <v>0.0068665947570600849</v>
+        <v>0.0066361020700986817</v>
       </c>
       <c r="O36" s="8" t="b">
         <v>1</v>
@@ -4652,31 +4652,31 @@
         <v>0.38</v>
       </c>
       <c r="F37" s="3">
-        <v>0.14699369548986316</v>
+        <v>0.14697629373238935</v>
       </c>
       <c r="G37" s="3">
         <v>0.1345950324455038</v>
       </c>
       <c r="H37" s="2">
-        <v>0.012398663044359354</v>
+        <v>0.012381261286885548</v>
       </c>
       <c r="I37" s="4">
-        <v>27.494522573432391</v>
+        <v>27.494476614639666</v>
       </c>
       <c r="J37" s="4">
         <v>27.540841226762325</v>
       </c>
       <c r="K37" s="2">
-        <v>0.046318653329933568</v>
+        <v>0.046364612122658855</v>
       </c>
       <c r="L37" s="4">
-        <v>1.0211113664203797</v>
+        <v>1.0208179839011968</v>
       </c>
       <c r="M37" s="4">
         <v>1.0316530568262776</v>
       </c>
       <c r="N37" s="2">
-        <v>0.010541690405897919</v>
+        <v>0.010835072925080791</v>
       </c>
       <c r="O37" s="8" t="b">
         <v>1</v>
@@ -4733,28 +4733,28 @@
         <v>0.14782498678257339</v>
       </c>
       <c r="G38" s="3">
-        <v>0.12963093897012693</v>
+        <v>0.12962737222551801</v>
       </c>
       <c r="H38" s="2">
-        <v>0.018194047812446462</v>
+        <v>0.018197614557055375</v>
       </c>
       <c r="I38" s="4">
         <v>27.510986913418208</v>
       </c>
       <c r="J38" s="4">
-        <v>27.510652035070677</v>
+        <v>27.51137661338845</v>
       </c>
       <c r="K38" s="2">
-        <v>0.00033487834753032075</v>
+        <v>0.00038969997024196346</v>
       </c>
       <c r="L38" s="4">
         <v>1.0161354760887367</v>
       </c>
       <c r="M38" s="4">
-        <v>1.0472485163749152</v>
+        <v>1.0471073199709886</v>
       </c>
       <c r="N38" s="2">
-        <v>0.031113040286178562</v>
+        <v>0.030971843882251937</v>
       </c>
       <c r="O38" s="8" t="b">
         <v>1</v>
@@ -4808,31 +4808,31 @@
         <v>0.63</v>
       </c>
       <c r="F39" s="3">
-        <v>0.14072667976480996</v>
+        <v>0.14072649429716594</v>
       </c>
       <c r="G39" s="3">
         <v>0.14073507233730542</v>
       </c>
       <c r="H39" s="2">
-        <v>8.3925724954636571e-06</v>
+        <v>8.5780401394841554e-06</v>
       </c>
       <c r="I39" s="4">
-        <v>27.511410143177159</v>
+        <v>27.511397870762323</v>
       </c>
       <c r="J39" s="4">
         <v>27.510746696106935</v>
       </c>
       <c r="K39" s="2">
-        <v>0.00066344707022381044</v>
+        <v>0.0006511746553883313</v>
       </c>
       <c r="L39" s="4">
-        <v>1.0272584651785022</v>
+        <v>1.0274626664296907</v>
       </c>
       <c r="M39" s="4">
         <v>1.0271720387659724</v>
       </c>
       <c r="N39" s="2">
-        <v>8.642641252976091e-05</v>
+        <v>0.00029062766371823479</v>
       </c>
       <c r="O39" s="8" t="b">
         <v>1</v>
@@ -4886,31 +4886,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F40" s="3">
-        <v>0.14014788480104765</v>
+        <v>0.14014973745899126</v>
       </c>
       <c r="G40" s="3">
         <v>0.14129264245396833</v>
       </c>
       <c r="H40" s="2">
-        <v>0.001144757652920686</v>
+        <v>0.0011429049949770731</v>
       </c>
       <c r="I40" s="4">
-        <v>27.510672252470897</v>
+        <v>27.511415200482247</v>
       </c>
       <c r="J40" s="4">
         <v>27.511519994678054</v>
       </c>
       <c r="K40" s="2">
-        <v>0.00084774220715644333</v>
+        <v>0.00010479419580633476</v>
       </c>
       <c r="L40" s="4">
-        <v>1.0287461011005512</v>
+        <v>1.0277876850496561</v>
       </c>
       <c r="M40" s="4">
         <v>1.0261074891067381</v>
       </c>
       <c r="N40" s="2">
-        <v>0.0026386119938131003</v>
+        <v>0.0016801959429180169</v>
       </c>
       <c r="O40" s="8" t="b">
         <v>1</v>
@@ -4964,31 +4964,31 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0.12961379900393333</v>
+        <v>0.12961332423902663</v>
       </c>
       <c r="G41" s="3">
         <v>0.14782757704496471</v>
       </c>
       <c r="H41" s="2">
-        <v>0.018213778041031387</v>
+        <v>0.01821425280593808</v>
       </c>
       <c r="I41" s="4">
-        <v>27.510991866318364</v>
+        <v>27.510995397845932</v>
       </c>
       <c r="J41" s="4">
         <v>27.51057801257673</v>
       </c>
       <c r="K41" s="2">
-        <v>0.00041385374163382949</v>
+        <v>0.00041738526920198638</v>
       </c>
       <c r="L41" s="4">
-        <v>1.0473312299947235</v>
+        <v>1.0470527511506009</v>
       </c>
       <c r="M41" s="4">
         <v>1.0158883106408876</v>
       </c>
       <c r="N41" s="2">
-        <v>0.031442919353835919</v>
+        <v>0.031164440509713343</v>
       </c>
       <c r="O41" s="8" t="b">
         <v>1</v>
@@ -5042,31 +5042,31 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="F42" s="3">
-        <v>0.14770369166080508</v>
+        <v>0.14773159030990588</v>
       </c>
       <c r="G42" s="3">
         <v>0.13358439845450429</v>
       </c>
       <c r="H42" s="2">
-        <v>0.014119293206300787</v>
+        <v>0.014147191855401586</v>
       </c>
       <c r="I42" s="4">
-        <v>27.511393332490002</v>
+        <v>27.511394687667632</v>
       </c>
       <c r="J42" s="4">
         <v>27.511394746813323</v>
       </c>
       <c r="K42" s="2">
-        <v>1.4143233215690998e-06</v>
+        <v>5.9145691011508461e-08</v>
       </c>
       <c r="L42" s="4">
-        <v>1.0151593643325472</v>
+        <v>1.0152044350624183</v>
       </c>
       <c r="M42" s="4">
         <v>1.0394922579743049</v>
       </c>
       <c r="N42" s="2">
-        <v>0.024332893641757725</v>
+        <v>0.024287822911886581</v>
       </c>
       <c r="O42" s="8" t="b">
         <v>1</v>
@@ -5120,31 +5120,31 @@
         <v>0.29999999999999999</v>
       </c>
       <c r="F43" s="3">
-        <v>0.14164832345832731</v>
+        <v>0.14164876838070562</v>
       </c>
       <c r="G43" s="3">
         <v>0.13976804439380586</v>
       </c>
       <c r="H43" s="2">
-        <v>0.0018802790645214562</v>
+        <v>0.0018807239868997572</v>
       </c>
       <c r="I43" s="4">
-        <v>27.511375262577644</v>
+        <v>27.510405855081388</v>
       </c>
       <c r="J43" s="4">
         <v>27.510739403039679</v>
       </c>
       <c r="K43" s="2">
-        <v>0.00063585953796518879</v>
+        <v>0.00033354795829154682</v>
       </c>
       <c r="L43" s="4">
-        <v>1.0256730330404717</v>
+        <v>1.0254223054372371</v>
       </c>
       <c r="M43" s="4">
         <v>1.0291882138939155</v>
       </c>
       <c r="N43" s="2">
-        <v>0.0035151808534437112</v>
+        <v>0.0037659084566783463</v>
       </c>
       <c r="O43" s="8" t="b">
         <v>1</v>
@@ -5201,28 +5201,28 @@
         <v>0.14125637520199474</v>
       </c>
       <c r="G44" s="3">
-        <v>0.13991198899414872</v>
+        <v>0.13995018306917634</v>
       </c>
       <c r="H44" s="2">
-        <v>0.0013443862078460211</v>
+        <v>0.0013061921328184067</v>
       </c>
       <c r="I44" s="4">
         <v>27.511068143085993</v>
       </c>
       <c r="J44" s="4">
-        <v>27.512235084118629</v>
+        <v>27.51113000486248</v>
       </c>
       <c r="K44" s="2">
-        <v>0.0011669410326362595</v>
+        <v>6.1861776487148745e-05</v>
       </c>
       <c r="L44" s="4">
         <v>1.034573983346031</v>
       </c>
       <c r="M44" s="4">
-        <v>1.0562036553680731</v>
+        <v>1.0562565834222888</v>
       </c>
       <c r="N44" s="2">
-        <v>0.021629672022042135</v>
+        <v>0.021682600076257774</v>
       </c>
       <c r="O44" s="8" t="b">
         <v>1</v>
@@ -5276,31 +5276,31 @@
         <v>-0.085000000000000006</v>
       </c>
       <c r="F45" s="3">
-        <v>0.14072627984857264</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="G45" s="3">
         <v>0.14071574486709682</v>
       </c>
       <c r="H45" s="2">
-        <v>1.0534981475823768e-05</v>
+        <v>0</v>
       </c>
       <c r="I45" s="4">
-        <v>27.511397910621099</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="J45" s="4">
         <v>27.511393450254957</v>
       </c>
       <c r="K45" s="2">
-        <v>4.4603661422115693e-06</v>
+        <v>0</v>
       </c>
       <c r="L45" s="4">
-        <v>1.0274158185617246</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="M45" s="4">
         <v>1.0272508356047334</v>
       </c>
       <c r="N45" s="2">
-        <v>0.0001649829569911887</v>
+        <v>0</v>
       </c>
       <c r="O45" s="8" t="b">
         <v>1</v>
@@ -5354,31 +5354,31 @@
         <v>0.065000000000000002</v>
       </c>
       <c r="F46" s="3">
-        <v>0.14072627984857264</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="G46" s="3">
         <v>0.14072627984857264</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1.0534981475823768e-05</v>
       </c>
       <c r="I46" s="4">
-        <v>27.511397910621099</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="J46" s="4">
         <v>27.511397910621099</v>
       </c>
       <c r="K46" s="2">
-        <v>0</v>
+        <v>4.4603661422115693e-06</v>
       </c>
       <c r="L46" s="4">
-        <v>1.0274158185617246</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="M46" s="4">
         <v>1.0274158185617246</v>
       </c>
       <c r="N46" s="2">
-        <v>0</v>
+        <v>0.0001649829569911887</v>
       </c>
       <c r="O46" s="8" t="b">
         <v>1</v>
@@ -5432,31 +5432,31 @@
         <v>58000</v>
       </c>
       <c r="F47" s="3">
-        <v>0.14088202032243285</v>
+        <v>0.14088288053032103</v>
       </c>
       <c r="G47" s="3">
         <v>0.1397514612663881</v>
       </c>
       <c r="H47" s="2">
-        <v>0.0011305590560447554</v>
+        <v>0.0011314192639329257</v>
       </c>
       <c r="I47" s="4">
-        <v>27.495854565740103</v>
+        <v>27.495851793611621</v>
       </c>
       <c r="J47" s="4">
         <v>27.531399660938348</v>
       </c>
       <c r="K47" s="2">
-        <v>0.035545095198244781</v>
+        <v>0.035547867326727101</v>
       </c>
       <c r="L47" s="4">
-        <v>1.0249775439534874</v>
+        <v>1.0251255999398841</v>
       </c>
       <c r="M47" s="4">
         <v>1.0290498635504595</v>
       </c>
       <c r="N47" s="2">
-        <v>0.0040723195969720738</v>
+        <v>0.003924263610575407</v>
       </c>
       <c r="O47" s="8" t="b">
         <v>1</v>
@@ -5510,31 +5510,31 @@
         <v>38</v>
       </c>
       <c r="F48" s="3">
-        <v>0.1466163958831897</v>
+        <v>0.14662073550324412</v>
       </c>
       <c r="G48" s="3">
         <v>0.13553966810806278</v>
       </c>
       <c r="H48" s="2">
-        <v>0.011076727775126916</v>
+        <v>0.011081067395181332</v>
       </c>
       <c r="I48" s="4">
-        <v>27.511386613741934</v>
+        <v>27.510697404127029</v>
       </c>
       <c r="J48" s="4">
         <v>27.510632193677338</v>
       </c>
       <c r="K48" s="2">
-        <v>0.00075442006459525146</v>
+        <v>6.5210449690766836e-05</v>
       </c>
       <c r="L48" s="4">
-        <v>1.0179926243670208</v>
+        <v>1.0180018406770086</v>
       </c>
       <c r="M48" s="4">
         <v>1.036112619525239</v>
       </c>
       <c r="N48" s="2">
-        <v>0.018119995158218272</v>
+        <v>0.018110778848230424</v>
       </c>
       <c r="O48" s="8" t="b">
         <v>1</v>
@@ -5588,31 +5588,31 @@
         <v>0.15</v>
       </c>
       <c r="F49" s="3">
-        <v>0.1407362686132457</v>
+        <v>0.14073712768880683</v>
       </c>
       <c r="G49" s="3">
         <v>0.14072315703969443</v>
       </c>
       <c r="H49" s="2">
-        <v>1.3111573551272127e-05</v>
+        <v>1.3970649112404754e-05</v>
       </c>
       <c r="I49" s="4">
-        <v>27.510614590467071</v>
+        <v>27.511433138486723</v>
       </c>
       <c r="J49" s="4">
         <v>27.510938019173978</v>
       </c>
       <c r="K49" s="2">
-        <v>0.00032342870690627024</v>
+        <v>0.00049511931274537346</v>
       </c>
       <c r="L49" s="4">
-        <v>1.0270164544561597</v>
+        <v>1.0275225719736241</v>
       </c>
       <c r="M49" s="4">
         <v>1.0275010774411821</v>
       </c>
       <c r="N49" s="2">
-        <v>0.0004846229850223871</v>
+        <v>2.1494532441934666e-05</v>
       </c>
       <c r="O49" s="8" t="b">
         <v>1</v>
@@ -5666,31 +5666,31 @@
         <v>0.501</v>
       </c>
       <c r="F50" s="3">
-        <v>0.14076340212878799</v>
+        <v>0.14076133123834303</v>
       </c>
       <c r="G50" s="3">
         <v>0.14062980713959203</v>
       </c>
       <c r="H50" s="2">
-        <v>0.00013359498919596202</v>
+        <v>0.00013152409875100135</v>
       </c>
       <c r="I50" s="4">
-        <v>27.511380428449627</v>
+        <v>27.510684393105294</v>
       </c>
       <c r="J50" s="4">
         <v>27.509359081284458</v>
       </c>
       <c r="K50" s="2">
-        <v>0.0020213471651686632</v>
+        <v>0.0013253118208353953</v>
       </c>
       <c r="L50" s="4">
-        <v>1.0332870452223877</v>
+        <v>1.0329268197469581</v>
       </c>
       <c r="M50" s="4">
         <v>1.0199355949752935</v>
       </c>
       <c r="N50" s="2">
-        <v>0.013351450247094165</v>
+        <v>0.012991224771664589</v>
       </c>
       <c r="O50" s="8" t="b">
         <v>1</v>
@@ -5744,31 +5744,31 @@
         <v>0.46999999999999997</v>
       </c>
       <c r="F51" s="3">
-        <v>0.13875017970680645</v>
+        <v>0.13875357315226541</v>
       </c>
       <c r="G51" s="3">
         <v>0.1416456941494762</v>
       </c>
       <c r="H51" s="2">
-        <v>0.0028955144426697499</v>
+        <v>0.0028921209972107842</v>
       </c>
       <c r="I51" s="4">
-        <v>27.514270622311983</v>
+        <v>27.514155543708569</v>
       </c>
       <c r="J51" s="4">
         <v>27.506328873617292</v>
       </c>
       <c r="K51" s="2">
-        <v>0.0079417486946908866</v>
+        <v>0.0078266700912763554</v>
       </c>
       <c r="L51" s="4">
-        <v>1.0029933845610095</v>
+        <v>1.003592359706831</v>
       </c>
       <c r="M51" s="4">
         <v>1.0536175509104493</v>
       </c>
       <c r="N51" s="2">
-        <v>0.050624166349439781</v>
+        <v>0.050025191203618258</v>
       </c>
       <c r="O51" s="8" t="b">
         <v>1</v>
@@ -5822,31 +5822,31 @@
         <v>-0.055</v>
       </c>
       <c r="F52" s="3">
-        <v>0.14072952593457547</v>
+        <v>0.14073016555950657</v>
       </c>
       <c r="G52" s="3">
         <v>0.14072348602602494</v>
       </c>
       <c r="H52" s="2">
-        <v>6.0399085505258299e-06</v>
+        <v>6.6795334816294183e-06</v>
       </c>
       <c r="I52" s="4">
-        <v>27.511436328342768</v>
+        <v>27.510718266349272</v>
       </c>
       <c r="J52" s="4">
         <v>27.510923105049585</v>
       </c>
       <c r="K52" s="2">
-        <v>0.00051322329318281845</v>
+        <v>0.00020483870031284823</v>
       </c>
       <c r="L52" s="4">
-        <v>1.02734133338427</v>
+        <v>1.0273009004349529</v>
       </c>
       <c r="M52" s="4">
         <v>1.027212747435581</v>
       </c>
       <c r="N52" s="2">
-        <v>0.00012858594868903062</v>
+        <v>8.8152999371926555e-05</v>
       </c>
       <c r="O52" s="8" t="b">
         <v>1</v>
@@ -5900,31 +5900,31 @@
         <v>0.501</v>
       </c>
       <c r="F53" s="3">
-        <v>0.1407481026123146</v>
+        <v>0.14075079946177704</v>
       </c>
       <c r="G53" s="3">
         <v>0.14068271046139058</v>
       </c>
       <c r="H53" s="2">
-        <v>6.5392150924020731e-05</v>
+        <v>6.808900038646204e-05</v>
       </c>
       <c r="I53" s="4">
-        <v>27.511003653796138</v>
+        <v>27.511035672990545</v>
       </c>
       <c r="J53" s="4">
         <v>27.510122323365295</v>
       </c>
       <c r="K53" s="2">
-        <v>0.00088133043084326346</v>
+        <v>0.00091334962525024821</v>
       </c>
       <c r="L53" s="4">
-        <v>1.0337630020818811</v>
+        <v>1.0338373218118739</v>
       </c>
       <c r="M53" s="4">
         <v>1.0192863945159485</v>
       </c>
       <c r="N53" s="2">
-        <v>0.014476607565932609</v>
+        <v>0.014550927295925442</v>
       </c>
       <c r="O53" s="8" t="b">
         <v>1</v>
@@ -5978,31 +5978,31 @@
         <v>0.46999999999999997</v>
       </c>
       <c r="F54" s="3">
-        <v>0.13831774353069556</v>
+        <v>0.13832748959065552</v>
       </c>
       <c r="G54" s="3">
         <v>0.14229613271601546</v>
       </c>
       <c r="H54" s="2">
-        <v>0.0039783891853198972</v>
+        <v>0.0039686431253599386</v>
       </c>
       <c r="I54" s="4">
-        <v>27.506006700784781</v>
+        <v>27.506558110389335</v>
       </c>
       <c r="J54" s="4">
         <v>27.516182898113243</v>
       </c>
       <c r="K54" s="2">
-        <v>0.010176197328462422</v>
+        <v>0.0096247877239079571</v>
       </c>
       <c r="L54" s="4">
-        <v>1.0035179698443082</v>
+        <v>1.0033044765007326</v>
       </c>
       <c r="M54" s="4">
         <v>1.0551884216580216</v>
       </c>
       <c r="N54" s="2">
-        <v>0.051670451813713436</v>
+        <v>0.051883945157289002</v>
       </c>
       <c r="O54" s="8" t="b">
         <v>1</v>
@@ -6056,31 +6056,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F55" s="3">
-        <v>0.14094970074205518</v>
+        <v>0.14094692919664328</v>
       </c>
       <c r="G55" s="3">
         <v>0.14051005951874693</v>
       </c>
       <c r="H55" s="2">
-        <v>0.00043964122330825139</v>
+        <v>0.00043686967789635656</v>
       </c>
       <c r="I55" s="4">
-        <v>27.511626173917762</v>
+        <v>27.510733589987751</v>
       </c>
       <c r="J55" s="4">
         <v>27.511288799864928</v>
       </c>
       <c r="K55" s="2">
-        <v>0.00033737405283318367</v>
+        <v>0.00055520987717727621</v>
       </c>
       <c r="L55" s="4">
-        <v>1.0292990033555918</v>
+        <v>1.0293365439036859</v>
       </c>
       <c r="M55" s="4">
         <v>1.0242151381620319</v>
       </c>
       <c r="N55" s="2">
-        <v>0.0050838651935598556</v>
+        <v>0.0051214057416539838</v>
       </c>
       <c r="O55" s="8" t="b">
         <v>1</v>
@@ -6134,31 +6134,31 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="F56" s="3">
-        <v>0.14050533607702942</v>
+        <v>0.14050908698443987</v>
       </c>
       <c r="G56" s="3">
         <v>0.1408426237817548</v>
       </c>
       <c r="H56" s="2">
-        <v>0.00033728770472538083</v>
+        <v>0.00033353679731493169</v>
       </c>
       <c r="I56" s="4">
-        <v>27.510050452212681</v>
+        <v>27.510482527880981</v>
       </c>
       <c r="J56" s="4">
         <v>27.511959902742717</v>
       </c>
       <c r="K56" s="2">
-        <v>0.0019094505300358833</v>
+        <v>0.0014773748617358251</v>
       </c>
       <c r="L56" s="4">
-        <v>1.0148381919895371</v>
+        <v>1.0148249155562874</v>
       </c>
       <c r="M56" s="4">
         <v>1.0362888065498088</v>
       </c>
       <c r="N56" s="2">
-        <v>0.021450614560271752</v>
+        <v>0.021463890993521417</v>
       </c>
       <c r="O56" s="8" t="b">
         <v>1</v>
@@ -6212,31 +6212,31 @@
         <v>0.5</v>
       </c>
       <c r="F57" s="3">
-        <v>0.14401743215280033</v>
+        <v>0.14401528752568535</v>
       </c>
       <c r="G57" s="3">
         <v>0.13809870236411298</v>
       </c>
       <c r="H57" s="2">
-        <v>0.0059187297886873491</v>
+        <v>0.0059165851615723686</v>
       </c>
       <c r="I57" s="4">
-        <v>27.511809385493791</v>
+        <v>27.510910380474684</v>
       </c>
       <c r="J57" s="4">
         <v>27.509726406681068</v>
       </c>
       <c r="K57" s="2">
-        <v>0.0020829788127230131</v>
+        <v>0.001183973793615678</v>
       </c>
       <c r="L57" s="4">
-        <v>1.0815380572803306</v>
+        <v>1.0820544695304299</v>
       </c>
       <c r="M57" s="4">
         <v>0.99164031787614226</v>
       </c>
       <c r="N57" s="2">
-        <v>0.089897739404188326</v>
+        <v>0.090414151654287678</v>
       </c>
       <c r="O57" s="8" t="b">
         <v>1</v>
@@ -6290,31 +6290,31 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="F58" s="3">
-        <v>0.14108397022570143</v>
+        <v>0.1410832667405614</v>
       </c>
       <c r="G58" s="3">
         <v>0.14047293140606695</v>
       </c>
       <c r="H58" s="2">
-        <v>0.00061103881963447959</v>
+        <v>0.00061033533449444954</v>
       </c>
       <c r="I58" s="4">
-        <v>27.512317350632998</v>
+        <v>27.512506880904084</v>
       </c>
       <c r="J58" s="4">
         <v>27.51028703541823</v>
       </c>
       <c r="K58" s="2">
-        <v>0.0020303152147675974</v>
+        <v>0.0022198454858539662</v>
       </c>
       <c r="L58" s="4">
-        <v>1.0274507571549829</v>
+        <v>1.0273864327501268</v>
       </c>
       <c r="M58" s="4">
         <v>1.0275895140347362</v>
       </c>
       <c r="N58" s="2">
-        <v>0.00013875687975328788</v>
+        <v>0.00020308128460944097</v>
       </c>
       <c r="O58" s="8" t="b">
         <v>1</v>
@@ -6368,31 +6368,31 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F59" s="3">
-        <v>0.13862132919138884</v>
+        <v>0.13862914734298953</v>
       </c>
       <c r="G59" s="3">
         <v>0.14268014457133579</v>
       </c>
       <c r="H59" s="2">
-        <v>0.0040588153799469562</v>
+        <v>0.0040509972283462592</v>
       </c>
       <c r="I59" s="4">
-        <v>27.510291195889295</v>
+        <v>27.510762311886026</v>
       </c>
       <c r="J59" s="4">
         <v>27.512126988651858</v>
       </c>
       <c r="K59" s="2">
-        <v>0.00183579276256296</v>
+        <v>0.0013646767658315184</v>
       </c>
       <c r="L59" s="4">
-        <v>1.0312806874242402</v>
+        <v>1.0312108212997868</v>
       </c>
       <c r="M59" s="4">
         <v>1.0243511033014749</v>
       </c>
       <c r="N59" s="2">
-        <v>0.0069295841227652311</v>
+        <v>0.006859717998311865</v>
       </c>
       <c r="O59" s="8" t="b">
         <v>1</v>
@@ -6446,31 +6446,31 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="F60" s="3">
-        <v>0.13819770701936335</v>
+        <v>0.13819835518224652</v>
       </c>
       <c r="G60" s="3">
         <v>0.14387749395397831</v>
       </c>
       <c r="H60" s="2">
-        <v>0.005679786934614961</v>
+        <v>0.0056791387717317898</v>
       </c>
       <c r="I60" s="4">
-        <v>27.507879234711424</v>
+        <v>27.507886157934934</v>
       </c>
       <c r="J60" s="4">
         <v>27.506371660305206</v>
       </c>
       <c r="K60" s="2">
-        <v>0.0015075744062187368</v>
+        <v>0.0015144976297278845</v>
       </c>
       <c r="L60" s="4">
-        <v>1.0256347477719368</v>
+        <v>1.0246401809521215</v>
       </c>
       <c r="M60" s="4">
         <v>1.0293352516604937</v>
       </c>
       <c r="N60" s="2">
-        <v>0.0037005038885569164</v>
+        <v>0.0046950707083721621</v>
       </c>
       <c r="O60" s="8" t="b">
         <v>1</v>
@@ -6524,31 +6524,31 @@
         <v>-0.074999999999999997</v>
       </c>
       <c r="F61" s="3">
-        <v>0.13966993256970495</v>
+        <v>0.13968359371386585</v>
       </c>
       <c r="G61" s="3">
         <v>0.14211037404304155</v>
       </c>
       <c r="H61" s="2">
-        <v>0.0024404414733366076</v>
+        <v>0.002426780329175704</v>
       </c>
       <c r="I61" s="4">
-        <v>27.510844255991174</v>
+        <v>27.510883535542177</v>
       </c>
       <c r="J61" s="4">
         <v>27.512265459883679</v>
       </c>
       <c r="K61" s="2">
-        <v>0.0014212038925052184</v>
+        <v>0.0013819243415014171</v>
       </c>
       <c r="L61" s="4">
-        <v>1.0205459099208085</v>
+        <v>1.0201699148733758</v>
       </c>
       <c r="M61" s="4">
         <v>1.0373502102975718</v>
       </c>
       <c r="N61" s="2">
-        <v>0.016804300376763281</v>
+        <v>0.017180295424195968</v>
       </c>
       <c r="O61" s="8" t="b">
         <v>1</v>
@@ -6602,31 +6602,31 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F62" s="3">
-        <v>0.14031695957682539</v>
+        <v>0.14033042243817209</v>
       </c>
       <c r="G62" s="3">
         <v>0.14115846369812707</v>
       </c>
       <c r="H62" s="2">
-        <v>0.00084150412130168384</v>
+        <v>0.00082804125995497579</v>
       </c>
       <c r="I62" s="4">
-        <v>27.511959969106215</v>
+        <v>27.511362128869166</v>
       </c>
       <c r="J62" s="4">
         <v>27.50998005820486</v>
       </c>
       <c r="K62" s="2">
-        <v>0.0019799109013547422</v>
+        <v>0.0013820706643059566</v>
       </c>
       <c r="L62" s="4">
-        <v>1.0268935054516402</v>
+        <v>1.0269021434432677</v>
       </c>
       <c r="M62" s="4">
         <v>1.0303829393450623</v>
       </c>
       <c r="N62" s="2">
-        <v>0.0034894338934221558</v>
+        <v>0.00348079590179462</v>
       </c>
       <c r="O62" s="8" t="b">
         <v>1</v>
@@ -6680,31 +6680,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F63" s="3">
-        <v>0.15124652186728374</v>
+        <v>0.15123722170946213</v>
       </c>
       <c r="G63" s="3">
         <v>0.12992018461351812</v>
       </c>
       <c r="H63" s="2">
-        <v>0.02132633725376562</v>
+        <v>0.021317037095944014</v>
       </c>
       <c r="I63" s="4">
-        <v>27.518496287829692</v>
+        <v>27.518799616578122</v>
       </c>
       <c r="J63" s="4">
         <v>27.506800078323238</v>
       </c>
       <c r="K63" s="2">
-        <v>0.01169620950645367</v>
+        <v>0.011999538254883646</v>
       </c>
       <c r="L63" s="4">
-        <v>1.1067271100321709</v>
+        <v>1.107419344368983</v>
       </c>
       <c r="M63" s="4">
         <v>0.96007517627794925</v>
       </c>
       <c r="N63" s="2">
-        <v>0.1466519337542217</v>
+        <v>0.14734416809103379</v>
       </c>
       <c r="O63" s="8" t="b">
         <v>1</v>
@@ -6758,31 +6758,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F64" s="3">
-        <v>0.13883036455286732</v>
+        <v>0.13883990155493717</v>
       </c>
       <c r="G64" s="3">
         <v>0.1425896382049934</v>
       </c>
       <c r="H64" s="2">
-        <v>0.0037592736521260828</v>
+        <v>0.0037497366500562346</v>
       </c>
       <c r="I64" s="4">
-        <v>27.510933092522464</v>
+        <v>27.511060897154948</v>
       </c>
       <c r="J64" s="4">
         <v>27.51068792770775</v>
       </c>
       <c r="K64" s="2">
-        <v>0.00024516481471437146</v>
+        <v>0.00037296944719855674</v>
       </c>
       <c r="L64" s="4">
-        <v>1.0411811916013216</v>
+        <v>1.0411560581126662</v>
       </c>
       <c r="M64" s="4">
         <v>1.0142561081074659</v>
       </c>
       <c r="N64" s="2">
-        <v>0.026925083493855695</v>
+        <v>0.026899950005200291</v>
       </c>
       <c r="O64" s="8" t="b">
         <v>1</v>
@@ -6836,31 +6836,31 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="F65" s="3">
-        <v>0.13081141389078113</v>
+        <v>0.13083067307272422</v>
       </c>
       <c r="G65" s="3">
         <v>0.14838458249548564</v>
       </c>
       <c r="H65" s="2">
-        <v>0.017573168604704509</v>
+        <v>0.017553909422761416</v>
       </c>
       <c r="I65" s="4">
-        <v>27.511975879338422</v>
+        <v>27.511174257424216</v>
       </c>
       <c r="J65" s="4">
         <v>27.510505577784841</v>
       </c>
       <c r="K65" s="2">
-        <v>0.0014703015535815211</v>
+        <v>0.00066867963937511377</v>
       </c>
       <c r="L65" s="4">
-        <v>1.1020979612910658</v>
+        <v>1.1020703844036401</v>
       </c>
       <c r="M65" s="4">
         <v>0.97279919995684938</v>
       </c>
       <c r="N65" s="2">
-        <v>0.12929876133421636</v>
+        <v>0.12927118444679075</v>
       </c>
       <c r="O65" s="8" t="b">
         <v>1</v>
@@ -6914,31 +6914,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F66" s="3">
-        <v>0.13343462123112424</v>
+        <v>0.13343462424339298</v>
       </c>
       <c r="G66" s="3">
         <v>0.15133231540071998</v>
       </c>
       <c r="H66" s="2">
-        <v>0.017897694169595746</v>
+        <v>0.017897691157327006</v>
       </c>
       <c r="I66" s="4">
-        <v>27.509099878884001</v>
+        <v>27.509042421481979</v>
       </c>
       <c r="J66" s="4">
         <v>27.512868013922116</v>
       </c>
       <c r="K66" s="2">
-        <v>0.0037681350381149059</v>
+        <v>0.0038255924401369157</v>
       </c>
       <c r="L66" s="4">
-        <v>0.99891071658624142</v>
+        <v>0.99961665169455327</v>
       </c>
       <c r="M66" s="4">
         <v>1.0715236363325973</v>
       </c>
       <c r="N66" s="2">
-        <v>0.072612919746355864</v>
+        <v>0.071906984638044014</v>
       </c>
       <c r="O66" s="8" t="b">
         <v>1</v>
@@ -6992,31 +6992,31 @@
         <v>-0.080000000000000002</v>
       </c>
       <c r="F67" s="3">
-        <v>0.14072627984857264</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="G67" s="3">
         <v>0.14071574486709682</v>
       </c>
       <c r="H67" s="2">
-        <v>1.0534981475823768e-05</v>
+        <v>0</v>
       </c>
       <c r="I67" s="4">
-        <v>27.511397910621099</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="J67" s="4">
         <v>27.511393450254957</v>
       </c>
       <c r="K67" s="2">
-        <v>4.4603661422115693e-06</v>
+        <v>0</v>
       </c>
       <c r="L67" s="4">
-        <v>1.0274158185617246</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="M67" s="4">
         <v>1.0272508356047334</v>
       </c>
       <c r="N67" s="2">
-        <v>0.0001649829569911887</v>
+        <v>0</v>
       </c>
       <c r="O67" s="8" t="b">
         <v>1</v>
@@ -7070,31 +7070,31 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="F68" s="3">
-        <v>0.14072627984857264</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="G68" s="3">
         <v>0.14072627984857264</v>
       </c>
       <c r="H68" s="2">
-        <v>0</v>
+        <v>1.0534981475823768e-05</v>
       </c>
       <c r="I68" s="4">
-        <v>27.511397910621099</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="J68" s="4">
         <v>27.511397910621099</v>
       </c>
       <c r="K68" s="2">
-        <v>0</v>
+        <v>4.4603661422115693e-06</v>
       </c>
       <c r="L68" s="4">
-        <v>1.0274158185617246</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="M68" s="4">
         <v>1.0274158185617246</v>
       </c>
       <c r="N68" s="2">
-        <v>0</v>
+        <v>0.0001649829569911887</v>
       </c>
       <c r="O68" s="8" t="b">
         <v>1</v>
@@ -7148,31 +7148,31 @@
         <v>0.215</v>
       </c>
       <c r="F69" s="3">
-        <v>0.14072627984857264</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="G69" s="3">
         <v>0.14071574486709682</v>
       </c>
       <c r="H69" s="2">
-        <v>1.0534981475823768e-05</v>
+        <v>0</v>
       </c>
       <c r="I69" s="4">
-        <v>27.511397910621099</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="J69" s="4">
         <v>27.511393450254957</v>
       </c>
       <c r="K69" s="2">
-        <v>4.4603661422115693e-06</v>
+        <v>0</v>
       </c>
       <c r="L69" s="4">
-        <v>1.0274158185617246</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="M69" s="4">
         <v>1.0272508356047334</v>
       </c>
       <c r="N69" s="2">
-        <v>0.0001649829569911887</v>
+        <v>0</v>
       </c>
       <c r="O69" s="8" t="b">
         <v>1</v>
@@ -7226,31 +7226,31 @@
         <v>-0.11</v>
       </c>
       <c r="F70" s="3">
-        <v>0.14072627984857264</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="G70" s="3">
         <v>0.14072627984857264</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>1.0534981475823768e-05</v>
       </c>
       <c r="I70" s="4">
-        <v>27.511397910621099</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="J70" s="4">
         <v>27.511397910621099</v>
       </c>
       <c r="K70" s="2">
-        <v>0</v>
+        <v>4.4603661422115693e-06</v>
       </c>
       <c r="L70" s="4">
-        <v>1.0274158185617246</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="M70" s="4">
         <v>1.0274158185617246</v>
       </c>
       <c r="N70" s="2">
-        <v>0</v>
+        <v>0.0001649829569911887</v>
       </c>
       <c r="O70" s="8" t="b">
         <v>1</v>
@@ -7304,31 +7304,31 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="F71" s="3">
-        <v>0.14072627984857264</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="G71" s="3">
         <v>0.14071574486709682</v>
       </c>
       <c r="H71" s="2">
-        <v>1.0534981475823768e-05</v>
+        <v>0</v>
       </c>
       <c r="I71" s="4">
-        <v>27.511397910621099</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="J71" s="4">
         <v>27.511393450254957</v>
       </c>
       <c r="K71" s="2">
-        <v>4.4603661422115693e-06</v>
+        <v>0</v>
       </c>
       <c r="L71" s="4">
-        <v>1.0274158185617246</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="M71" s="4">
         <v>1.0272508356047334</v>
       </c>
       <c r="N71" s="2">
-        <v>0.0001649829569911887</v>
+        <v>0</v>
       </c>
       <c r="O71" s="8" t="b">
         <v>1</v>
@@ -7385,28 +7385,28 @@
         <v>0.14072627984857264</v>
       </c>
       <c r="G72" s="3">
-        <v>0.14072627984857264</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>1.0534981475823768e-05</v>
       </c>
       <c r="I72" s="4">
         <v>27.511397910621099</v>
       </c>
       <c r="J72" s="4">
-        <v>27.511397910621099</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="K72" s="2">
-        <v>0</v>
+        <v>4.4603661422115693e-06</v>
       </c>
       <c r="L72" s="4">
         <v>1.0274158185617246</v>
       </c>
       <c r="M72" s="4">
-        <v>1.0274158185617246</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="N72" s="2">
-        <v>0</v>
+        <v>0.0001649829569911887</v>
       </c>
       <c r="O72" s="8" t="b">
         <v>1</v>
@@ -7460,31 +7460,31 @@
         <v>-0.0038700000000000002</v>
       </c>
       <c r="F73" s="3">
-        <v>0.14038652142691993</v>
+        <v>0.14038123709205486</v>
       </c>
       <c r="G73" s="3">
         <v>0.14174180377019235</v>
       </c>
       <c r="H73" s="2">
-        <v>0.0013552823432724237</v>
+        <v>0.0013605666781374981</v>
       </c>
       <c r="I73" s="4">
-        <v>27.510747820037068</v>
+        <v>27.511562489032826</v>
       </c>
       <c r="J73" s="4">
         <v>27.510421893656599</v>
       </c>
       <c r="K73" s="2">
-        <v>0.00032592638046935463</v>
+        <v>0.0011405953762277932</v>
       </c>
       <c r="L73" s="4">
-        <v>1.0306916743490413</v>
+        <v>1.031066820962858</v>
       </c>
       <c r="M73" s="4">
         <v>1.0171536285781329</v>
       </c>
       <c r="N73" s="2">
-        <v>0.013538045770908447</v>
+        <v>0.013913192384725104</v>
       </c>
       <c r="O73" s="8" t="b">
         <v>1</v>
@@ -7541,28 +7541,28 @@
         <v>0.14245493226669509</v>
       </c>
       <c r="G74" s="3">
-        <v>0.13877630861220516</v>
+        <v>0.13877619175318515</v>
       </c>
       <c r="H74" s="2">
-        <v>0.0036786236544899265</v>
+        <v>0.0036787405135099427</v>
       </c>
       <c r="I74" s="4">
         <v>27.510988292590412</v>
       </c>
       <c r="J74" s="4">
-        <v>27.512438050668948</v>
+        <v>27.51111092268701</v>
       </c>
       <c r="K74" s="2">
-        <v>0.0014497580785359787</v>
+        <v>0.00012263009659818636</v>
       </c>
       <c r="L74" s="4">
         <v>1.0073050999227979</v>
       </c>
       <c r="M74" s="4">
-        <v>1.0489110884453319</v>
+        <v>1.04886638215211</v>
       </c>
       <c r="N74" s="2">
-        <v>0.041605988522533943</v>
+        <v>0.041561282229312102</v>
       </c>
       <c r="O74" s="8" t="b">
         <v>1</v>
@@ -7616,31 +7616,31 @@
         <v>0.57286000000000004</v>
       </c>
       <c r="F75" s="3">
-        <v>0.14235474693603606</v>
+        <v>0.14234834552845405</v>
       </c>
       <c r="G75" s="3">
         <v>0.13958562211606715</v>
       </c>
       <c r="H75" s="2">
-        <v>0.00276912481996891</v>
+        <v>0.0027627234123868971</v>
       </c>
       <c r="I75" s="4">
-        <v>27.510686129550322</v>
+        <v>27.510677954774792</v>
       </c>
       <c r="J75" s="4">
         <v>27.511583912294043</v>
       </c>
       <c r="K75" s="2">
-        <v>0.00089778274372065425</v>
+        <v>0.00090595751925093282</v>
       </c>
       <c r="L75" s="4">
-        <v>1.0087408435450354</v>
+        <v>1.0090042600044988</v>
       </c>
       <c r="M75" s="4">
         <v>1.0405810818441068</v>
       </c>
       <c r="N75" s="2">
-        <v>0.031840238299071455</v>
+        <v>0.031576821839607971</v>
       </c>
       <c r="O75" s="8" t="b">
         <v>1</v>
@@ -7694,31 +7694,31 @@
         <v>-0.023587</v>
       </c>
       <c r="F76" s="3">
-        <v>0.14108090357411834</v>
+        <v>0.14109287310694493</v>
       </c>
       <c r="G76" s="3">
         <v>0.14060307889289858</v>
       </c>
       <c r="H76" s="2">
-        <v>0.00047782468121976285</v>
+        <v>0.00048979421404635182</v>
       </c>
       <c r="I76" s="4">
-        <v>27.512259768724391</v>
+        <v>27.512273194972409</v>
       </c>
       <c r="J76" s="4">
         <v>27.511499519639756</v>
       </c>
       <c r="K76" s="2">
-        <v>0.00076024908463523389</v>
+        <v>0.00077367533265260136</v>
       </c>
       <c r="L76" s="4">
-        <v>1.0238331519427406</v>
+        <v>1.0236979984790045</v>
       </c>
       <c r="M76" s="4">
         <v>1.0284841665616278</v>
       </c>
       <c r="N76" s="2">
-        <v>0.0046510146188871726</v>
+        <v>0.0047861680826233322</v>
       </c>
       <c r="O76" s="8" t="b">
         <v>1</v>
@@ -7772,31 +7772,31 @@
         <v>0.746</v>
       </c>
       <c r="F77" s="3">
-        <v>0.14214903690284009</v>
+        <v>0.14214275790674807</v>
       </c>
       <c r="G77" s="3">
         <v>0.13950811377398475</v>
       </c>
       <c r="H77" s="2">
-        <v>0.0026409231288553325</v>
+        <v>0.0026346441327633197</v>
       </c>
       <c r="I77" s="4">
-        <v>27.510671472529168</v>
+        <v>27.511354260745634</v>
       </c>
       <c r="J77" s="4">
         <v>27.511725944248951</v>
       </c>
       <c r="K77" s="2">
-        <v>0.0010544717197831233</v>
+        <v>0.0003716835033173993</v>
       </c>
       <c r="L77" s="4">
-        <v>1.0114219589436722</v>
+        <v>1.0119084814396264</v>
       </c>
       <c r="M77" s="4">
         <v>1.040445291439837</v>
       </c>
       <c r="N77" s="2">
-        <v>0.029023332496164844</v>
+        <v>0.028536810000210577</v>
       </c>
       <c r="O77" s="8" t="b">
         <v>1</v>
@@ -7850,31 +7850,31 @@
         <v>0.17999999999999999</v>
       </c>
       <c r="F78" s="3">
-        <v>0.14129779291630484</v>
+        <v>0.14128655124439141</v>
       </c>
       <c r="G78" s="3">
         <v>0.14005368050573549</v>
       </c>
       <c r="H78" s="2">
-        <v>0.001244112410569348</v>
+        <v>0.0012328707386559112</v>
       </c>
       <c r="I78" s="4">
-        <v>27.510673033880721</v>
+        <v>27.51146407245858</v>
       </c>
       <c r="J78" s="4">
         <v>27.5110307102305</v>
       </c>
       <c r="K78" s="2">
-        <v>0.00035767634977901253</v>
+        <v>0.00043336222807965896</v>
       </c>
       <c r="L78" s="4">
-        <v>1.0203707696437345</v>
+        <v>1.0203732567774515</v>
       </c>
       <c r="M78" s="4">
         <v>1.034651422656717</v>
       </c>
       <c r="N78" s="2">
-        <v>0.014280653012982425</v>
+        <v>0.014278165879265448</v>
       </c>
       <c r="O78" s="8" t="b">
         <v>1</v>
@@ -7928,31 +7928,31 @@
         <v>0.02</v>
       </c>
       <c r="F79" s="3">
-        <v>0.14072115912881214</v>
+        <v>0.14074141119587835</v>
       </c>
       <c r="G79" s="3">
         <v>0.14072690518552586</v>
       </c>
       <c r="H79" s="2">
-        <v>5.746056713717973e-06</v>
+        <v>1.4506010352494103e-05</v>
       </c>
       <c r="I79" s="4">
-        <v>27.511478366558833</v>
+        <v>27.511466276638203</v>
       </c>
       <c r="J79" s="4">
         <v>27.511319504369567</v>
       </c>
       <c r="K79" s="2">
-        <v>0.00015886218926652873</v>
+        <v>0.00014677226863568649</v>
       </c>
       <c r="L79" s="4">
-        <v>1.0275458710196539</v>
+        <v>1.0268165907815647</v>
       </c>
       <c r="M79" s="4">
         <v>1.0275136392284456</v>
       </c>
       <c r="N79" s="2">
-        <v>3.2231791208259253e-05</v>
+        <v>0.00069704844688089907</v>
       </c>
       <c r="O79" s="8" t="b">
         <v>1</v>
@@ -8006,31 +8006,31 @@
         <v>0.76000000000000001</v>
       </c>
       <c r="F80" s="3">
-        <v>0.14072493115134913</v>
+        <v>0.14073245917566454</v>
       </c>
       <c r="G80" s="3">
         <v>0.14073348410850908</v>
       </c>
       <c r="H80" s="2">
-        <v>8.5529571599574084e-06</v>
+        <v>1.0249328445399719e-06</v>
       </c>
       <c r="I80" s="4">
-        <v>27.511402412528185</v>
+        <v>27.510590623865767</v>
       </c>
       <c r="J80" s="4">
         <v>27.511371412318056</v>
       </c>
       <c r="K80" s="2">
-        <v>3.1000210128695471e-05</v>
+        <v>0.00078078845228901628</v>
       </c>
       <c r="L80" s="4">
-        <v>1.0263833552649269</v>
+        <v>1.0269164559272082</v>
       </c>
       <c r="M80" s="4">
         <v>1.0273933385240866</v>
       </c>
       <c r="N80" s="2">
-        <v>0.0010099832591596858</v>
+        <v>0.00047688259687839185</v>
       </c>
       <c r="O80" s="8" t="b">
         <v>1</v>
@@ -8084,31 +8084,31 @@
         <v>0.34999999999999998</v>
       </c>
       <c r="F81" s="3">
-        <v>0.140694176180515</v>
+        <v>0.14070555878929239</v>
       </c>
       <c r="G81" s="3">
         <v>0.14075404809781861</v>
       </c>
       <c r="H81" s="2">
-        <v>5.9871917303611077e-05</v>
+        <v>4.8489308526217245e-05</v>
       </c>
       <c r="I81" s="4">
-        <v>27.510264461842212</v>
+        <v>27.510875849877436</v>
       </c>
       <c r="J81" s="4">
         <v>27.511655055561562</v>
       </c>
       <c r="K81" s="2">
-        <v>0.0013905937193499085</v>
+        <v>0.0007792056841253725</v>
       </c>
       <c r="L81" s="4">
-        <v>1.0271312870449063</v>
+        <v>1.0273949838039909</v>
       </c>
       <c r="M81" s="4">
         <v>1.0272483923011233</v>
       </c>
       <c r="N81" s="2">
-        <v>0.0001171052562169983</v>
+        <v>0.00014659150286755462</v>
       </c>
       <c r="O81" s="8" t="b">
         <v>1</v>
@@ -8162,31 +8162,31 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="F82" s="3">
-        <v>0.14258185279278496</v>
+        <v>0.1425781307089414</v>
       </c>
       <c r="G82" s="3">
         <v>0.13886283276341999</v>
       </c>
       <c r="H82" s="2">
-        <v>0.0037190200293649722</v>
+        <v>0.0037152979455214175</v>
       </c>
       <c r="I82" s="4">
-        <v>27.502417847472486</v>
+        <v>27.502424768814137</v>
       </c>
       <c r="J82" s="4">
         <v>27.519438059654647</v>
       </c>
       <c r="K82" s="2">
-        <v>0.017020212182160321</v>
+        <v>0.017013290840509399</v>
       </c>
       <c r="L82" s="4">
-        <v>1.0312092996059996</v>
+        <v>1.03131093071623</v>
       </c>
       <c r="M82" s="4">
         <v>1.0224649453142305</v>
       </c>
       <c r="N82" s="2">
-        <v>0.0087443542917691186</v>
+        <v>0.0088459854019995454</v>
       </c>
       <c r="O82" s="8" t="b">
         <v>1</v>
@@ -8240,31 +8240,31 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="F83" s="3">
-        <v>0.14818490815196916</v>
+        <v>0.14819321349364337</v>
       </c>
       <c r="G83" s="3">
         <v>0.13416074779839651</v>
       </c>
       <c r="H83" s="2">
-        <v>0.014024160353572651</v>
+        <v>0.014032465695246854</v>
       </c>
       <c r="I83" s="4">
-        <v>27.510550979712491</v>
+        <v>27.510723800845369</v>
       </c>
       <c r="J83" s="4">
         <v>27.511232100599102</v>
       </c>
       <c r="K83" s="2">
-        <v>0.00068112088661109738</v>
+        <v>0.00050829975373289926</v>
       </c>
       <c r="L83" s="4">
-        <v>1.0204801763052076</v>
+        <v>1.0202972122285416</v>
       </c>
       <c r="M83" s="4">
         <v>1.0331539723831298</v>
       </c>
       <c r="N83" s="2">
-        <v>0.012673796077922184</v>
+        <v>0.012856760154588143</v>
       </c>
       <c r="O83" s="8" t="b">
         <v>1</v>
@@ -8318,31 +8318,31 @@
         <v>0.38</v>
       </c>
       <c r="F84" s="3">
-        <v>0.14545445358911058</v>
+        <v>0.14547347993185411</v>
       </c>
       <c r="G84" s="3">
         <v>0.13611690028373916</v>
       </c>
       <c r="H84" s="2">
-        <v>0.009337553305371421</v>
+        <v>0.0093565796481149544</v>
       </c>
       <c r="I84" s="4">
-        <v>27.514665993858102</v>
+        <v>27.513590804180581</v>
       </c>
       <c r="J84" s="4">
         <v>27.521402732450838</v>
       </c>
       <c r="K84" s="2">
-        <v>0.0067367385927354917</v>
+        <v>0.0078119282702573401</v>
       </c>
       <c r="L84" s="4">
-        <v>1.0157639091493498</v>
+        <v>1.0157766592961586</v>
       </c>
       <c r="M84" s="4">
         <v>1.037995257540274</v>
       </c>
       <c r="N84" s="2">
-        <v>0.022231348390924222</v>
+        <v>0.022218598244115428</v>
       </c>
       <c r="O84" s="8" t="b">
         <v>1</v>
@@ -8396,31 +8396,31 @@
         <v>0.34999999999999998</v>
       </c>
       <c r="F85" s="3">
-        <v>0.12552986946696648</v>
+        <v>0.12552786496926327</v>
       </c>
       <c r="G85" s="3">
         <v>0.15187483410319041</v>
       </c>
       <c r="H85" s="2">
-        <v>0.026344964636223933</v>
+        <v>0.026346969133927145</v>
       </c>
       <c r="I85" s="4">
-        <v>27.511458320862403</v>
+        <v>27.511012751647058</v>
       </c>
       <c r="J85" s="4">
         <v>27.510604394039035</v>
       </c>
       <c r="K85" s="2">
-        <v>0.00085392682336760117</v>
+        <v>0.00040835760802337973</v>
       </c>
       <c r="L85" s="4">
-        <v>1.1034811330801617</v>
+        <v>1.1034788368319166</v>
       </c>
       <c r="M85" s="4">
         <v>0.98258869101576674</v>
       </c>
       <c r="N85" s="2">
-        <v>0.12089244206439498</v>
+        <v>0.12089014581614987</v>
       </c>
       <c r="O85" s="8" t="b">
         <v>1</v>
@@ -8474,31 +8474,31 @@
         <v>0.63</v>
       </c>
       <c r="F86" s="3">
-        <v>0.14072635172112147</v>
+        <v>0.14072663622323101</v>
       </c>
       <c r="G86" s="3">
         <v>0.14071422807311085</v>
       </c>
       <c r="H86" s="2">
-        <v>1.2123648010620158e-05</v>
+        <v>1.2408150120157835e-05</v>
       </c>
       <c r="I86" s="4">
-        <v>27.511402804254829</v>
+        <v>27.511404141952767</v>
       </c>
       <c r="J86" s="4">
         <v>27.510806116311301</v>
       </c>
       <c r="K86" s="2">
-        <v>0.00059668794352774057</v>
+        <v>0.00059802564146593795</v>
       </c>
       <c r="L86" s="4">
-        <v>1.0274745772036982</v>
+        <v>1.0275837042690799</v>
       </c>
       <c r="M86" s="4">
         <v>1.0276130596207806</v>
       </c>
       <c r="N86" s="2">
-        <v>0.000138482417082475</v>
+        <v>2.935535170078829e-05</v>
       </c>
       <c r="O86" s="8" t="b">
         <v>1</v>
@@ -8552,31 +8552,31 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="F87" s="3">
-        <v>0.14003197448002866</v>
+        <v>0.14004793539386212</v>
       </c>
       <c r="G87" s="3">
         <v>0.14139079768816568</v>
       </c>
       <c r="H87" s="2">
-        <v>0.0013588232081370166</v>
+        <v>0.001342862294303554</v>
       </c>
       <c r="I87" s="4">
-        <v>27.511562292141093</v>
+        <v>27.510806914148986</v>
       </c>
       <c r="J87" s="4">
         <v>27.511451564091374</v>
       </c>
       <c r="K87" s="2">
-        <v>0.00011072804971945516</v>
+        <v>0.00064464994238733198</v>
       </c>
       <c r="L87" s="4">
-        <v>1.0306733560279502</v>
+        <v>1.0307350885318791</v>
       </c>
       <c r="M87" s="4">
         <v>1.0246184679003862</v>
       </c>
       <c r="N87" s="2">
-        <v>0.0060548881275639399</v>
+        <v>0.0061166206314928751</v>
       </c>
       <c r="O87" s="8" t="b">
         <v>1</v>
@@ -8630,31 +8630,31 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="F88" s="3">
-        <v>0.15184453731484693</v>
+        <v>0.15182165746227563</v>
       </c>
       <c r="G88" s="3">
         <v>0.12559216721718552</v>
       </c>
       <c r="H88" s="2">
-        <v>0.026252370097661404</v>
+        <v>0.026229490245090109</v>
       </c>
       <c r="I88" s="4">
-        <v>27.511363333926966</v>
+        <v>27.511375653759615</v>
       </c>
       <c r="J88" s="4">
         <v>27.510433922562868</v>
       </c>
       <c r="K88" s="2">
-        <v>0.00092941136409763203</v>
+        <v>0.00094173119674678674</v>
       </c>
       <c r="L88" s="4">
-        <v>0.98391730717034476</v>
+        <v>0.98419537488951347</v>
       </c>
       <c r="M88" s="4">
         <v>1.1035102483261234</v>
       </c>
       <c r="N88" s="2">
-        <v>0.11959294115577868</v>
+        <v>0.11931487343660996</v>
       </c>
       <c r="O88" s="8" t="b">
         <v>1</v>
@@ -8708,31 +8708,31 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="F89" s="3">
-        <v>0.15180809032341613</v>
+        <v>0.15180870916996656</v>
       </c>
       <c r="G89" s="3">
         <v>0.13055212962945525</v>
       </c>
       <c r="H89" s="2">
-        <v>0.021255960693960879</v>
+        <v>0.0212565795405113</v>
       </c>
       <c r="I89" s="4">
-        <v>27.51056457460021</v>
+        <v>27.510654309329368</v>
       </c>
       <c r="J89" s="4">
         <v>27.510848075354261</v>
       </c>
       <c r="K89" s="2">
-        <v>0.00028350075405114694</v>
+        <v>0.00019376602489273864</v>
       </c>
       <c r="L89" s="4">
-        <v>0.98332876137754155</v>
+        <v>0.98284570357107537</v>
       </c>
       <c r="M89" s="4">
         <v>1.0757255030073491</v>
       </c>
       <c r="N89" s="2">
-        <v>0.0923967416298076</v>
+        <v>0.09287979943627378</v>
       </c>
       <c r="O89" s="8" t="b">
         <v>1</v>
@@ -8786,31 +8786,31 @@
         <v>0.29999999999999999</v>
       </c>
       <c r="F90" s="3">
-        <v>0.14184058741346064</v>
+        <v>0.14184108164606812</v>
       </c>
       <c r="G90" s="3">
         <v>0.13960515054013026</v>
       </c>
       <c r="H90" s="2">
-        <v>0.0022354368733303875</v>
+        <v>0.0022359311059378662</v>
       </c>
       <c r="I90" s="4">
-        <v>27.510828811577653</v>
+        <v>27.510537653468134</v>
       </c>
       <c r="J90" s="4">
         <v>27.512286862824624</v>
       </c>
       <c r="K90" s="2">
-        <v>0.0014580512469706264</v>
+        <v>0.0017492093564897004</v>
       </c>
       <c r="L90" s="4">
-        <v>1.0225864425788214</v>
+        <v>1.0227247869708487</v>
       </c>
       <c r="M90" s="4">
         <v>1.0325175813702339</v>
       </c>
       <c r="N90" s="2">
-        <v>0.0099311387914124971</v>
+        <v>0.0097927943993851852</v>
       </c>
       <c r="O90" s="8" t="b">
         <v>1</v>
@@ -8864,31 +8864,31 @@
         <v>7600</v>
       </c>
       <c r="F91" s="3">
-        <v>0.14121394676532226</v>
+        <v>0.14123439355133297</v>
       </c>
       <c r="G91" s="3">
         <v>0.13995614196132475</v>
       </c>
       <c r="H91" s="2">
-        <v>0.0012578048039975087</v>
+        <v>0.001278251590008217</v>
       </c>
       <c r="I91" s="4">
-        <v>27.511709834512374</v>
+        <v>27.510818185233745</v>
       </c>
       <c r="J91" s="4">
         <v>27.511349183075367</v>
       </c>
       <c r="K91" s="2">
-        <v>0.00036065143700625413</v>
+        <v>0.00053099784162213837</v>
       </c>
       <c r="L91" s="4">
-        <v>1.0068824834151631</v>
+        <v>1.0060386936486096</v>
       </c>
       <c r="M91" s="4">
         <v>1.0854688315615693</v>
       </c>
       <c r="N91" s="2">
-        <v>0.078586348146406193</v>
+        <v>0.079430137912959609</v>
       </c>
       <c r="O91" s="8" t="b">
         <v>1</v>
@@ -8942,31 +8942,31 @@
         <v>-0.085000000000000006</v>
       </c>
       <c r="F92" s="3">
-        <v>0.14072627984857264</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="G92" s="3">
         <v>0.14072627984857264</v>
       </c>
       <c r="H92" s="2">
-        <v>0</v>
+        <v>1.0534981475823768e-05</v>
       </c>
       <c r="I92" s="4">
-        <v>27.511397910621099</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="J92" s="4">
         <v>27.511397910621099</v>
       </c>
       <c r="K92" s="2">
-        <v>0</v>
+        <v>4.4603661422115693e-06</v>
       </c>
       <c r="L92" s="4">
-        <v>1.0274158185617246</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="M92" s="4">
         <v>1.0274158185617246</v>
       </c>
       <c r="N92" s="2">
-        <v>0</v>
+        <v>0.0001649829569911887</v>
       </c>
       <c r="O92" s="8" t="b">
         <v>1</v>
@@ -9020,31 +9020,31 @@
         <v>0.065000000000000002</v>
       </c>
       <c r="F93" s="3">
-        <v>0.14072627984857264</v>
+        <v>0.14071574486709682</v>
       </c>
       <c r="G93" s="3">
         <v>0.14071574486709682</v>
       </c>
       <c r="H93" s="2">
-        <v>1.0534981475823768e-05</v>
+        <v>0</v>
       </c>
       <c r="I93" s="4">
-        <v>27.511397910621099</v>
+        <v>27.511393450254957</v>
       </c>
       <c r="J93" s="4">
         <v>27.511393450254957</v>
       </c>
       <c r="K93" s="2">
-        <v>4.4603661422115693e-06</v>
+        <v>0</v>
       </c>
       <c r="L93" s="4">
-        <v>1.0274158185617246</v>
+        <v>1.0272508356047334</v>
       </c>
       <c r="M93" s="4">
         <v>1.0272508356047334</v>
       </c>
       <c r="N93" s="2">
-        <v>0.0001649829569911887</v>
+        <v>0</v>
       </c>
       <c r="O93" s="8" t="b">
         <v>1</v>
@@ -9098,31 +9098,31 @@
         <v>58000</v>
       </c>
       <c r="F94" s="3">
-        <v>0.1419167839203383</v>
+        <v>0.14189188149003992</v>
       </c>
       <c r="G94" s="3">
         <v>0.13921861854170367</v>
       </c>
       <c r="H94" s="2">
-        <v>0.002698165378634626</v>
+        <v>0.0026732629483362525</v>
       </c>
       <c r="I94" s="4">
-        <v>27.510696863880526</v>
+        <v>27.511511045976761</v>
       </c>
       <c r="J94" s="4">
         <v>27.509882617402411</v>
       </c>
       <c r="K94" s="2">
-        <v>0.00081424647811445539</v>
+        <v>0.0016284285743495275</v>
       </c>
       <c r="L94" s="4">
-        <v>1.0294745811034167</v>
+        <v>1.0297636597031901</v>
       </c>
       <c r="M94" s="4">
         <v>1.0308099213875723</v>
       </c>
       <c r="N94" s="2">
-        <v>0.0013353402841556061</v>
+        <v>0.0010462616843822659</v>
       </c>
       <c r="O94" s="8" t="b">
         <v>1</v>
@@ -9176,31 +9176,31 @@
         <v>60</v>
       </c>
       <c r="F95" s="3">
-        <v>0.14745509252990505</v>
+        <v>0.14743761976100367</v>
       </c>
       <c r="G95" s="3">
         <v>0.13497913969654107</v>
       </c>
       <c r="H95" s="2">
-        <v>0.012475952833363974</v>
+        <v>0.012458480064462596</v>
       </c>
       <c r="I95" s="4">
-        <v>27.510593154100775</v>
+        <v>27.511372545952668</v>
       </c>
       <c r="J95" s="4">
         <v>27.512211856389683</v>
       </c>
       <c r="K95" s="2">
-        <v>0.0016187022889084801</v>
+        <v>0.00083931043701568342</v>
       </c>
       <c r="L95" s="4">
-        <v>1.0001318443834066</v>
+        <v>1.0001286533324085</v>
       </c>
       <c r="M95" s="4">
         <v>1.0540507156076111</v>
       </c>
       <c r="N95" s="2">
-        <v>0.053918871224204468</v>
+        <v>0.053922062275202576</v>
       </c>
       <c r="O95" s="8" t="b">
         <v>1</v>
